--- a/public/reportTemplates/plantilla_ped_excel.xlsx
+++ b/public/reportTemplates/plantilla_ped_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Laravel\PRUEBAS\panda-cinda-back\public\reportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6748D6-F5A1-49E0-AF35-412A5B44861F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C57BEB2-CF9D-4599-BB41-FD1FA4762288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>EVOLUCIÓN DIARIA</t>
   </si>
@@ -72,27 +72,6 @@
     <t>DIAGNÓSTICO DE TERAPIA OCUPACIONAL</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>F82</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> TRASTORNO ESPECÍFICO DEL DESARROLLO DE LA FUNCIÓN MOTRIZ </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">PROCESO: </t>
   </si>
   <si>
@@ -125,7 +104,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="d\-m\-yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -187,12 +166,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -337,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -372,48 +345,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,6 +362,60 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K237" sqref="K237"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,14 +797,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
@@ -844,12 +829,12 @@
       <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="6" t="s">
         <v>2</v>
       </c>
@@ -874,12 +859,12 @@
       <c r="Z2" s="5"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
@@ -904,12 +889,12 @@
       <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
@@ -941,8 +926,8 @@
       <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="8" t="s">
         <v>7</v>
       </c>
@@ -968,17 +953,17 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -1000,16 +985,16 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="36" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="10" t="s">
         <v>12</v>
       </c>
@@ -1040,9 +1025,9 @@
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -1064,17 +1049,15 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -1096,15 +1079,15 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
-        <v>16</v>
+      <c r="A10" s="26" t="s">
+        <v>15</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="4"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -1127,20 +1110,20 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -1162,16 +1145,16 @@
       <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="29">
         <v>1</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -1192,14 +1175,14 @@
       <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -1220,14 +1203,14 @@
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1248,14 +1231,14 @@
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1276,14 +1259,14 @@
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -1304,14 +1287,14 @@
       <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1332,16 +1315,16 @@
       <c r="Z17" s="5"/>
     </row>
     <row r="18" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
+      <c r="A18" s="29">
         <v>2</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1362,14 +1345,14 @@
       <c r="Z18" s="5"/>
     </row>
     <row r="19" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1390,14 +1373,14 @@
       <c r="Z19" s="5"/>
     </row>
     <row r="20" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -1418,14 +1401,14 @@
       <c r="Z20" s="5"/>
     </row>
     <row r="21" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -1446,14 +1429,14 @@
       <c r="Z21" s="5"/>
     </row>
     <row r="22" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -1474,14 +1457,14 @@
       <c r="Z22" s="5"/>
     </row>
     <row r="23" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -1502,16 +1485,16 @@
       <c r="Z23" s="5"/>
     </row>
     <row r="24" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
+      <c r="A24" s="29">
         <v>3</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -1532,14 +1515,14 @@
       <c r="Z24" s="5"/>
     </row>
     <row r="25" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="25"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -1560,14 +1543,14 @@
       <c r="Z25" s="5"/>
     </row>
     <row r="26" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="33"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -1588,14 +1571,14 @@
       <c r="Z26" s="5"/>
     </row>
     <row r="27" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -1616,14 +1599,14 @@
       <c r="Z27" s="5"/>
     </row>
     <row r="28" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1644,14 +1627,14 @@
       <c r="Z28" s="5"/>
     </row>
     <row r="29" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -1672,16 +1655,16 @@
       <c r="Z29" s="5"/>
     </row>
     <row r="30" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21">
+      <c r="A30" s="29">
         <v>4</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -1702,14 +1685,14 @@
       <c r="Z30" s="5"/>
     </row>
     <row r="31" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -1730,14 +1713,14 @@
       <c r="Z31" s="5"/>
     </row>
     <row r="32" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="25"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -1758,14 +1741,14 @@
       <c r="Z32" s="5"/>
     </row>
     <row r="33" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="25"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="33"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -1786,14 +1769,14 @@
       <c r="Z33" s="5"/>
     </row>
     <row r="34" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="25"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -1814,14 +1797,14 @@
       <c r="Z34" s="5"/>
     </row>
     <row r="35" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="33"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -1842,16 +1825,16 @@
       <c r="Z35" s="5"/>
     </row>
     <row r="36" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21">
+      <c r="A36" s="29">
         <v>5</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="25"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -1872,14 +1855,14 @@
       <c r="Z36" s="5"/>
     </row>
     <row r="37" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="25"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -1900,14 +1883,14 @@
       <c r="Z37" s="5"/>
     </row>
     <row r="38" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="25"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="33"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -1928,14 +1911,14 @@
       <c r="Z38" s="5"/>
     </row>
     <row r="39" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="25"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="33"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -1956,14 +1939,14 @@
       <c r="Z39" s="5"/>
     </row>
     <row r="40" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="25"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="33"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -1984,14 +1967,14 @@
       <c r="Z40" s="5"/>
     </row>
     <row r="41" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="25"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="33"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -2012,16 +1995,16 @@
       <c r="Z41" s="5"/>
     </row>
     <row r="42" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21">
+      <c r="A42" s="29">
         <v>6</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="25"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="33"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -2042,14 +2025,14 @@
       <c r="Z42" s="5"/>
     </row>
     <row r="43" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="25"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="33"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -2070,14 +2053,14 @@
       <c r="Z43" s="5"/>
     </row>
     <row r="44" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="25"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="33"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -2098,14 +2081,14 @@
       <c r="Z44" s="5"/>
     </row>
     <row r="45" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="25"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="33"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
@@ -2126,14 +2109,14 @@
       <c r="Z45" s="5"/>
     </row>
     <row r="46" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="25"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="33"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
@@ -2151,14 +2134,14 @@
       <c r="Z46" s="5"/>
     </row>
     <row r="47" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="25"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="33"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
@@ -2176,16 +2159,16 @@
       <c r="Z47" s="5"/>
     </row>
     <row r="48" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="21">
+      <c r="A48" s="29">
         <v>7</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="25"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="33"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -2206,14 +2189,14 @@
       <c r="Z48" s="5"/>
     </row>
     <row r="49" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="25"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="33"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -2234,14 +2217,14 @@
       <c r="Z49" s="5"/>
     </row>
     <row r="50" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="21"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="25"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="33"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -2262,14 +2245,14 @@
       <c r="Z50" s="5"/>
     </row>
     <row r="51" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="21"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="25"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="33"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -2290,14 +2273,14 @@
       <c r="Z51" s="5"/>
     </row>
     <row r="52" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="25"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="33"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -2318,14 +2301,14 @@
       <c r="Z52" s="5"/>
     </row>
     <row r="53" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="21"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="25"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="33"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
@@ -2346,16 +2329,16 @@
       <c r="Z53" s="5"/>
     </row>
     <row r="54" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
+      <c r="A54" s="29">
         <v>8</v>
       </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="25"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="33"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -2376,14 +2359,14 @@
       <c r="Z54" s="5"/>
     </row>
     <row r="55" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="21"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="25"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="33"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
@@ -2404,14 +2387,14 @@
       <c r="Z55" s="5"/>
     </row>
     <row r="56" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="25"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="33"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
@@ -2432,14 +2415,14 @@
       <c r="Z56" s="5"/>
     </row>
     <row r="57" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="21"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="25"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="33"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
@@ -2460,14 +2443,14 @@
       <c r="Z57" s="5"/>
     </row>
     <row r="58" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="25"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="33"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
@@ -2488,14 +2471,14 @@
       <c r="Z58" s="5"/>
     </row>
     <row r="59" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="21"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="25"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="33"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
@@ -2516,16 +2499,16 @@
       <c r="Z59" s="5"/>
     </row>
     <row r="60" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="21">
+      <c r="A60" s="29">
         <v>9</v>
       </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="25"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="33"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
@@ -2546,14 +2529,14 @@
       <c r="Z60" s="5"/>
     </row>
     <row r="61" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="21"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="25"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="33"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
@@ -2574,14 +2557,14 @@
       <c r="Z61" s="5"/>
     </row>
     <row r="62" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="25"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="33"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
@@ -2602,14 +2585,14 @@
       <c r="Z62" s="5"/>
     </row>
     <row r="63" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="25"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="33"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
@@ -2630,14 +2613,14 @@
       <c r="Z63" s="5"/>
     </row>
     <row r="64" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="21"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="25"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="33"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
@@ -2658,14 +2641,14 @@
       <c r="Z64" s="5"/>
     </row>
     <row r="65" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="21"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="25"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="33"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
@@ -2686,16 +2669,16 @@
       <c r="Z65" s="5"/>
     </row>
     <row r="66" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21">
+      <c r="A66" s="29">
         <v>10</v>
       </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="25"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="33"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
@@ -2716,14 +2699,14 @@
       <c r="Z66" s="5"/>
     </row>
     <row r="67" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="21"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="25"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="33"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
@@ -2744,14 +2727,14 @@
       <c r="Z67" s="5"/>
     </row>
     <row r="68" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="25"/>
+      <c r="A68" s="29"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="33"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
@@ -2772,14 +2755,14 @@
       <c r="Z68" s="5"/>
     </row>
     <row r="69" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="21"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="25"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="33"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
@@ -2800,14 +2783,14 @@
       <c r="Z69" s="5"/>
     </row>
     <row r="70" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="21"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="25"/>
+      <c r="A70" s="29"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="33"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
@@ -2828,14 +2811,14 @@
       <c r="Z70" s="5"/>
     </row>
     <row r="71" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="21"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="25"/>
+      <c r="A71" s="29"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="33"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
@@ -2856,16 +2839,16 @@
       <c r="Z71" s="5"/>
     </row>
     <row r="72" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="21">
+      <c r="A72" s="29">
         <v>11</v>
       </c>
-      <c r="B72" s="22"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="25"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="33"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
@@ -2886,14 +2869,14 @@
       <c r="Z72" s="5"/>
     </row>
     <row r="73" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="21"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="25"/>
+      <c r="A73" s="29"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="33"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
@@ -2914,14 +2897,14 @@
       <c r="Z73" s="5"/>
     </row>
     <row r="74" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="21"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="25"/>
+      <c r="A74" s="29"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="33"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
@@ -2942,14 +2925,14 @@
       <c r="Z74" s="5"/>
     </row>
     <row r="75" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="21"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="25"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="33"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
@@ -2970,14 +2953,14 @@
       <c r="Z75" s="5"/>
     </row>
     <row r="76" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="21"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="25"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="33"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
@@ -2998,14 +2981,14 @@
       <c r="Z76" s="5"/>
     </row>
     <row r="77" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="21"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="25"/>
+      <c r="A77" s="29"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="33"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
@@ -3026,16 +3009,16 @@
       <c r="Z77" s="5"/>
     </row>
     <row r="78" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="21">
+      <c r="A78" s="29">
         <v>12</v>
       </c>
-      <c r="B78" s="22"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="25"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="33"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
@@ -3056,14 +3039,14 @@
       <c r="Z78" s="5"/>
     </row>
     <row r="79" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="21"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="25"/>
+      <c r="A79" s="29"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="33"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
@@ -3084,14 +3067,14 @@
       <c r="Z79" s="5"/>
     </row>
     <row r="80" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="21"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="25"/>
+      <c r="A80" s="29"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="33"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
@@ -3112,14 +3095,14 @@
       <c r="Z80" s="5"/>
     </row>
     <row r="81" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="21"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="25"/>
+      <c r="A81" s="29"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="33"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
@@ -3140,14 +3123,14 @@
       <c r="Z81" s="5"/>
     </row>
     <row r="82" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="21"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="25"/>
+      <c r="A82" s="29"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="33"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
@@ -3168,14 +3151,14 @@
       <c r="Z82" s="5"/>
     </row>
     <row r="83" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="21"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="25"/>
+      <c r="A83" s="29"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="33"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
@@ -3196,16 +3179,16 @@
       <c r="Z83" s="5"/>
     </row>
     <row r="84" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="21">
+      <c r="A84" s="29">
         <v>13</v>
       </c>
-      <c r="B84" s="22"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="25"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="33"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
@@ -3226,14 +3209,14 @@
       <c r="Z84" s="5"/>
     </row>
     <row r="85" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="21"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="25"/>
+      <c r="A85" s="29"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="33"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
@@ -3254,14 +3237,14 @@
       <c r="Z85" s="5"/>
     </row>
     <row r="86" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="21"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="25"/>
+      <c r="A86" s="29"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="33"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
@@ -3282,14 +3265,14 @@
       <c r="Z86" s="5"/>
     </row>
     <row r="87" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="21"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="25"/>
+      <c r="A87" s="29"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="33"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
@@ -3310,14 +3293,14 @@
       <c r="Z87" s="5"/>
     </row>
     <row r="88" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="21"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="25"/>
+      <c r="A88" s="29"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="33"/>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
@@ -3338,14 +3321,14 @@
       <c r="Z88" s="5"/>
     </row>
     <row r="89" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="21"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="25"/>
+      <c r="A89" s="29"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="33"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
@@ -3366,16 +3349,16 @@
       <c r="Z89" s="5"/>
     </row>
     <row r="90" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="21">
+      <c r="A90" s="29">
         <v>14</v>
       </c>
-      <c r="B90" s="22"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="25"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="33"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
@@ -3396,14 +3379,14 @@
       <c r="Z90" s="5"/>
     </row>
     <row r="91" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="21"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="25"/>
+      <c r="A91" s="29"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="33"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
@@ -3424,14 +3407,14 @@
       <c r="Z91" s="5"/>
     </row>
     <row r="92" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="21"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="25"/>
+      <c r="A92" s="29"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="33"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
@@ -3452,14 +3435,14 @@
       <c r="Z92" s="5"/>
     </row>
     <row r="93" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="21"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="25"/>
+      <c r="A93" s="29"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="33"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
@@ -3480,14 +3463,14 @@
       <c r="Z93" s="5"/>
     </row>
     <row r="94" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="21"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="25"/>
+      <c r="A94" s="29"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="33"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
@@ -3508,14 +3491,14 @@
       <c r="Z94" s="5"/>
     </row>
     <row r="95" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="21"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="25"/>
+      <c r="A95" s="29"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="33"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
@@ -3536,16 +3519,16 @@
       <c r="Z95" s="5"/>
     </row>
     <row r="96" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="21">
+      <c r="A96" s="29">
         <v>15</v>
       </c>
-      <c r="B96" s="22"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="25"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="33"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
@@ -3566,14 +3549,14 @@
       <c r="Z96" s="5"/>
     </row>
     <row r="97" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="21"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="25"/>
+      <c r="A97" s="29"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="33"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
@@ -3594,14 +3577,14 @@
       <c r="Z97" s="5"/>
     </row>
     <row r="98" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="21"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="25"/>
+      <c r="A98" s="29"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="33"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -3622,14 +3605,14 @@
       <c r="Z98" s="5"/>
     </row>
     <row r="99" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="21"/>
-      <c r="B99" s="22"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="25"/>
+      <c r="A99" s="29"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="33"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -3650,14 +3633,14 @@
       <c r="Z99" s="5"/>
     </row>
     <row r="100" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="21"/>
-      <c r="B100" s="22"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="25"/>
+      <c r="A100" s="29"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="33"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
@@ -3678,14 +3661,14 @@
       <c r="Z100" s="5"/>
     </row>
     <row r="101" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="21"/>
-      <c r="B101" s="22"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="25"/>
+      <c r="A101" s="29"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="33"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
@@ -3706,16 +3689,16 @@
       <c r="Z101" s="5"/>
     </row>
     <row r="102" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="21">
+      <c r="A102" s="29">
         <v>16</v>
       </c>
-      <c r="B102" s="22"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="25"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="33"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
@@ -3736,14 +3719,14 @@
       <c r="Z102" s="5"/>
     </row>
     <row r="103" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="21"/>
-      <c r="B103" s="22"/>
-      <c r="C103" s="23"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="25"/>
+      <c r="A103" s="29"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="33"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
@@ -3764,14 +3747,14 @@
       <c r="Z103" s="5"/>
     </row>
     <row r="104" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="21"/>
-      <c r="B104" s="22"/>
-      <c r="C104" s="23"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="25"/>
+      <c r="A104" s="29"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="33"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
@@ -3792,14 +3775,14 @@
       <c r="Z104" s="5"/>
     </row>
     <row r="105" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="21"/>
-      <c r="B105" s="22"/>
-      <c r="C105" s="23"/>
-      <c r="D105" s="24"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="25"/>
+      <c r="A105" s="29"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="33"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
@@ -3820,14 +3803,14 @@
       <c r="Z105" s="5"/>
     </row>
     <row r="106" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="21"/>
-      <c r="B106" s="22"/>
-      <c r="C106" s="23"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="25"/>
+      <c r="A106" s="29"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="33"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
@@ -3848,14 +3831,14 @@
       <c r="Z106" s="5"/>
     </row>
     <row r="107" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="21"/>
-      <c r="B107" s="22"/>
-      <c r="C107" s="23"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="25"/>
+      <c r="A107" s="29"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="33"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
@@ -3876,16 +3859,16 @@
       <c r="Z107" s="5"/>
     </row>
     <row r="108" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="21">
+      <c r="A108" s="29">
         <v>17</v>
       </c>
-      <c r="B108" s="22"/>
-      <c r="C108" s="23"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="25"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="33"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
@@ -3906,14 +3889,14 @@
       <c r="Z108" s="5"/>
     </row>
     <row r="109" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="21"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="23"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="25"/>
+      <c r="A109" s="29"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="32"/>
+      <c r="G109" s="32"/>
+      <c r="H109" s="33"/>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
@@ -3934,14 +3917,14 @@
       <c r="Z109" s="5"/>
     </row>
     <row r="110" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="21"/>
-      <c r="B110" s="22"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="24"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="24"/>
-      <c r="H110" s="25"/>
+      <c r="A110" s="29"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="33"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
@@ -3962,14 +3945,14 @@
       <c r="Z110" s="5"/>
     </row>
     <row r="111" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="21"/>
-      <c r="B111" s="22"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="25"/>
+      <c r="A111" s="29"/>
+      <c r="B111" s="30"/>
+      <c r="C111" s="31"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="32"/>
+      <c r="H111" s="33"/>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
@@ -3990,14 +3973,14 @@
       <c r="Z111" s="5"/>
     </row>
     <row r="112" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="21"/>
-      <c r="B112" s="22"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="24"/>
-      <c r="H112" s="25"/>
+      <c r="A112" s="29"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="32"/>
+      <c r="G112" s="32"/>
+      <c r="H112" s="33"/>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
@@ -4018,14 +4001,14 @@
       <c r="Z112" s="5"/>
     </row>
     <row r="113" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="21"/>
-      <c r="B113" s="22"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="24"/>
-      <c r="H113" s="25"/>
+      <c r="A113" s="29"/>
+      <c r="B113" s="30"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="32"/>
+      <c r="F113" s="32"/>
+      <c r="G113" s="32"/>
+      <c r="H113" s="33"/>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
@@ -4046,16 +4029,16 @@
       <c r="Z113" s="5"/>
     </row>
     <row r="114" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="21">
+      <c r="A114" s="29">
         <v>18</v>
       </c>
-      <c r="B114" s="22"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="25"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="32"/>
+      <c r="F114" s="32"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="33"/>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
@@ -4076,14 +4059,14 @@
       <c r="Z114" s="5"/>
     </row>
     <row r="115" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="21"/>
-      <c r="B115" s="22"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="25"/>
+      <c r="A115" s="29"/>
+      <c r="B115" s="30"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="32"/>
+      <c r="F115" s="32"/>
+      <c r="G115" s="32"/>
+      <c r="H115" s="33"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
@@ -4104,14 +4087,14 @@
       <c r="Z115" s="5"/>
     </row>
     <row r="116" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="21"/>
-      <c r="B116" s="22"/>
-      <c r="C116" s="23"/>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="25"/>
+      <c r="A116" s="29"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="33"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
@@ -4132,14 +4115,14 @@
       <c r="Z116" s="5"/>
     </row>
     <row r="117" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="21"/>
-      <c r="B117" s="22"/>
-      <c r="C117" s="23"/>
-      <c r="D117" s="24"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="25"/>
+      <c r="A117" s="29"/>
+      <c r="B117" s="30"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="32"/>
+      <c r="E117" s="32"/>
+      <c r="F117" s="32"/>
+      <c r="G117" s="32"/>
+      <c r="H117" s="33"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
@@ -4160,14 +4143,14 @@
       <c r="Z117" s="5"/>
     </row>
     <row r="118" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="21"/>
-      <c r="B118" s="22"/>
-      <c r="C118" s="23"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="24"/>
-      <c r="H118" s="25"/>
+      <c r="A118" s="29"/>
+      <c r="B118" s="30"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="32"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="32"/>
+      <c r="G118" s="32"/>
+      <c r="H118" s="33"/>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
@@ -4188,14 +4171,14 @@
       <c r="Z118" s="5"/>
     </row>
     <row r="119" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="21"/>
-      <c r="B119" s="22"/>
-      <c r="C119" s="23"/>
-      <c r="D119" s="24"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="24"/>
-      <c r="G119" s="24"/>
-      <c r="H119" s="25"/>
+      <c r="A119" s="29"/>
+      <c r="B119" s="30"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="32"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="32"/>
+      <c r="H119" s="33"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
@@ -4216,16 +4199,16 @@
       <c r="Z119" s="5"/>
     </row>
     <row r="120" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="21">
+      <c r="A120" s="29">
         <v>19</v>
       </c>
-      <c r="B120" s="22"/>
-      <c r="C120" s="23"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="25"/>
+      <c r="B120" s="30"/>
+      <c r="C120" s="31"/>
+      <c r="D120" s="32"/>
+      <c r="E120" s="32"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="32"/>
+      <c r="H120" s="33"/>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
@@ -4246,14 +4229,14 @@
       <c r="Z120" s="5"/>
     </row>
     <row r="121" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="21"/>
-      <c r="B121" s="22"/>
-      <c r="C121" s="23"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="25"/>
+      <c r="A121" s="29"/>
+      <c r="B121" s="30"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="32"/>
+      <c r="H121" s="33"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
@@ -4274,14 +4257,14 @@
       <c r="Z121" s="5"/>
     </row>
     <row r="122" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="21"/>
-      <c r="B122" s="22"/>
-      <c r="C122" s="23"/>
-      <c r="D122" s="24"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="24"/>
-      <c r="H122" s="25"/>
+      <c r="A122" s="29"/>
+      <c r="B122" s="30"/>
+      <c r="C122" s="31"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="32"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="33"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
@@ -4302,14 +4285,14 @@
       <c r="Z122" s="5"/>
     </row>
     <row r="123" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="21"/>
-      <c r="B123" s="22"/>
-      <c r="C123" s="23"/>
-      <c r="D123" s="24"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="24"/>
-      <c r="G123" s="24"/>
-      <c r="H123" s="25"/>
+      <c r="A123" s="29"/>
+      <c r="B123" s="30"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32"/>
+      <c r="G123" s="32"/>
+      <c r="H123" s="33"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
@@ -4330,14 +4313,14 @@
       <c r="Z123" s="5"/>
     </row>
     <row r="124" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="21"/>
-      <c r="B124" s="22"/>
-      <c r="C124" s="23"/>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="24"/>
-      <c r="H124" s="25"/>
+      <c r="A124" s="29"/>
+      <c r="B124" s="30"/>
+      <c r="C124" s="31"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="32"/>
+      <c r="F124" s="32"/>
+      <c r="G124" s="32"/>
+      <c r="H124" s="33"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
@@ -4358,14 +4341,14 @@
       <c r="Z124" s="5"/>
     </row>
     <row r="125" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="21"/>
-      <c r="B125" s="22"/>
-      <c r="C125" s="23"/>
-      <c r="D125" s="24"/>
-      <c r="E125" s="24"/>
-      <c r="F125" s="24"/>
-      <c r="G125" s="24"/>
-      <c r="H125" s="25"/>
+      <c r="A125" s="29"/>
+      <c r="B125" s="30"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="32"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="32"/>
+      <c r="H125" s="33"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
@@ -4386,16 +4369,16 @@
       <c r="Z125" s="5"/>
     </row>
     <row r="126" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="21">
+      <c r="A126" s="29">
         <v>20</v>
       </c>
-      <c r="B126" s="22"/>
-      <c r="C126" s="23"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="24"/>
-      <c r="H126" s="25"/>
+      <c r="B126" s="30"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="32"/>
+      <c r="G126" s="32"/>
+      <c r="H126" s="33"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
@@ -4416,14 +4399,14 @@
       <c r="Z126" s="5"/>
     </row>
     <row r="127" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="21"/>
-      <c r="B127" s="22"/>
-      <c r="C127" s="23"/>
-      <c r="D127" s="24"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="24"/>
-      <c r="G127" s="24"/>
-      <c r="H127" s="25"/>
+      <c r="A127" s="29"/>
+      <c r="B127" s="30"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="32"/>
+      <c r="H127" s="33"/>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
@@ -4444,14 +4427,14 @@
       <c r="Z127" s="5"/>
     </row>
     <row r="128" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="21"/>
-      <c r="B128" s="22"/>
-      <c r="C128" s="23"/>
-      <c r="D128" s="24"/>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="24"/>
-      <c r="H128" s="25"/>
+      <c r="A128" s="29"/>
+      <c r="B128" s="30"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="32"/>
+      <c r="H128" s="33"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
@@ -4472,14 +4455,14 @@
       <c r="Z128" s="5"/>
     </row>
     <row r="129" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="21"/>
-      <c r="B129" s="22"/>
-      <c r="C129" s="23"/>
-      <c r="D129" s="24"/>
-      <c r="E129" s="24"/>
-      <c r="F129" s="24"/>
-      <c r="G129" s="24"/>
-      <c r="H129" s="25"/>
+      <c r="A129" s="29"/>
+      <c r="B129" s="30"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="32"/>
+      <c r="F129" s="32"/>
+      <c r="G129" s="32"/>
+      <c r="H129" s="33"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
@@ -4500,14 +4483,14 @@
       <c r="Z129" s="5"/>
     </row>
     <row r="130" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="21"/>
-      <c r="B130" s="22"/>
-      <c r="C130" s="23"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="24"/>
-      <c r="F130" s="24"/>
-      <c r="G130" s="24"/>
-      <c r="H130" s="25"/>
+      <c r="A130" s="29"/>
+      <c r="B130" s="30"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="32"/>
+      <c r="H130" s="33"/>
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
@@ -4528,14 +4511,14 @@
       <c r="Z130" s="5"/>
     </row>
     <row r="131" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="21"/>
-      <c r="B131" s="22"/>
-      <c r="C131" s="23"/>
-      <c r="D131" s="24"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="24"/>
-      <c r="H131" s="25"/>
+      <c r="A131" s="29"/>
+      <c r="B131" s="30"/>
+      <c r="C131" s="31"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="32"/>
+      <c r="G131" s="32"/>
+      <c r="H131" s="33"/>
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
@@ -4556,16 +4539,16 @@
       <c r="Z131" s="5"/>
     </row>
     <row r="132" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="21">
+      <c r="A132" s="29">
         <v>21</v>
       </c>
-      <c r="B132" s="22"/>
-      <c r="C132" s="23"/>
-      <c r="D132" s="24"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="24"/>
-      <c r="H132" s="25"/>
+      <c r="B132" s="30"/>
+      <c r="C132" s="31"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="32"/>
+      <c r="F132" s="32"/>
+      <c r="G132" s="32"/>
+      <c r="H132" s="33"/>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
@@ -4586,14 +4569,14 @@
       <c r="Z132" s="5"/>
     </row>
     <row r="133" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="21"/>
-      <c r="B133" s="22"/>
-      <c r="C133" s="23"/>
-      <c r="D133" s="24"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="24"/>
-      <c r="H133" s="25"/>
+      <c r="A133" s="29"/>
+      <c r="B133" s="30"/>
+      <c r="C133" s="31"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="32"/>
+      <c r="F133" s="32"/>
+      <c r="G133" s="32"/>
+      <c r="H133" s="33"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
@@ -4614,14 +4597,14 @@
       <c r="Z133" s="5"/>
     </row>
     <row r="134" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="21"/>
-      <c r="B134" s="22"/>
-      <c r="C134" s="23"/>
-      <c r="D134" s="24"/>
-      <c r="E134" s="24"/>
-      <c r="F134" s="24"/>
-      <c r="G134" s="24"/>
-      <c r="H134" s="25"/>
+      <c r="A134" s="29"/>
+      <c r="B134" s="30"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="32"/>
+      <c r="F134" s="32"/>
+      <c r="G134" s="32"/>
+      <c r="H134" s="33"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
@@ -4642,14 +4625,14 @@
       <c r="Z134" s="5"/>
     </row>
     <row r="135" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="21"/>
-      <c r="B135" s="22"/>
-      <c r="C135" s="23"/>
-      <c r="D135" s="24"/>
-      <c r="E135" s="24"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="24"/>
-      <c r="H135" s="25"/>
+      <c r="A135" s="29"/>
+      <c r="B135" s="30"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="32"/>
+      <c r="F135" s="32"/>
+      <c r="G135" s="32"/>
+      <c r="H135" s="33"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
@@ -4670,14 +4653,14 @@
       <c r="Z135" s="5"/>
     </row>
     <row r="136" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="21"/>
-      <c r="B136" s="22"/>
-      <c r="C136" s="23"/>
-      <c r="D136" s="24"/>
-      <c r="E136" s="24"/>
-      <c r="F136" s="24"/>
-      <c r="G136" s="24"/>
-      <c r="H136" s="25"/>
+      <c r="A136" s="29"/>
+      <c r="B136" s="30"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="32"/>
+      <c r="G136" s="32"/>
+      <c r="H136" s="33"/>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
       <c r="K136" s="5"/>
@@ -4698,14 +4681,14 @@
       <c r="Z136" s="5"/>
     </row>
     <row r="137" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="21"/>
-      <c r="B137" s="22"/>
-      <c r="C137" s="23"/>
-      <c r="D137" s="24"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="24"/>
-      <c r="G137" s="24"/>
-      <c r="H137" s="25"/>
+      <c r="A137" s="29"/>
+      <c r="B137" s="30"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="32"/>
+      <c r="G137" s="32"/>
+      <c r="H137" s="33"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
@@ -4726,16 +4709,16 @@
       <c r="Z137" s="5"/>
     </row>
     <row r="138" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="21">
+      <c r="A138" s="29">
         <v>22</v>
       </c>
-      <c r="B138" s="22"/>
-      <c r="C138" s="23"/>
-      <c r="D138" s="24"/>
-      <c r="E138" s="24"/>
-      <c r="F138" s="24"/>
-      <c r="G138" s="24"/>
-      <c r="H138" s="25"/>
+      <c r="B138" s="30"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="32"/>
+      <c r="E138" s="32"/>
+      <c r="F138" s="32"/>
+      <c r="G138" s="32"/>
+      <c r="H138" s="33"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
@@ -4756,14 +4739,14 @@
       <c r="Z138" s="5"/>
     </row>
     <row r="139" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="21"/>
-      <c r="B139" s="22"/>
-      <c r="C139" s="23"/>
-      <c r="D139" s="24"/>
-      <c r="E139" s="24"/>
-      <c r="F139" s="24"/>
-      <c r="G139" s="24"/>
-      <c r="H139" s="25"/>
+      <c r="A139" s="29"/>
+      <c r="B139" s="30"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="32"/>
+      <c r="F139" s="32"/>
+      <c r="G139" s="32"/>
+      <c r="H139" s="33"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
@@ -4784,14 +4767,14 @@
       <c r="Z139" s="5"/>
     </row>
     <row r="140" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="21"/>
-      <c r="B140" s="22"/>
-      <c r="C140" s="23"/>
-      <c r="D140" s="24"/>
-      <c r="E140" s="24"/>
-      <c r="F140" s="24"/>
-      <c r="G140" s="24"/>
-      <c r="H140" s="25"/>
+      <c r="A140" s="29"/>
+      <c r="B140" s="30"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="32"/>
+      <c r="F140" s="32"/>
+      <c r="G140" s="32"/>
+      <c r="H140" s="33"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
@@ -4812,14 +4795,14 @@
       <c r="Z140" s="5"/>
     </row>
     <row r="141" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="21"/>
-      <c r="B141" s="22"/>
-      <c r="C141" s="23"/>
-      <c r="D141" s="24"/>
-      <c r="E141" s="24"/>
-      <c r="F141" s="24"/>
-      <c r="G141" s="24"/>
-      <c r="H141" s="25"/>
+      <c r="A141" s="29"/>
+      <c r="B141" s="30"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="32"/>
+      <c r="E141" s="32"/>
+      <c r="F141" s="32"/>
+      <c r="G141" s="32"/>
+      <c r="H141" s="33"/>
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
@@ -4840,14 +4823,14 @@
       <c r="Z141" s="5"/>
     </row>
     <row r="142" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="21"/>
-      <c r="B142" s="22"/>
-      <c r="C142" s="23"/>
-      <c r="D142" s="24"/>
-      <c r="E142" s="24"/>
-      <c r="F142" s="24"/>
-      <c r="G142" s="24"/>
-      <c r="H142" s="25"/>
+      <c r="A142" s="29"/>
+      <c r="B142" s="30"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="32"/>
+      <c r="E142" s="32"/>
+      <c r="F142" s="32"/>
+      <c r="G142" s="32"/>
+      <c r="H142" s="33"/>
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
       <c r="K142" s="5"/>
@@ -4868,14 +4851,14 @@
       <c r="Z142" s="5"/>
     </row>
     <row r="143" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="21"/>
-      <c r="B143" s="22"/>
-      <c r="C143" s="23"/>
-      <c r="D143" s="24"/>
-      <c r="E143" s="24"/>
-      <c r="F143" s="24"/>
-      <c r="G143" s="24"/>
-      <c r="H143" s="25"/>
+      <c r="A143" s="29"/>
+      <c r="B143" s="30"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="32"/>
+      <c r="E143" s="32"/>
+      <c r="F143" s="32"/>
+      <c r="G143" s="32"/>
+      <c r="H143" s="33"/>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
       <c r="K143" s="5"/>
@@ -4896,16 +4879,16 @@
       <c r="Z143" s="5"/>
     </row>
     <row r="144" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="21">
+      <c r="A144" s="29">
         <v>23</v>
       </c>
-      <c r="B144" s="22"/>
-      <c r="C144" s="23"/>
-      <c r="D144" s="24"/>
-      <c r="E144" s="24"/>
-      <c r="F144" s="24"/>
-      <c r="G144" s="24"/>
-      <c r="H144" s="25"/>
+      <c r="B144" s="30"/>
+      <c r="C144" s="31"/>
+      <c r="D144" s="32"/>
+      <c r="E144" s="32"/>
+      <c r="F144" s="32"/>
+      <c r="G144" s="32"/>
+      <c r="H144" s="33"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
@@ -4926,14 +4909,14 @@
       <c r="Z144" s="5"/>
     </row>
     <row r="145" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="21"/>
-      <c r="B145" s="22"/>
-      <c r="C145" s="23"/>
-      <c r="D145" s="24"/>
-      <c r="E145" s="24"/>
-      <c r="F145" s="24"/>
-      <c r="G145" s="24"/>
-      <c r="H145" s="25"/>
+      <c r="A145" s="29"/>
+      <c r="B145" s="30"/>
+      <c r="C145" s="31"/>
+      <c r="D145" s="32"/>
+      <c r="E145" s="32"/>
+      <c r="F145" s="32"/>
+      <c r="G145" s="32"/>
+      <c r="H145" s="33"/>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
@@ -4954,14 +4937,14 @@
       <c r="Z145" s="5"/>
     </row>
     <row r="146" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="21"/>
-      <c r="B146" s="22"/>
-      <c r="C146" s="23"/>
-      <c r="D146" s="24"/>
-      <c r="E146" s="24"/>
-      <c r="F146" s="24"/>
-      <c r="G146" s="24"/>
-      <c r="H146" s="25"/>
+      <c r="A146" s="29"/>
+      <c r="B146" s="30"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="32"/>
+      <c r="F146" s="32"/>
+      <c r="G146" s="32"/>
+      <c r="H146" s="33"/>
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
@@ -4982,14 +4965,14 @@
       <c r="Z146" s="5"/>
     </row>
     <row r="147" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="21"/>
-      <c r="B147" s="22"/>
-      <c r="C147" s="23"/>
-      <c r="D147" s="24"/>
-      <c r="E147" s="24"/>
-      <c r="F147" s="24"/>
-      <c r="G147" s="24"/>
-      <c r="H147" s="25"/>
+      <c r="A147" s="29"/>
+      <c r="B147" s="30"/>
+      <c r="C147" s="31"/>
+      <c r="D147" s="32"/>
+      <c r="E147" s="32"/>
+      <c r="F147" s="32"/>
+      <c r="G147" s="32"/>
+      <c r="H147" s="33"/>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
@@ -5010,14 +4993,14 @@
       <c r="Z147" s="5"/>
     </row>
     <row r="148" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="21"/>
-      <c r="B148" s="22"/>
-      <c r="C148" s="23"/>
-      <c r="D148" s="24"/>
-      <c r="E148" s="24"/>
-      <c r="F148" s="24"/>
-      <c r="G148" s="24"/>
-      <c r="H148" s="25"/>
+      <c r="A148" s="29"/>
+      <c r="B148" s="30"/>
+      <c r="C148" s="31"/>
+      <c r="D148" s="32"/>
+      <c r="E148" s="32"/>
+      <c r="F148" s="32"/>
+      <c r="G148" s="32"/>
+      <c r="H148" s="33"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
@@ -5038,14 +5021,14 @@
       <c r="Z148" s="5"/>
     </row>
     <row r="149" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="21"/>
-      <c r="B149" s="22"/>
-      <c r="C149" s="23"/>
-      <c r="D149" s="24"/>
-      <c r="E149" s="24"/>
-      <c r="F149" s="24"/>
-      <c r="G149" s="24"/>
-      <c r="H149" s="25"/>
+      <c r="A149" s="29"/>
+      <c r="B149" s="30"/>
+      <c r="C149" s="31"/>
+      <c r="D149" s="32"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="32"/>
+      <c r="G149" s="32"/>
+      <c r="H149" s="33"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
       <c r="K149" s="5"/>
@@ -5066,16 +5049,16 @@
       <c r="Z149" s="5"/>
     </row>
     <row r="150" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="21">
+      <c r="A150" s="29">
         <v>24</v>
       </c>
-      <c r="B150" s="22"/>
-      <c r="C150" s="23"/>
-      <c r="D150" s="24"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="24"/>
-      <c r="G150" s="24"/>
-      <c r="H150" s="25"/>
+      <c r="B150" s="30"/>
+      <c r="C150" s="31"/>
+      <c r="D150" s="32"/>
+      <c r="E150" s="32"/>
+      <c r="F150" s="32"/>
+      <c r="G150" s="32"/>
+      <c r="H150" s="33"/>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
@@ -5096,14 +5079,14 @@
       <c r="Z150" s="5"/>
     </row>
     <row r="151" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="21"/>
-      <c r="B151" s="22"/>
-      <c r="C151" s="23"/>
-      <c r="D151" s="24"/>
-      <c r="E151" s="24"/>
-      <c r="F151" s="24"/>
-      <c r="G151" s="24"/>
-      <c r="H151" s="25"/>
+      <c r="A151" s="29"/>
+      <c r="B151" s="30"/>
+      <c r="C151" s="31"/>
+      <c r="D151" s="32"/>
+      <c r="E151" s="32"/>
+      <c r="F151" s="32"/>
+      <c r="G151" s="32"/>
+      <c r="H151" s="33"/>
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
@@ -5124,14 +5107,14 @@
       <c r="Z151" s="5"/>
     </row>
     <row r="152" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="21"/>
-      <c r="B152" s="22"/>
-      <c r="C152" s="23"/>
-      <c r="D152" s="24"/>
-      <c r="E152" s="24"/>
-      <c r="F152" s="24"/>
-      <c r="G152" s="24"/>
-      <c r="H152" s="25"/>
+      <c r="A152" s="29"/>
+      <c r="B152" s="30"/>
+      <c r="C152" s="31"/>
+      <c r="D152" s="32"/>
+      <c r="E152" s="32"/>
+      <c r="F152" s="32"/>
+      <c r="G152" s="32"/>
+      <c r="H152" s="33"/>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
       <c r="K152" s="5"/>
@@ -5152,14 +5135,14 @@
       <c r="Z152" s="5"/>
     </row>
     <row r="153" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="21"/>
-      <c r="B153" s="22"/>
-      <c r="C153" s="23"/>
-      <c r="D153" s="24"/>
-      <c r="E153" s="24"/>
-      <c r="F153" s="24"/>
-      <c r="G153" s="24"/>
-      <c r="H153" s="25"/>
+      <c r="A153" s="29"/>
+      <c r="B153" s="30"/>
+      <c r="C153" s="31"/>
+      <c r="D153" s="32"/>
+      <c r="E153" s="32"/>
+      <c r="F153" s="32"/>
+      <c r="G153" s="32"/>
+      <c r="H153" s="33"/>
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
@@ -5180,14 +5163,14 @@
       <c r="Z153" s="5"/>
     </row>
     <row r="154" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="21"/>
-      <c r="B154" s="22"/>
-      <c r="C154" s="23"/>
-      <c r="D154" s="24"/>
-      <c r="E154" s="24"/>
-      <c r="F154" s="24"/>
-      <c r="G154" s="24"/>
-      <c r="H154" s="25"/>
+      <c r="A154" s="29"/>
+      <c r="B154" s="30"/>
+      <c r="C154" s="31"/>
+      <c r="D154" s="32"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="32"/>
+      <c r="G154" s="32"/>
+      <c r="H154" s="33"/>
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
       <c r="K154" s="5"/>
@@ -5208,14 +5191,14 @@
       <c r="Z154" s="5"/>
     </row>
     <row r="155" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="21"/>
-      <c r="B155" s="22"/>
-      <c r="C155" s="23"/>
-      <c r="D155" s="24"/>
-      <c r="E155" s="24"/>
-      <c r="F155" s="24"/>
-      <c r="G155" s="24"/>
-      <c r="H155" s="25"/>
+      <c r="A155" s="29"/>
+      <c r="B155" s="30"/>
+      <c r="C155" s="31"/>
+      <c r="D155" s="32"/>
+      <c r="E155" s="32"/>
+      <c r="F155" s="32"/>
+      <c r="G155" s="32"/>
+      <c r="H155" s="33"/>
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
@@ -5236,16 +5219,16 @@
       <c r="Z155" s="5"/>
     </row>
     <row r="156" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="21">
+      <c r="A156" s="29">
         <v>25</v>
       </c>
-      <c r="B156" s="22"/>
-      <c r="C156" s="23"/>
-      <c r="D156" s="24"/>
-      <c r="E156" s="24"/>
-      <c r="F156" s="24"/>
-      <c r="G156" s="24"/>
-      <c r="H156" s="25"/>
+      <c r="B156" s="30"/>
+      <c r="C156" s="31"/>
+      <c r="D156" s="32"/>
+      <c r="E156" s="32"/>
+      <c r="F156" s="32"/>
+      <c r="G156" s="32"/>
+      <c r="H156" s="33"/>
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
@@ -5266,14 +5249,14 @@
       <c r="Z156" s="5"/>
     </row>
     <row r="157" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="21"/>
-      <c r="B157" s="22"/>
-      <c r="C157" s="23"/>
-      <c r="D157" s="24"/>
-      <c r="E157" s="24"/>
-      <c r="F157" s="24"/>
-      <c r="G157" s="24"/>
-      <c r="H157" s="25"/>
+      <c r="A157" s="29"/>
+      <c r="B157" s="30"/>
+      <c r="C157" s="31"/>
+      <c r="D157" s="32"/>
+      <c r="E157" s="32"/>
+      <c r="F157" s="32"/>
+      <c r="G157" s="32"/>
+      <c r="H157" s="33"/>
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
@@ -5294,14 +5277,14 @@
       <c r="Z157" s="5"/>
     </row>
     <row r="158" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="21"/>
-      <c r="B158" s="22"/>
-      <c r="C158" s="23"/>
-      <c r="D158" s="24"/>
-      <c r="E158" s="24"/>
-      <c r="F158" s="24"/>
-      <c r="G158" s="24"/>
-      <c r="H158" s="25"/>
+      <c r="A158" s="29"/>
+      <c r="B158" s="30"/>
+      <c r="C158" s="31"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="32"/>
+      <c r="F158" s="32"/>
+      <c r="G158" s="32"/>
+      <c r="H158" s="33"/>
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
@@ -5322,14 +5305,14 @@
       <c r="Z158" s="5"/>
     </row>
     <row r="159" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="21"/>
-      <c r="B159" s="22"/>
-      <c r="C159" s="23"/>
-      <c r="D159" s="24"/>
-      <c r="E159" s="24"/>
-      <c r="F159" s="24"/>
-      <c r="G159" s="24"/>
-      <c r="H159" s="25"/>
+      <c r="A159" s="29"/>
+      <c r="B159" s="30"/>
+      <c r="C159" s="31"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="32"/>
+      <c r="F159" s="32"/>
+      <c r="G159" s="32"/>
+      <c r="H159" s="33"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
       <c r="K159" s="5"/>
@@ -5350,14 +5333,14 @@
       <c r="Z159" s="5"/>
     </row>
     <row r="160" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="21"/>
-      <c r="B160" s="22"/>
-      <c r="C160" s="23"/>
-      <c r="D160" s="24"/>
-      <c r="E160" s="24"/>
-      <c r="F160" s="24"/>
-      <c r="G160" s="24"/>
-      <c r="H160" s="25"/>
+      <c r="A160" s="29"/>
+      <c r="B160" s="30"/>
+      <c r="C160" s="31"/>
+      <c r="D160" s="32"/>
+      <c r="E160" s="32"/>
+      <c r="F160" s="32"/>
+      <c r="G160" s="32"/>
+      <c r="H160" s="33"/>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
       <c r="K160" s="5"/>
@@ -5378,14 +5361,14 @@
       <c r="Z160" s="5"/>
     </row>
     <row r="161" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="21"/>
-      <c r="B161" s="22"/>
-      <c r="C161" s="23"/>
-      <c r="D161" s="24"/>
-      <c r="E161" s="24"/>
-      <c r="F161" s="24"/>
-      <c r="G161" s="24"/>
-      <c r="H161" s="25"/>
+      <c r="A161" s="29"/>
+      <c r="B161" s="30"/>
+      <c r="C161" s="31"/>
+      <c r="D161" s="32"/>
+      <c r="E161" s="32"/>
+      <c r="F161" s="32"/>
+      <c r="G161" s="32"/>
+      <c r="H161" s="33"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
@@ -5406,16 +5389,16 @@
       <c r="Z161" s="5"/>
     </row>
     <row r="162" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="21">
+      <c r="A162" s="29">
         <v>26</v>
       </c>
-      <c r="B162" s="22"/>
-      <c r="C162" s="23"/>
-      <c r="D162" s="24"/>
-      <c r="E162" s="24"/>
-      <c r="F162" s="24"/>
-      <c r="G162" s="24"/>
-      <c r="H162" s="25"/>
+      <c r="B162" s="30"/>
+      <c r="C162" s="31"/>
+      <c r="D162" s="32"/>
+      <c r="E162" s="32"/>
+      <c r="F162" s="32"/>
+      <c r="G162" s="32"/>
+      <c r="H162" s="33"/>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
       <c r="K162" s="5"/>
@@ -5436,14 +5419,14 @@
       <c r="Z162" s="5"/>
     </row>
     <row r="163" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="21"/>
-      <c r="B163" s="22"/>
-      <c r="C163" s="23"/>
-      <c r="D163" s="24"/>
-      <c r="E163" s="24"/>
-      <c r="F163" s="24"/>
-      <c r="G163" s="24"/>
-      <c r="H163" s="25"/>
+      <c r="A163" s="29"/>
+      <c r="B163" s="30"/>
+      <c r="C163" s="31"/>
+      <c r="D163" s="32"/>
+      <c r="E163" s="32"/>
+      <c r="F163" s="32"/>
+      <c r="G163" s="32"/>
+      <c r="H163" s="33"/>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
       <c r="K163" s="5"/>
@@ -5464,14 +5447,14 @@
       <c r="Z163" s="5"/>
     </row>
     <row r="164" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="21"/>
-      <c r="B164" s="22"/>
-      <c r="C164" s="23"/>
-      <c r="D164" s="24"/>
-      <c r="E164" s="24"/>
-      <c r="F164" s="24"/>
-      <c r="G164" s="24"/>
-      <c r="H164" s="25"/>
+      <c r="A164" s="29"/>
+      <c r="B164" s="30"/>
+      <c r="C164" s="31"/>
+      <c r="D164" s="32"/>
+      <c r="E164" s="32"/>
+      <c r="F164" s="32"/>
+      <c r="G164" s="32"/>
+      <c r="H164" s="33"/>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
@@ -5492,14 +5475,14 @@
       <c r="Z164" s="5"/>
     </row>
     <row r="165" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="21"/>
-      <c r="B165" s="22"/>
-      <c r="C165" s="23"/>
-      <c r="D165" s="24"/>
-      <c r="E165" s="24"/>
-      <c r="F165" s="24"/>
-      <c r="G165" s="24"/>
-      <c r="H165" s="25"/>
+      <c r="A165" s="29"/>
+      <c r="B165" s="30"/>
+      <c r="C165" s="31"/>
+      <c r="D165" s="32"/>
+      <c r="E165" s="32"/>
+      <c r="F165" s="32"/>
+      <c r="G165" s="32"/>
+      <c r="H165" s="33"/>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
@@ -5520,14 +5503,14 @@
       <c r="Z165" s="5"/>
     </row>
     <row r="166" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="21"/>
-      <c r="B166" s="22"/>
-      <c r="C166" s="23"/>
-      <c r="D166" s="24"/>
-      <c r="E166" s="24"/>
-      <c r="F166" s="24"/>
-      <c r="G166" s="24"/>
-      <c r="H166" s="25"/>
+      <c r="A166" s="29"/>
+      <c r="B166" s="30"/>
+      <c r="C166" s="31"/>
+      <c r="D166" s="32"/>
+      <c r="E166" s="32"/>
+      <c r="F166" s="32"/>
+      <c r="G166" s="32"/>
+      <c r="H166" s="33"/>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
       <c r="K166" s="5"/>
@@ -5548,14 +5531,14 @@
       <c r="Z166" s="5"/>
     </row>
     <row r="167" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="21"/>
-      <c r="B167" s="22"/>
-      <c r="C167" s="23"/>
-      <c r="D167" s="24"/>
-      <c r="E167" s="24"/>
-      <c r="F167" s="24"/>
-      <c r="G167" s="24"/>
-      <c r="H167" s="25"/>
+      <c r="A167" s="29"/>
+      <c r="B167" s="30"/>
+      <c r="C167" s="31"/>
+      <c r="D167" s="32"/>
+      <c r="E167" s="32"/>
+      <c r="F167" s="32"/>
+      <c r="G167" s="32"/>
+      <c r="H167" s="33"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
@@ -5576,16 +5559,16 @@
       <c r="Z167" s="5"/>
     </row>
     <row r="168" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="21">
+      <c r="A168" s="29">
         <v>27</v>
       </c>
-      <c r="B168" s="22"/>
-      <c r="C168" s="23"/>
-      <c r="D168" s="24"/>
-      <c r="E168" s="24"/>
-      <c r="F168" s="24"/>
-      <c r="G168" s="24"/>
-      <c r="H168" s="25"/>
+      <c r="B168" s="30"/>
+      <c r="C168" s="31"/>
+      <c r="D168" s="32"/>
+      <c r="E168" s="32"/>
+      <c r="F168" s="32"/>
+      <c r="G168" s="32"/>
+      <c r="H168" s="33"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
       <c r="K168" s="5"/>
@@ -5606,14 +5589,14 @@
       <c r="Z168" s="5"/>
     </row>
     <row r="169" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="21"/>
-      <c r="B169" s="22"/>
-      <c r="C169" s="23"/>
-      <c r="D169" s="24"/>
-      <c r="E169" s="24"/>
-      <c r="F169" s="24"/>
-      <c r="G169" s="24"/>
-      <c r="H169" s="25"/>
+      <c r="A169" s="29"/>
+      <c r="B169" s="30"/>
+      <c r="C169" s="31"/>
+      <c r="D169" s="32"/>
+      <c r="E169" s="32"/>
+      <c r="F169" s="32"/>
+      <c r="G169" s="32"/>
+      <c r="H169" s="33"/>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
       <c r="K169" s="5"/>
@@ -5634,14 +5617,14 @@
       <c r="Z169" s="5"/>
     </row>
     <row r="170" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="21"/>
-      <c r="B170" s="22"/>
-      <c r="C170" s="23"/>
-      <c r="D170" s="24"/>
-      <c r="E170" s="24"/>
-      <c r="F170" s="24"/>
-      <c r="G170" s="24"/>
-      <c r="H170" s="25"/>
+      <c r="A170" s="29"/>
+      <c r="B170" s="30"/>
+      <c r="C170" s="31"/>
+      <c r="D170" s="32"/>
+      <c r="E170" s="32"/>
+      <c r="F170" s="32"/>
+      <c r="G170" s="32"/>
+      <c r="H170" s="33"/>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
@@ -5662,14 +5645,14 @@
       <c r="Z170" s="5"/>
     </row>
     <row r="171" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="21"/>
-      <c r="B171" s="22"/>
-      <c r="C171" s="23"/>
-      <c r="D171" s="24"/>
-      <c r="E171" s="24"/>
-      <c r="F171" s="24"/>
-      <c r="G171" s="24"/>
-      <c r="H171" s="25"/>
+      <c r="A171" s="29"/>
+      <c r="B171" s="30"/>
+      <c r="C171" s="31"/>
+      <c r="D171" s="32"/>
+      <c r="E171" s="32"/>
+      <c r="F171" s="32"/>
+      <c r="G171" s="32"/>
+      <c r="H171" s="33"/>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
       <c r="K171" s="5"/>
@@ -5690,14 +5673,14 @@
       <c r="Z171" s="5"/>
     </row>
     <row r="172" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="21"/>
-      <c r="B172" s="22"/>
-      <c r="C172" s="23"/>
-      <c r="D172" s="24"/>
-      <c r="E172" s="24"/>
-      <c r="F172" s="24"/>
-      <c r="G172" s="24"/>
-      <c r="H172" s="25"/>
+      <c r="A172" s="29"/>
+      <c r="B172" s="30"/>
+      <c r="C172" s="31"/>
+      <c r="D172" s="32"/>
+      <c r="E172" s="32"/>
+      <c r="F172" s="32"/>
+      <c r="G172" s="32"/>
+      <c r="H172" s="33"/>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
@@ -5718,14 +5701,14 @@
       <c r="Z172" s="5"/>
     </row>
     <row r="173" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="21"/>
-      <c r="B173" s="22"/>
-      <c r="C173" s="23"/>
-      <c r="D173" s="24"/>
-      <c r="E173" s="24"/>
-      <c r="F173" s="24"/>
-      <c r="G173" s="24"/>
-      <c r="H173" s="25"/>
+      <c r="A173" s="29"/>
+      <c r="B173" s="30"/>
+      <c r="C173" s="31"/>
+      <c r="D173" s="32"/>
+      <c r="E173" s="32"/>
+      <c r="F173" s="32"/>
+      <c r="G173" s="32"/>
+      <c r="H173" s="33"/>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
@@ -5746,16 +5729,16 @@
       <c r="Z173" s="5"/>
     </row>
     <row r="174" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="21">
+      <c r="A174" s="29">
         <v>28</v>
       </c>
-      <c r="B174" s="22"/>
-      <c r="C174" s="23"/>
-      <c r="D174" s="24"/>
-      <c r="E174" s="24"/>
-      <c r="F174" s="24"/>
-      <c r="G174" s="24"/>
-      <c r="H174" s="25"/>
+      <c r="B174" s="30"/>
+      <c r="C174" s="31"/>
+      <c r="D174" s="32"/>
+      <c r="E174" s="32"/>
+      <c r="F174" s="32"/>
+      <c r="G174" s="32"/>
+      <c r="H174" s="33"/>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
@@ -5776,14 +5759,14 @@
       <c r="Z174" s="5"/>
     </row>
     <row r="175" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="21"/>
-      <c r="B175" s="22"/>
-      <c r="C175" s="23"/>
-      <c r="D175" s="24"/>
-      <c r="E175" s="24"/>
-      <c r="F175" s="24"/>
-      <c r="G175" s="24"/>
-      <c r="H175" s="25"/>
+      <c r="A175" s="29"/>
+      <c r="B175" s="30"/>
+      <c r="C175" s="31"/>
+      <c r="D175" s="32"/>
+      <c r="E175" s="32"/>
+      <c r="F175" s="32"/>
+      <c r="G175" s="32"/>
+      <c r="H175" s="33"/>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
@@ -5804,14 +5787,14 @@
       <c r="Z175" s="5"/>
     </row>
     <row r="176" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="21"/>
-      <c r="B176" s="22"/>
-      <c r="C176" s="23"/>
-      <c r="D176" s="24"/>
-      <c r="E176" s="24"/>
-      <c r="F176" s="24"/>
-      <c r="G176" s="24"/>
-      <c r="H176" s="25"/>
+      <c r="A176" s="29"/>
+      <c r="B176" s="30"/>
+      <c r="C176" s="31"/>
+      <c r="D176" s="32"/>
+      <c r="E176" s="32"/>
+      <c r="F176" s="32"/>
+      <c r="G176" s="32"/>
+      <c r="H176" s="33"/>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
@@ -5832,14 +5815,14 @@
       <c r="Z176" s="5"/>
     </row>
     <row r="177" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="21"/>
-      <c r="B177" s="22"/>
-      <c r="C177" s="23"/>
-      <c r="D177" s="24"/>
-      <c r="E177" s="24"/>
-      <c r="F177" s="24"/>
-      <c r="G177" s="24"/>
-      <c r="H177" s="25"/>
+      <c r="A177" s="29"/>
+      <c r="B177" s="30"/>
+      <c r="C177" s="31"/>
+      <c r="D177" s="32"/>
+      <c r="E177" s="32"/>
+      <c r="F177" s="32"/>
+      <c r="G177" s="32"/>
+      <c r="H177" s="33"/>
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
       <c r="K177" s="5"/>
@@ -5860,14 +5843,14 @@
       <c r="Z177" s="5"/>
     </row>
     <row r="178" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="21"/>
-      <c r="B178" s="22"/>
-      <c r="C178" s="23"/>
-      <c r="D178" s="24"/>
-      <c r="E178" s="24"/>
-      <c r="F178" s="24"/>
-      <c r="G178" s="24"/>
-      <c r="H178" s="25"/>
+      <c r="A178" s="29"/>
+      <c r="B178" s="30"/>
+      <c r="C178" s="31"/>
+      <c r="D178" s="32"/>
+      <c r="E178" s="32"/>
+      <c r="F178" s="32"/>
+      <c r="G178" s="32"/>
+      <c r="H178" s="33"/>
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
       <c r="K178" s="5"/>
@@ -5888,14 +5871,14 @@
       <c r="Z178" s="5"/>
     </row>
     <row r="179" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="21"/>
-      <c r="B179" s="22"/>
-      <c r="C179" s="23"/>
-      <c r="D179" s="24"/>
-      <c r="E179" s="24"/>
-      <c r="F179" s="24"/>
-      <c r="G179" s="24"/>
-      <c r="H179" s="25"/>
+      <c r="A179" s="29"/>
+      <c r="B179" s="30"/>
+      <c r="C179" s="31"/>
+      <c r="D179" s="32"/>
+      <c r="E179" s="32"/>
+      <c r="F179" s="32"/>
+      <c r="G179" s="32"/>
+      <c r="H179" s="33"/>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
@@ -5916,16 +5899,16 @@
       <c r="Z179" s="5"/>
     </row>
     <row r="180" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="21">
+      <c r="A180" s="29">
         <v>29</v>
       </c>
-      <c r="B180" s="22"/>
-      <c r="C180" s="23"/>
-      <c r="D180" s="24"/>
-      <c r="E180" s="24"/>
-      <c r="F180" s="24"/>
-      <c r="G180" s="24"/>
-      <c r="H180" s="25"/>
+      <c r="B180" s="30"/>
+      <c r="C180" s="31"/>
+      <c r="D180" s="32"/>
+      <c r="E180" s="32"/>
+      <c r="F180" s="32"/>
+      <c r="G180" s="32"/>
+      <c r="H180" s="33"/>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
       <c r="K180" s="5"/>
@@ -5946,14 +5929,14 @@
       <c r="Z180" s="5"/>
     </row>
     <row r="181" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="21"/>
-      <c r="B181" s="22"/>
-      <c r="C181" s="23"/>
-      <c r="D181" s="24"/>
-      <c r="E181" s="24"/>
-      <c r="F181" s="24"/>
-      <c r="G181" s="24"/>
-      <c r="H181" s="25"/>
+      <c r="A181" s="29"/>
+      <c r="B181" s="30"/>
+      <c r="C181" s="31"/>
+      <c r="D181" s="32"/>
+      <c r="E181" s="32"/>
+      <c r="F181" s="32"/>
+      <c r="G181" s="32"/>
+      <c r="H181" s="33"/>
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
       <c r="K181" s="5"/>
@@ -5974,14 +5957,14 @@
       <c r="Z181" s="5"/>
     </row>
     <row r="182" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="21"/>
-      <c r="B182" s="22"/>
-      <c r="C182" s="23"/>
-      <c r="D182" s="24"/>
-      <c r="E182" s="24"/>
-      <c r="F182" s="24"/>
-      <c r="G182" s="24"/>
-      <c r="H182" s="25"/>
+      <c r="A182" s="29"/>
+      <c r="B182" s="30"/>
+      <c r="C182" s="31"/>
+      <c r="D182" s="32"/>
+      <c r="E182" s="32"/>
+      <c r="F182" s="32"/>
+      <c r="G182" s="32"/>
+      <c r="H182" s="33"/>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
       <c r="K182" s="5"/>
@@ -6002,14 +5985,14 @@
       <c r="Z182" s="5"/>
     </row>
     <row r="183" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="21"/>
-      <c r="B183" s="22"/>
-      <c r="C183" s="23"/>
-      <c r="D183" s="24"/>
-      <c r="E183" s="24"/>
-      <c r="F183" s="24"/>
-      <c r="G183" s="24"/>
-      <c r="H183" s="25"/>
+      <c r="A183" s="29"/>
+      <c r="B183" s="30"/>
+      <c r="C183" s="31"/>
+      <c r="D183" s="32"/>
+      <c r="E183" s="32"/>
+      <c r="F183" s="32"/>
+      <c r="G183" s="32"/>
+      <c r="H183" s="33"/>
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
       <c r="K183" s="5"/>
@@ -6030,14 +6013,14 @@
       <c r="Z183" s="5"/>
     </row>
     <row r="184" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="21"/>
-      <c r="B184" s="22"/>
-      <c r="C184" s="23"/>
-      <c r="D184" s="24"/>
-      <c r="E184" s="24"/>
-      <c r="F184" s="24"/>
-      <c r="G184" s="24"/>
-      <c r="H184" s="25"/>
+      <c r="A184" s="29"/>
+      <c r="B184" s="30"/>
+      <c r="C184" s="31"/>
+      <c r="D184" s="32"/>
+      <c r="E184" s="32"/>
+      <c r="F184" s="32"/>
+      <c r="G184" s="32"/>
+      <c r="H184" s="33"/>
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
       <c r="K184" s="5"/>
@@ -6058,14 +6041,14 @@
       <c r="Z184" s="5"/>
     </row>
     <row r="185" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="21"/>
-      <c r="B185" s="22"/>
-      <c r="C185" s="23"/>
-      <c r="D185" s="24"/>
-      <c r="E185" s="24"/>
-      <c r="F185" s="24"/>
-      <c r="G185" s="24"/>
-      <c r="H185" s="25"/>
+      <c r="A185" s="29"/>
+      <c r="B185" s="30"/>
+      <c r="C185" s="31"/>
+      <c r="D185" s="32"/>
+      <c r="E185" s="32"/>
+      <c r="F185" s="32"/>
+      <c r="G185" s="32"/>
+      <c r="H185" s="33"/>
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
       <c r="K185" s="5"/>
@@ -6086,16 +6069,16 @@
       <c r="Z185" s="5"/>
     </row>
     <row r="186" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="21">
+      <c r="A186" s="29">
         <v>30</v>
       </c>
-      <c r="B186" s="22"/>
-      <c r="C186" s="23"/>
-      <c r="D186" s="24"/>
-      <c r="E186" s="24"/>
-      <c r="F186" s="24"/>
-      <c r="G186" s="24"/>
-      <c r="H186" s="25"/>
+      <c r="B186" s="30"/>
+      <c r="C186" s="31"/>
+      <c r="D186" s="32"/>
+      <c r="E186" s="32"/>
+      <c r="F186" s="32"/>
+      <c r="G186" s="32"/>
+      <c r="H186" s="33"/>
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
       <c r="K186" s="5"/>
@@ -6116,14 +6099,14 @@
       <c r="Z186" s="5"/>
     </row>
     <row r="187" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="21"/>
-      <c r="B187" s="22"/>
-      <c r="C187" s="23"/>
-      <c r="D187" s="24"/>
-      <c r="E187" s="24"/>
-      <c r="F187" s="24"/>
-      <c r="G187" s="24"/>
-      <c r="H187" s="25"/>
+      <c r="A187" s="29"/>
+      <c r="B187" s="30"/>
+      <c r="C187" s="31"/>
+      <c r="D187" s="32"/>
+      <c r="E187" s="32"/>
+      <c r="F187" s="32"/>
+      <c r="G187" s="32"/>
+      <c r="H187" s="33"/>
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
       <c r="K187" s="5"/>
@@ -6144,14 +6127,14 @@
       <c r="Z187" s="5"/>
     </row>
     <row r="188" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="21"/>
-      <c r="B188" s="22"/>
-      <c r="C188" s="23"/>
-      <c r="D188" s="24"/>
-      <c r="E188" s="24"/>
-      <c r="F188" s="24"/>
-      <c r="G188" s="24"/>
-      <c r="H188" s="25"/>
+      <c r="A188" s="29"/>
+      <c r="B188" s="30"/>
+      <c r="C188" s="31"/>
+      <c r="D188" s="32"/>
+      <c r="E188" s="32"/>
+      <c r="F188" s="32"/>
+      <c r="G188" s="32"/>
+      <c r="H188" s="33"/>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
       <c r="K188" s="5"/>
@@ -6172,14 +6155,14 @@
       <c r="Z188" s="5"/>
     </row>
     <row r="189" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="21"/>
-      <c r="B189" s="22"/>
-      <c r="C189" s="23"/>
-      <c r="D189" s="24"/>
-      <c r="E189" s="24"/>
-      <c r="F189" s="24"/>
-      <c r="G189" s="24"/>
-      <c r="H189" s="25"/>
+      <c r="A189" s="29"/>
+      <c r="B189" s="30"/>
+      <c r="C189" s="31"/>
+      <c r="D189" s="32"/>
+      <c r="E189" s="32"/>
+      <c r="F189" s="32"/>
+      <c r="G189" s="32"/>
+      <c r="H189" s="33"/>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
       <c r="K189" s="5"/>
@@ -6200,14 +6183,14 @@
       <c r="Z189" s="5"/>
     </row>
     <row r="190" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="21"/>
-      <c r="B190" s="22"/>
-      <c r="C190" s="23"/>
-      <c r="D190" s="24"/>
-      <c r="E190" s="24"/>
-      <c r="F190" s="24"/>
-      <c r="G190" s="24"/>
-      <c r="H190" s="25"/>
+      <c r="A190" s="29"/>
+      <c r="B190" s="30"/>
+      <c r="C190" s="31"/>
+      <c r="D190" s="32"/>
+      <c r="E190" s="32"/>
+      <c r="F190" s="32"/>
+      <c r="G190" s="32"/>
+      <c r="H190" s="33"/>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
       <c r="K190" s="5"/>
@@ -6228,14 +6211,14 @@
       <c r="Z190" s="5"/>
     </row>
     <row r="191" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="21"/>
-      <c r="B191" s="22"/>
-      <c r="C191" s="23"/>
-      <c r="D191" s="24"/>
-      <c r="E191" s="24"/>
-      <c r="F191" s="24"/>
-      <c r="G191" s="24"/>
-      <c r="H191" s="25"/>
+      <c r="A191" s="29"/>
+      <c r="B191" s="30"/>
+      <c r="C191" s="31"/>
+      <c r="D191" s="32"/>
+      <c r="E191" s="32"/>
+      <c r="F191" s="32"/>
+      <c r="G191" s="32"/>
+      <c r="H191" s="33"/>
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
       <c r="K191" s="5"/>
@@ -6256,16 +6239,16 @@
       <c r="Z191" s="5"/>
     </row>
     <row r="192" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="21">
+      <c r="A192" s="29">
         <v>31</v>
       </c>
-      <c r="B192" s="22"/>
-      <c r="C192" s="23"/>
-      <c r="D192" s="24"/>
-      <c r="E192" s="24"/>
-      <c r="F192" s="24"/>
-      <c r="G192" s="24"/>
-      <c r="H192" s="25"/>
+      <c r="B192" s="30"/>
+      <c r="C192" s="31"/>
+      <c r="D192" s="32"/>
+      <c r="E192" s="32"/>
+      <c r="F192" s="32"/>
+      <c r="G192" s="32"/>
+      <c r="H192" s="33"/>
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
       <c r="K192" s="5"/>
@@ -6286,14 +6269,14 @@
       <c r="Z192" s="5"/>
     </row>
     <row r="193" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="21"/>
-      <c r="B193" s="22"/>
-      <c r="C193" s="23"/>
-      <c r="D193" s="24"/>
-      <c r="E193" s="24"/>
-      <c r="F193" s="24"/>
-      <c r="G193" s="24"/>
-      <c r="H193" s="25"/>
+      <c r="A193" s="29"/>
+      <c r="B193" s="30"/>
+      <c r="C193" s="31"/>
+      <c r="D193" s="32"/>
+      <c r="E193" s="32"/>
+      <c r="F193" s="32"/>
+      <c r="G193" s="32"/>
+      <c r="H193" s="33"/>
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
       <c r="K193" s="5"/>
@@ -6314,14 +6297,14 @@
       <c r="Z193" s="5"/>
     </row>
     <row r="194" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="21"/>
-      <c r="B194" s="22"/>
-      <c r="C194" s="23"/>
-      <c r="D194" s="24"/>
-      <c r="E194" s="24"/>
-      <c r="F194" s="24"/>
-      <c r="G194" s="24"/>
-      <c r="H194" s="25"/>
+      <c r="A194" s="29"/>
+      <c r="B194" s="30"/>
+      <c r="C194" s="31"/>
+      <c r="D194" s="32"/>
+      <c r="E194" s="32"/>
+      <c r="F194" s="32"/>
+      <c r="G194" s="32"/>
+      <c r="H194" s="33"/>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
@@ -6342,14 +6325,14 @@
       <c r="Z194" s="5"/>
     </row>
     <row r="195" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="21"/>
-      <c r="B195" s="22"/>
-      <c r="C195" s="23"/>
-      <c r="D195" s="24"/>
-      <c r="E195" s="24"/>
-      <c r="F195" s="24"/>
-      <c r="G195" s="24"/>
-      <c r="H195" s="25"/>
+      <c r="A195" s="29"/>
+      <c r="B195" s="30"/>
+      <c r="C195" s="31"/>
+      <c r="D195" s="32"/>
+      <c r="E195" s="32"/>
+      <c r="F195" s="32"/>
+      <c r="G195" s="32"/>
+      <c r="H195" s="33"/>
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
       <c r="K195" s="5"/>
@@ -6370,14 +6353,14 @@
       <c r="Z195" s="5"/>
     </row>
     <row r="196" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="21"/>
-      <c r="B196" s="22"/>
-      <c r="C196" s="23"/>
-      <c r="D196" s="24"/>
-      <c r="E196" s="24"/>
-      <c r="F196" s="24"/>
-      <c r="G196" s="24"/>
-      <c r="H196" s="25"/>
+      <c r="A196" s="29"/>
+      <c r="B196" s="30"/>
+      <c r="C196" s="31"/>
+      <c r="D196" s="32"/>
+      <c r="E196" s="32"/>
+      <c r="F196" s="32"/>
+      <c r="G196" s="32"/>
+      <c r="H196" s="33"/>
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
       <c r="K196" s="5"/>
@@ -6398,14 +6381,14 @@
       <c r="Z196" s="5"/>
     </row>
     <row r="197" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="21"/>
-      <c r="B197" s="22"/>
-      <c r="C197" s="23"/>
-      <c r="D197" s="24"/>
-      <c r="E197" s="24"/>
-      <c r="F197" s="24"/>
-      <c r="G197" s="24"/>
-      <c r="H197" s="25"/>
+      <c r="A197" s="29"/>
+      <c r="B197" s="30"/>
+      <c r="C197" s="31"/>
+      <c r="D197" s="32"/>
+      <c r="E197" s="32"/>
+      <c r="F197" s="32"/>
+      <c r="G197" s="32"/>
+      <c r="H197" s="33"/>
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
       <c r="K197" s="5"/>
@@ -6426,16 +6409,16 @@
       <c r="Z197" s="5"/>
     </row>
     <row r="198" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="21">
+      <c r="A198" s="29">
         <v>32</v>
       </c>
-      <c r="B198" s="22"/>
-      <c r="C198" s="23"/>
-      <c r="D198" s="24"/>
-      <c r="E198" s="24"/>
-      <c r="F198" s="24"/>
-      <c r="G198" s="24"/>
-      <c r="H198" s="25"/>
+      <c r="B198" s="30"/>
+      <c r="C198" s="31"/>
+      <c r="D198" s="32"/>
+      <c r="E198" s="32"/>
+      <c r="F198" s="32"/>
+      <c r="G198" s="32"/>
+      <c r="H198" s="33"/>
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
@@ -6456,14 +6439,14 @@
       <c r="Z198" s="5"/>
     </row>
     <row r="199" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="21"/>
-      <c r="B199" s="22"/>
-      <c r="C199" s="23"/>
-      <c r="D199" s="24"/>
-      <c r="E199" s="24"/>
-      <c r="F199" s="24"/>
-      <c r="G199" s="24"/>
-      <c r="H199" s="25"/>
+      <c r="A199" s="29"/>
+      <c r="B199" s="30"/>
+      <c r="C199" s="31"/>
+      <c r="D199" s="32"/>
+      <c r="E199" s="32"/>
+      <c r="F199" s="32"/>
+      <c r="G199" s="32"/>
+      <c r="H199" s="33"/>
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
       <c r="K199" s="5"/>
@@ -6484,14 +6467,14 @@
       <c r="Z199" s="5"/>
     </row>
     <row r="200" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="21"/>
-      <c r="B200" s="22"/>
-      <c r="C200" s="23"/>
-      <c r="D200" s="24"/>
-      <c r="E200" s="24"/>
-      <c r="F200" s="24"/>
-      <c r="G200" s="24"/>
-      <c r="H200" s="25"/>
+      <c r="A200" s="29"/>
+      <c r="B200" s="30"/>
+      <c r="C200" s="31"/>
+      <c r="D200" s="32"/>
+      <c r="E200" s="32"/>
+      <c r="F200" s="32"/>
+      <c r="G200" s="32"/>
+      <c r="H200" s="33"/>
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
@@ -6512,14 +6495,14 @@
       <c r="Z200" s="5"/>
     </row>
     <row r="201" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="21"/>
-      <c r="B201" s="22"/>
-      <c r="C201" s="23"/>
-      <c r="D201" s="24"/>
-      <c r="E201" s="24"/>
-      <c r="F201" s="24"/>
-      <c r="G201" s="24"/>
-      <c r="H201" s="25"/>
+      <c r="A201" s="29"/>
+      <c r="B201" s="30"/>
+      <c r="C201" s="31"/>
+      <c r="D201" s="32"/>
+      <c r="E201" s="32"/>
+      <c r="F201" s="32"/>
+      <c r="G201" s="32"/>
+      <c r="H201" s="33"/>
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
@@ -6540,14 +6523,14 @@
       <c r="Z201" s="5"/>
     </row>
     <row r="202" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="21"/>
-      <c r="B202" s="22"/>
-      <c r="C202" s="23"/>
-      <c r="D202" s="24"/>
-      <c r="E202" s="24"/>
-      <c r="F202" s="24"/>
-      <c r="G202" s="24"/>
-      <c r="H202" s="25"/>
+      <c r="A202" s="29"/>
+      <c r="B202" s="30"/>
+      <c r="C202" s="31"/>
+      <c r="D202" s="32"/>
+      <c r="E202" s="32"/>
+      <c r="F202" s="32"/>
+      <c r="G202" s="32"/>
+      <c r="H202" s="33"/>
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
@@ -6568,14 +6551,14 @@
       <c r="Z202" s="5"/>
     </row>
     <row r="203" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="21"/>
-      <c r="B203" s="22"/>
-      <c r="C203" s="23"/>
-      <c r="D203" s="24"/>
-      <c r="E203" s="24"/>
-      <c r="F203" s="24"/>
-      <c r="G203" s="24"/>
-      <c r="H203" s="25"/>
+      <c r="A203" s="29"/>
+      <c r="B203" s="30"/>
+      <c r="C203" s="31"/>
+      <c r="D203" s="32"/>
+      <c r="E203" s="32"/>
+      <c r="F203" s="32"/>
+      <c r="G203" s="32"/>
+      <c r="H203" s="33"/>
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
@@ -6596,16 +6579,16 @@
       <c r="Z203" s="5"/>
     </row>
     <row r="204" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="21">
+      <c r="A204" s="29">
         <v>33</v>
       </c>
-      <c r="B204" s="22"/>
-      <c r="C204" s="23"/>
-      <c r="D204" s="24"/>
-      <c r="E204" s="24"/>
-      <c r="F204" s="24"/>
-      <c r="G204" s="24"/>
-      <c r="H204" s="25"/>
+      <c r="B204" s="30"/>
+      <c r="C204" s="31"/>
+      <c r="D204" s="32"/>
+      <c r="E204" s="32"/>
+      <c r="F204" s="32"/>
+      <c r="G204" s="32"/>
+      <c r="H204" s="33"/>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
@@ -6626,14 +6609,14 @@
       <c r="Z204" s="5"/>
     </row>
     <row r="205" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="21"/>
-      <c r="B205" s="22"/>
-      <c r="C205" s="23"/>
-      <c r="D205" s="24"/>
-      <c r="E205" s="24"/>
-      <c r="F205" s="24"/>
-      <c r="G205" s="24"/>
-      <c r="H205" s="25"/>
+      <c r="A205" s="29"/>
+      <c r="B205" s="30"/>
+      <c r="C205" s="31"/>
+      <c r="D205" s="32"/>
+      <c r="E205" s="32"/>
+      <c r="F205" s="32"/>
+      <c r="G205" s="32"/>
+      <c r="H205" s="33"/>
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
@@ -6654,14 +6637,14 @@
       <c r="Z205" s="5"/>
     </row>
     <row r="206" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="21"/>
-      <c r="B206" s="22"/>
-      <c r="C206" s="23"/>
-      <c r="D206" s="24"/>
-      <c r="E206" s="24"/>
-      <c r="F206" s="24"/>
-      <c r="G206" s="24"/>
-      <c r="H206" s="25"/>
+      <c r="A206" s="29"/>
+      <c r="B206" s="30"/>
+      <c r="C206" s="31"/>
+      <c r="D206" s="32"/>
+      <c r="E206" s="32"/>
+      <c r="F206" s="32"/>
+      <c r="G206" s="32"/>
+      <c r="H206" s="33"/>
       <c r="I206" s="5"/>
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
@@ -6682,14 +6665,14 @@
       <c r="Z206" s="5"/>
     </row>
     <row r="207" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="21"/>
-      <c r="B207" s="22"/>
-      <c r="C207" s="23"/>
-      <c r="D207" s="24"/>
-      <c r="E207" s="24"/>
-      <c r="F207" s="24"/>
-      <c r="G207" s="24"/>
-      <c r="H207" s="25"/>
+      <c r="A207" s="29"/>
+      <c r="B207" s="30"/>
+      <c r="C207" s="31"/>
+      <c r="D207" s="32"/>
+      <c r="E207" s="32"/>
+      <c r="F207" s="32"/>
+      <c r="G207" s="32"/>
+      <c r="H207" s="33"/>
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
       <c r="K207" s="5"/>
@@ -6710,14 +6693,14 @@
       <c r="Z207" s="5"/>
     </row>
     <row r="208" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="21"/>
-      <c r="B208" s="22"/>
-      <c r="C208" s="23"/>
-      <c r="D208" s="24"/>
-      <c r="E208" s="24"/>
-      <c r="F208" s="24"/>
-      <c r="G208" s="24"/>
-      <c r="H208" s="25"/>
+      <c r="A208" s="29"/>
+      <c r="B208" s="30"/>
+      <c r="C208" s="31"/>
+      <c r="D208" s="32"/>
+      <c r="E208" s="32"/>
+      <c r="F208" s="32"/>
+      <c r="G208" s="32"/>
+      <c r="H208" s="33"/>
       <c r="I208" s="5"/>
       <c r="J208" s="5"/>
       <c r="K208" s="5"/>
@@ -6738,14 +6721,14 @@
       <c r="Z208" s="5"/>
     </row>
     <row r="209" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="21"/>
-      <c r="B209" s="22"/>
-      <c r="C209" s="23"/>
-      <c r="D209" s="24"/>
-      <c r="E209" s="24"/>
-      <c r="F209" s="24"/>
-      <c r="G209" s="24"/>
-      <c r="H209" s="25"/>
+      <c r="A209" s="29"/>
+      <c r="B209" s="30"/>
+      <c r="C209" s="31"/>
+      <c r="D209" s="32"/>
+      <c r="E209" s="32"/>
+      <c r="F209" s="32"/>
+      <c r="G209" s="32"/>
+      <c r="H209" s="33"/>
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
       <c r="K209" s="5"/>
@@ -6766,16 +6749,16 @@
       <c r="Z209" s="5"/>
     </row>
     <row r="210" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="21">
+      <c r="A210" s="29">
         <v>34</v>
       </c>
-      <c r="B210" s="22"/>
-      <c r="C210" s="23"/>
-      <c r="D210" s="24"/>
-      <c r="E210" s="24"/>
-      <c r="F210" s="24"/>
-      <c r="G210" s="24"/>
-      <c r="H210" s="25"/>
+      <c r="B210" s="30"/>
+      <c r="C210" s="31"/>
+      <c r="D210" s="32"/>
+      <c r="E210" s="32"/>
+      <c r="F210" s="32"/>
+      <c r="G210" s="32"/>
+      <c r="H210" s="33"/>
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
       <c r="K210" s="5"/>
@@ -6796,14 +6779,14 @@
       <c r="Z210" s="5"/>
     </row>
     <row r="211" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="21"/>
-      <c r="B211" s="22"/>
-      <c r="C211" s="23"/>
-      <c r="D211" s="24"/>
-      <c r="E211" s="24"/>
-      <c r="F211" s="24"/>
-      <c r="G211" s="24"/>
-      <c r="H211" s="25"/>
+      <c r="A211" s="29"/>
+      <c r="B211" s="30"/>
+      <c r="C211" s="31"/>
+      <c r="D211" s="32"/>
+      <c r="E211" s="32"/>
+      <c r="F211" s="32"/>
+      <c r="G211" s="32"/>
+      <c r="H211" s="33"/>
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
       <c r="K211" s="5"/>
@@ -6824,14 +6807,14 @@
       <c r="Z211" s="5"/>
     </row>
     <row r="212" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="21"/>
-      <c r="B212" s="22"/>
-      <c r="C212" s="23"/>
-      <c r="D212" s="24"/>
-      <c r="E212" s="24"/>
-      <c r="F212" s="24"/>
-      <c r="G212" s="24"/>
-      <c r="H212" s="25"/>
+      <c r="A212" s="29"/>
+      <c r="B212" s="30"/>
+      <c r="C212" s="31"/>
+      <c r="D212" s="32"/>
+      <c r="E212" s="32"/>
+      <c r="F212" s="32"/>
+      <c r="G212" s="32"/>
+      <c r="H212" s="33"/>
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
       <c r="K212" s="5"/>
@@ -6852,14 +6835,14 @@
       <c r="Z212" s="5"/>
     </row>
     <row r="213" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="21"/>
-      <c r="B213" s="22"/>
-      <c r="C213" s="23"/>
-      <c r="D213" s="24"/>
-      <c r="E213" s="24"/>
-      <c r="F213" s="24"/>
-      <c r="G213" s="24"/>
-      <c r="H213" s="25"/>
+      <c r="A213" s="29"/>
+      <c r="B213" s="30"/>
+      <c r="C213" s="31"/>
+      <c r="D213" s="32"/>
+      <c r="E213" s="32"/>
+      <c r="F213" s="32"/>
+      <c r="G213" s="32"/>
+      <c r="H213" s="33"/>
       <c r="I213" s="5"/>
       <c r="J213" s="5"/>
       <c r="K213" s="5"/>
@@ -6880,14 +6863,14 @@
       <c r="Z213" s="5"/>
     </row>
     <row r="214" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="21"/>
-      <c r="B214" s="22"/>
-      <c r="C214" s="23"/>
-      <c r="D214" s="24"/>
-      <c r="E214" s="24"/>
-      <c r="F214" s="24"/>
-      <c r="G214" s="24"/>
-      <c r="H214" s="25"/>
+      <c r="A214" s="29"/>
+      <c r="B214" s="30"/>
+      <c r="C214" s="31"/>
+      <c r="D214" s="32"/>
+      <c r="E214" s="32"/>
+      <c r="F214" s="32"/>
+      <c r="G214" s="32"/>
+      <c r="H214" s="33"/>
       <c r="I214" s="5"/>
       <c r="J214" s="5"/>
       <c r="K214" s="5"/>
@@ -6908,14 +6891,14 @@
       <c r="Z214" s="5"/>
     </row>
     <row r="215" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="21"/>
-      <c r="B215" s="22"/>
-      <c r="C215" s="23"/>
-      <c r="D215" s="24"/>
-      <c r="E215" s="24"/>
-      <c r="F215" s="24"/>
-      <c r="G215" s="24"/>
-      <c r="H215" s="25"/>
+      <c r="A215" s="29"/>
+      <c r="B215" s="30"/>
+      <c r="C215" s="31"/>
+      <c r="D215" s="32"/>
+      <c r="E215" s="32"/>
+      <c r="F215" s="32"/>
+      <c r="G215" s="32"/>
+      <c r="H215" s="33"/>
       <c r="I215" s="5"/>
       <c r="J215" s="5"/>
       <c r="K215" s="5"/>
@@ -6936,16 +6919,16 @@
       <c r="Z215" s="5"/>
     </row>
     <row r="216" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="21">
+      <c r="A216" s="29">
         <v>35</v>
       </c>
-      <c r="B216" s="22"/>
-      <c r="C216" s="23"/>
-      <c r="D216" s="24"/>
-      <c r="E216" s="24"/>
-      <c r="F216" s="24"/>
-      <c r="G216" s="24"/>
-      <c r="H216" s="25"/>
+      <c r="B216" s="30"/>
+      <c r="C216" s="31"/>
+      <c r="D216" s="32"/>
+      <c r="E216" s="32"/>
+      <c r="F216" s="32"/>
+      <c r="G216" s="32"/>
+      <c r="H216" s="33"/>
       <c r="I216" s="5"/>
       <c r="J216" s="5"/>
       <c r="K216" s="5"/>
@@ -6966,14 +6949,14 @@
       <c r="Z216" s="5"/>
     </row>
     <row r="217" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="21"/>
-      <c r="B217" s="22"/>
-      <c r="C217" s="23"/>
-      <c r="D217" s="24"/>
-      <c r="E217" s="24"/>
-      <c r="F217" s="24"/>
-      <c r="G217" s="24"/>
-      <c r="H217" s="25"/>
+      <c r="A217" s="29"/>
+      <c r="B217" s="30"/>
+      <c r="C217" s="31"/>
+      <c r="D217" s="32"/>
+      <c r="E217" s="32"/>
+      <c r="F217" s="32"/>
+      <c r="G217" s="32"/>
+      <c r="H217" s="33"/>
       <c r="I217" s="5"/>
       <c r="J217" s="5"/>
       <c r="K217" s="5"/>
@@ -6994,14 +6977,14 @@
       <c r="Z217" s="5"/>
     </row>
     <row r="218" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="21"/>
-      <c r="B218" s="22"/>
-      <c r="C218" s="23"/>
-      <c r="D218" s="24"/>
-      <c r="E218" s="24"/>
-      <c r="F218" s="24"/>
-      <c r="G218" s="24"/>
-      <c r="H218" s="25"/>
+      <c r="A218" s="29"/>
+      <c r="B218" s="30"/>
+      <c r="C218" s="31"/>
+      <c r="D218" s="32"/>
+      <c r="E218" s="32"/>
+      <c r="F218" s="32"/>
+      <c r="G218" s="32"/>
+      <c r="H218" s="33"/>
       <c r="I218" s="5"/>
       <c r="J218" s="5"/>
       <c r="K218" s="5"/>
@@ -7022,14 +7005,14 @@
       <c r="Z218" s="5"/>
     </row>
     <row r="219" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="21"/>
-      <c r="B219" s="22"/>
-      <c r="C219" s="23"/>
-      <c r="D219" s="24"/>
-      <c r="E219" s="24"/>
-      <c r="F219" s="24"/>
-      <c r="G219" s="24"/>
-      <c r="H219" s="25"/>
+      <c r="A219" s="29"/>
+      <c r="B219" s="30"/>
+      <c r="C219" s="31"/>
+      <c r="D219" s="32"/>
+      <c r="E219" s="32"/>
+      <c r="F219" s="32"/>
+      <c r="G219" s="32"/>
+      <c r="H219" s="33"/>
       <c r="I219" s="5"/>
       <c r="J219" s="5"/>
       <c r="K219" s="5"/>
@@ -7050,14 +7033,14 @@
       <c r="Z219" s="5"/>
     </row>
     <row r="220" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="21"/>
-      <c r="B220" s="22"/>
-      <c r="C220" s="23"/>
-      <c r="D220" s="24"/>
-      <c r="E220" s="24"/>
-      <c r="F220" s="24"/>
-      <c r="G220" s="24"/>
-      <c r="H220" s="25"/>
+      <c r="A220" s="29"/>
+      <c r="B220" s="30"/>
+      <c r="C220" s="31"/>
+      <c r="D220" s="32"/>
+      <c r="E220" s="32"/>
+      <c r="F220" s="32"/>
+      <c r="G220" s="32"/>
+      <c r="H220" s="33"/>
       <c r="I220" s="5"/>
       <c r="J220" s="5"/>
       <c r="K220" s="5"/>
@@ -7078,14 +7061,14 @@
       <c r="Z220" s="5"/>
     </row>
     <row r="221" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="21"/>
-      <c r="B221" s="22"/>
-      <c r="C221" s="23"/>
-      <c r="D221" s="24"/>
-      <c r="E221" s="24"/>
-      <c r="F221" s="24"/>
-      <c r="G221" s="24"/>
-      <c r="H221" s="25"/>
+      <c r="A221" s="29"/>
+      <c r="B221" s="30"/>
+      <c r="C221" s="31"/>
+      <c r="D221" s="32"/>
+      <c r="E221" s="32"/>
+      <c r="F221" s="32"/>
+      <c r="G221" s="32"/>
+      <c r="H221" s="33"/>
       <c r="I221" s="5"/>
       <c r="J221" s="5"/>
       <c r="K221" s="5"/>
@@ -7106,16 +7089,16 @@
       <c r="Z221" s="5"/>
     </row>
     <row r="222" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="21">
+      <c r="A222" s="29">
         <v>36</v>
       </c>
-      <c r="B222" s="22"/>
-      <c r="C222" s="23"/>
-      <c r="D222" s="24"/>
-      <c r="E222" s="24"/>
-      <c r="F222" s="24"/>
-      <c r="G222" s="24"/>
-      <c r="H222" s="25"/>
+      <c r="B222" s="30"/>
+      <c r="C222" s="31"/>
+      <c r="D222" s="32"/>
+      <c r="E222" s="32"/>
+      <c r="F222" s="32"/>
+      <c r="G222" s="32"/>
+      <c r="H222" s="33"/>
       <c r="I222" s="5"/>
       <c r="J222" s="5"/>
       <c r="K222" s="5"/>
@@ -7136,14 +7119,14 @@
       <c r="Z222" s="5"/>
     </row>
     <row r="223" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="21"/>
-      <c r="B223" s="22"/>
-      <c r="C223" s="23"/>
-      <c r="D223" s="24"/>
-      <c r="E223" s="24"/>
-      <c r="F223" s="24"/>
-      <c r="G223" s="24"/>
-      <c r="H223" s="25"/>
+      <c r="A223" s="29"/>
+      <c r="B223" s="30"/>
+      <c r="C223" s="31"/>
+      <c r="D223" s="32"/>
+      <c r="E223" s="32"/>
+      <c r="F223" s="32"/>
+      <c r="G223" s="32"/>
+      <c r="H223" s="33"/>
       <c r="I223" s="5"/>
       <c r="J223" s="5"/>
       <c r="K223" s="5"/>
@@ -7164,14 +7147,14 @@
       <c r="Z223" s="5"/>
     </row>
     <row r="224" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="21"/>
-      <c r="B224" s="22"/>
-      <c r="C224" s="23"/>
-      <c r="D224" s="24"/>
-      <c r="E224" s="24"/>
-      <c r="F224" s="24"/>
-      <c r="G224" s="24"/>
-      <c r="H224" s="25"/>
+      <c r="A224" s="29"/>
+      <c r="B224" s="30"/>
+      <c r="C224" s="31"/>
+      <c r="D224" s="32"/>
+      <c r="E224" s="32"/>
+      <c r="F224" s="32"/>
+      <c r="G224" s="32"/>
+      <c r="H224" s="33"/>
       <c r="I224" s="5"/>
       <c r="J224" s="5"/>
       <c r="K224" s="5"/>
@@ -7192,14 +7175,14 @@
       <c r="Z224" s="5"/>
     </row>
     <row r="225" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="21"/>
-      <c r="B225" s="22"/>
-      <c r="C225" s="23"/>
-      <c r="D225" s="24"/>
-      <c r="E225" s="24"/>
-      <c r="F225" s="24"/>
-      <c r="G225" s="24"/>
-      <c r="H225" s="25"/>
+      <c r="A225" s="29"/>
+      <c r="B225" s="30"/>
+      <c r="C225" s="31"/>
+      <c r="D225" s="32"/>
+      <c r="E225" s="32"/>
+      <c r="F225" s="32"/>
+      <c r="G225" s="32"/>
+      <c r="H225" s="33"/>
       <c r="I225" s="5"/>
       <c r="J225" s="5"/>
       <c r="K225" s="5"/>
@@ -7220,14 +7203,14 @@
       <c r="Z225" s="5"/>
     </row>
     <row r="226" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="21"/>
-      <c r="B226" s="22"/>
-      <c r="C226" s="23"/>
-      <c r="D226" s="24"/>
-      <c r="E226" s="24"/>
-      <c r="F226" s="24"/>
-      <c r="G226" s="24"/>
-      <c r="H226" s="25"/>
+      <c r="A226" s="29"/>
+      <c r="B226" s="30"/>
+      <c r="C226" s="31"/>
+      <c r="D226" s="32"/>
+      <c r="E226" s="32"/>
+      <c r="F226" s="32"/>
+      <c r="G226" s="32"/>
+      <c r="H226" s="33"/>
       <c r="I226" s="5"/>
       <c r="J226" s="5"/>
       <c r="K226" s="5"/>
@@ -7248,14 +7231,14 @@
       <c r="Z226" s="5"/>
     </row>
     <row r="227" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="21"/>
-      <c r="B227" s="22"/>
-      <c r="C227" s="23"/>
-      <c r="D227" s="24"/>
-      <c r="E227" s="24"/>
-      <c r="F227" s="24"/>
-      <c r="G227" s="24"/>
-      <c r="H227" s="25"/>
+      <c r="A227" s="29"/>
+      <c r="B227" s="30"/>
+      <c r="C227" s="31"/>
+      <c r="D227" s="32"/>
+      <c r="E227" s="32"/>
+      <c r="F227" s="32"/>
+      <c r="G227" s="32"/>
+      <c r="H227" s="33"/>
       <c r="I227" s="5"/>
       <c r="J227" s="5"/>
       <c r="K227" s="5"/>
@@ -7276,16 +7259,16 @@
       <c r="Z227" s="5"/>
     </row>
     <row r="228" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="21">
+      <c r="A228" s="29">
         <v>37</v>
       </c>
-      <c r="B228" s="22"/>
-      <c r="C228" s="23"/>
-      <c r="D228" s="24"/>
-      <c r="E228" s="24"/>
-      <c r="F228" s="24"/>
-      <c r="G228" s="24"/>
-      <c r="H228" s="25"/>
+      <c r="B228" s="30"/>
+      <c r="C228" s="31"/>
+      <c r="D228" s="32"/>
+      <c r="E228" s="32"/>
+      <c r="F228" s="32"/>
+      <c r="G228" s="32"/>
+      <c r="H228" s="33"/>
       <c r="I228" s="5"/>
       <c r="J228" s="5"/>
       <c r="K228" s="5"/>
@@ -7306,14 +7289,14 @@
       <c r="Z228" s="5"/>
     </row>
     <row r="229" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="21"/>
-      <c r="B229" s="22"/>
-      <c r="C229" s="23"/>
-      <c r="D229" s="24"/>
-      <c r="E229" s="24"/>
-      <c r="F229" s="24"/>
-      <c r="G229" s="24"/>
-      <c r="H229" s="25"/>
+      <c r="A229" s="29"/>
+      <c r="B229" s="30"/>
+      <c r="C229" s="31"/>
+      <c r="D229" s="32"/>
+      <c r="E229" s="32"/>
+      <c r="F229" s="32"/>
+      <c r="G229" s="32"/>
+      <c r="H229" s="33"/>
       <c r="I229" s="5"/>
       <c r="J229" s="5"/>
       <c r="K229" s="5"/>
@@ -7334,14 +7317,14 @@
       <c r="Z229" s="5"/>
     </row>
     <row r="230" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="21"/>
-      <c r="B230" s="22"/>
-      <c r="C230" s="23"/>
-      <c r="D230" s="24"/>
-      <c r="E230" s="24"/>
-      <c r="F230" s="24"/>
-      <c r="G230" s="24"/>
-      <c r="H230" s="25"/>
+      <c r="A230" s="29"/>
+      <c r="B230" s="30"/>
+      <c r="C230" s="31"/>
+      <c r="D230" s="32"/>
+      <c r="E230" s="32"/>
+      <c r="F230" s="32"/>
+      <c r="G230" s="32"/>
+      <c r="H230" s="33"/>
       <c r="I230" s="5"/>
       <c r="J230" s="5"/>
       <c r="K230" s="5"/>
@@ -7362,14 +7345,14 @@
       <c r="Z230" s="5"/>
     </row>
     <row r="231" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="21"/>
-      <c r="B231" s="22"/>
-      <c r="C231" s="23"/>
-      <c r="D231" s="24"/>
-      <c r="E231" s="24"/>
-      <c r="F231" s="24"/>
-      <c r="G231" s="24"/>
-      <c r="H231" s="25"/>
+      <c r="A231" s="29"/>
+      <c r="B231" s="30"/>
+      <c r="C231" s="31"/>
+      <c r="D231" s="32"/>
+      <c r="E231" s="32"/>
+      <c r="F231" s="32"/>
+      <c r="G231" s="32"/>
+      <c r="H231" s="33"/>
       <c r="I231" s="5"/>
       <c r="J231" s="5"/>
       <c r="K231" s="5"/>
@@ -7390,14 +7373,14 @@
       <c r="Z231" s="5"/>
     </row>
     <row r="232" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="21"/>
-      <c r="B232" s="22"/>
-      <c r="C232" s="23"/>
-      <c r="D232" s="24"/>
-      <c r="E232" s="24"/>
-      <c r="F232" s="24"/>
-      <c r="G232" s="24"/>
-      <c r="H232" s="25"/>
+      <c r="A232" s="29"/>
+      <c r="B232" s="30"/>
+      <c r="C232" s="31"/>
+      <c r="D232" s="32"/>
+      <c r="E232" s="32"/>
+      <c r="F232" s="32"/>
+      <c r="G232" s="32"/>
+      <c r="H232" s="33"/>
       <c r="I232" s="5"/>
       <c r="J232" s="5"/>
       <c r="K232" s="5"/>
@@ -7418,14 +7401,14 @@
       <c r="Z232" s="5"/>
     </row>
     <row r="233" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="21"/>
-      <c r="B233" s="22"/>
-      <c r="C233" s="23"/>
-      <c r="D233" s="24"/>
-      <c r="E233" s="24"/>
-      <c r="F233" s="24"/>
-      <c r="G233" s="24"/>
-      <c r="H233" s="25"/>
+      <c r="A233" s="29"/>
+      <c r="B233" s="30"/>
+      <c r="C233" s="31"/>
+      <c r="D233" s="32"/>
+      <c r="E233" s="32"/>
+      <c r="F233" s="32"/>
+      <c r="G233" s="32"/>
+      <c r="H233" s="33"/>
       <c r="I233" s="5"/>
       <c r="J233" s="5"/>
       <c r="K233" s="5"/>
@@ -7446,16 +7429,16 @@
       <c r="Z233" s="5"/>
     </row>
     <row r="234" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="21">
+      <c r="A234" s="29">
         <v>38</v>
       </c>
-      <c r="B234" s="22"/>
-      <c r="C234" s="23"/>
-      <c r="D234" s="24"/>
-      <c r="E234" s="24"/>
-      <c r="F234" s="24"/>
-      <c r="G234" s="24"/>
-      <c r="H234" s="25"/>
+      <c r="B234" s="30"/>
+      <c r="C234" s="31"/>
+      <c r="D234" s="32"/>
+      <c r="E234" s="32"/>
+      <c r="F234" s="32"/>
+      <c r="G234" s="32"/>
+      <c r="H234" s="33"/>
       <c r="I234" s="5"/>
       <c r="J234" s="5"/>
       <c r="K234" s="5"/>
@@ -7476,14 +7459,14 @@
       <c r="Z234" s="5"/>
     </row>
     <row r="235" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="21"/>
-      <c r="B235" s="22"/>
-      <c r="C235" s="23"/>
-      <c r="D235" s="24"/>
-      <c r="E235" s="24"/>
-      <c r="F235" s="24"/>
-      <c r="G235" s="24"/>
-      <c r="H235" s="25"/>
+      <c r="A235" s="29"/>
+      <c r="B235" s="30"/>
+      <c r="C235" s="31"/>
+      <c r="D235" s="32"/>
+      <c r="E235" s="32"/>
+      <c r="F235" s="32"/>
+      <c r="G235" s="32"/>
+      <c r="H235" s="33"/>
       <c r="I235" s="5"/>
       <c r="J235" s="5"/>
       <c r="K235" s="5"/>
@@ -7504,14 +7487,14 @@
       <c r="Z235" s="5"/>
     </row>
     <row r="236" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="21"/>
-      <c r="B236" s="22"/>
-      <c r="C236" s="23"/>
-      <c r="D236" s="24"/>
-      <c r="E236" s="24"/>
-      <c r="F236" s="24"/>
-      <c r="G236" s="24"/>
-      <c r="H236" s="25"/>
+      <c r="A236" s="29"/>
+      <c r="B236" s="30"/>
+      <c r="C236" s="31"/>
+      <c r="D236" s="32"/>
+      <c r="E236" s="32"/>
+      <c r="F236" s="32"/>
+      <c r="G236" s="32"/>
+      <c r="H236" s="33"/>
       <c r="I236" s="5"/>
       <c r="J236" s="5"/>
       <c r="K236" s="5"/>
@@ -7532,14 +7515,14 @@
       <c r="Z236" s="5"/>
     </row>
     <row r="237" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="21"/>
-      <c r="B237" s="22"/>
-      <c r="C237" s="23"/>
-      <c r="D237" s="24"/>
-      <c r="E237" s="24"/>
-      <c r="F237" s="24"/>
-      <c r="G237" s="24"/>
-      <c r="H237" s="25"/>
+      <c r="A237" s="29"/>
+      <c r="B237" s="30"/>
+      <c r="C237" s="31"/>
+      <c r="D237" s="32"/>
+      <c r="E237" s="32"/>
+      <c r="F237" s="32"/>
+      <c r="G237" s="32"/>
+      <c r="H237" s="33"/>
       <c r="I237" s="5"/>
       <c r="J237" s="5"/>
       <c r="K237" s="5"/>
@@ -7560,14 +7543,14 @@
       <c r="Z237" s="5"/>
     </row>
     <row r="238" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="21"/>
-      <c r="B238" s="22"/>
-      <c r="C238" s="23"/>
-      <c r="D238" s="24"/>
-      <c r="E238" s="24"/>
-      <c r="F238" s="24"/>
-      <c r="G238" s="24"/>
-      <c r="H238" s="25"/>
+      <c r="A238" s="29"/>
+      <c r="B238" s="30"/>
+      <c r="C238" s="31"/>
+      <c r="D238" s="32"/>
+      <c r="E238" s="32"/>
+      <c r="F238" s="32"/>
+      <c r="G238" s="32"/>
+      <c r="H238" s="33"/>
       <c r="I238" s="5"/>
       <c r="J238" s="5"/>
       <c r="K238" s="5"/>
@@ -7588,14 +7571,14 @@
       <c r="Z238" s="5"/>
     </row>
     <row r="239" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="21"/>
-      <c r="B239" s="22"/>
-      <c r="C239" s="23"/>
-      <c r="D239" s="24"/>
-      <c r="E239" s="24"/>
-      <c r="F239" s="24"/>
-      <c r="G239" s="24"/>
-      <c r="H239" s="25"/>
+      <c r="A239" s="29"/>
+      <c r="B239" s="30"/>
+      <c r="C239" s="31"/>
+      <c r="D239" s="32"/>
+      <c r="E239" s="32"/>
+      <c r="F239" s="32"/>
+      <c r="G239" s="32"/>
+      <c r="H239" s="33"/>
       <c r="I239" s="5"/>
       <c r="J239" s="5"/>
       <c r="K239" s="5"/>
@@ -7616,16 +7599,16 @@
       <c r="Z239" s="5"/>
     </row>
     <row r="240" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="21">
+      <c r="A240" s="29">
         <v>39</v>
       </c>
-      <c r="B240" s="22"/>
-      <c r="C240" s="23"/>
-      <c r="D240" s="24"/>
-      <c r="E240" s="24"/>
-      <c r="F240" s="24"/>
-      <c r="G240" s="24"/>
-      <c r="H240" s="25"/>
+      <c r="B240" s="30"/>
+      <c r="C240" s="31"/>
+      <c r="D240" s="32"/>
+      <c r="E240" s="32"/>
+      <c r="F240" s="32"/>
+      <c r="G240" s="32"/>
+      <c r="H240" s="33"/>
       <c r="I240" s="5"/>
       <c r="J240" s="5"/>
       <c r="K240" s="5"/>
@@ -7646,14 +7629,14 @@
       <c r="Z240" s="5"/>
     </row>
     <row r="241" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="21"/>
-      <c r="B241" s="22"/>
-      <c r="C241" s="23"/>
-      <c r="D241" s="24"/>
-      <c r="E241" s="24"/>
-      <c r="F241" s="24"/>
-      <c r="G241" s="24"/>
-      <c r="H241" s="25"/>
+      <c r="A241" s="29"/>
+      <c r="B241" s="30"/>
+      <c r="C241" s="31"/>
+      <c r="D241" s="32"/>
+      <c r="E241" s="32"/>
+      <c r="F241" s="32"/>
+      <c r="G241" s="32"/>
+      <c r="H241" s="33"/>
       <c r="I241" s="5"/>
       <c r="J241" s="5"/>
       <c r="K241" s="5"/>
@@ -7674,14 +7657,14 @@
       <c r="Z241" s="5"/>
     </row>
     <row r="242" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="21"/>
-      <c r="B242" s="22"/>
-      <c r="C242" s="23"/>
-      <c r="D242" s="24"/>
-      <c r="E242" s="24"/>
-      <c r="F242" s="24"/>
-      <c r="G242" s="24"/>
-      <c r="H242" s="25"/>
+      <c r="A242" s="29"/>
+      <c r="B242" s="30"/>
+      <c r="C242" s="31"/>
+      <c r="D242" s="32"/>
+      <c r="E242" s="32"/>
+      <c r="F242" s="32"/>
+      <c r="G242" s="32"/>
+      <c r="H242" s="33"/>
       <c r="I242" s="5"/>
       <c r="J242" s="5"/>
       <c r="K242" s="5"/>
@@ -7702,14 +7685,14 @@
       <c r="Z242" s="5"/>
     </row>
     <row r="243" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="21"/>
-      <c r="B243" s="22"/>
-      <c r="C243" s="23"/>
-      <c r="D243" s="24"/>
-      <c r="E243" s="24"/>
-      <c r="F243" s="24"/>
-      <c r="G243" s="24"/>
-      <c r="H243" s="25"/>
+      <c r="A243" s="29"/>
+      <c r="B243" s="30"/>
+      <c r="C243" s="31"/>
+      <c r="D243" s="32"/>
+      <c r="E243" s="32"/>
+      <c r="F243" s="32"/>
+      <c r="G243" s="32"/>
+      <c r="H243" s="33"/>
       <c r="I243" s="5"/>
       <c r="J243" s="5"/>
       <c r="K243" s="5"/>
@@ -7730,14 +7713,14 @@
       <c r="Z243" s="5"/>
     </row>
     <row r="244" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="21"/>
-      <c r="B244" s="22"/>
-      <c r="C244" s="23"/>
-      <c r="D244" s="24"/>
-      <c r="E244" s="24"/>
-      <c r="F244" s="24"/>
-      <c r="G244" s="24"/>
-      <c r="H244" s="25"/>
+      <c r="A244" s="29"/>
+      <c r="B244" s="30"/>
+      <c r="C244" s="31"/>
+      <c r="D244" s="32"/>
+      <c r="E244" s="32"/>
+      <c r="F244" s="32"/>
+      <c r="G244" s="32"/>
+      <c r="H244" s="33"/>
       <c r="I244" s="5"/>
       <c r="J244" s="5"/>
       <c r="K244" s="5"/>
@@ -7758,14 +7741,14 @@
       <c r="Z244" s="5"/>
     </row>
     <row r="245" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="21"/>
-      <c r="B245" s="22"/>
-      <c r="C245" s="23"/>
-      <c r="D245" s="24"/>
-      <c r="E245" s="24"/>
-      <c r="F245" s="24"/>
-      <c r="G245" s="24"/>
-      <c r="H245" s="25"/>
+      <c r="A245" s="29"/>
+      <c r="B245" s="30"/>
+      <c r="C245" s="31"/>
+      <c r="D245" s="32"/>
+      <c r="E245" s="32"/>
+      <c r="F245" s="32"/>
+      <c r="G245" s="32"/>
+      <c r="H245" s="33"/>
       <c r="I245" s="5"/>
       <c r="J245" s="5"/>
       <c r="K245" s="5"/>
@@ -7786,16 +7769,16 @@
       <c r="Z245" s="5"/>
     </row>
     <row r="246" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="21">
+      <c r="A246" s="29">
         <v>40</v>
       </c>
-      <c r="B246" s="22"/>
-      <c r="C246" s="23"/>
-      <c r="D246" s="24"/>
-      <c r="E246" s="24"/>
-      <c r="F246" s="24"/>
-      <c r="G246" s="24"/>
-      <c r="H246" s="25"/>
+      <c r="B246" s="30"/>
+      <c r="C246" s="31"/>
+      <c r="D246" s="32"/>
+      <c r="E246" s="32"/>
+      <c r="F246" s="32"/>
+      <c r="G246" s="32"/>
+      <c r="H246" s="33"/>
       <c r="I246" s="5"/>
       <c r="J246" s="5"/>
       <c r="K246" s="5"/>
@@ -7816,14 +7799,14 @@
       <c r="Z246" s="5"/>
     </row>
     <row r="247" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="21"/>
-      <c r="B247" s="22"/>
-      <c r="C247" s="23"/>
-      <c r="D247" s="24"/>
-      <c r="E247" s="24"/>
-      <c r="F247" s="24"/>
-      <c r="G247" s="24"/>
-      <c r="H247" s="25"/>
+      <c r="A247" s="29"/>
+      <c r="B247" s="30"/>
+      <c r="C247" s="31"/>
+      <c r="D247" s="32"/>
+      <c r="E247" s="32"/>
+      <c r="F247" s="32"/>
+      <c r="G247" s="32"/>
+      <c r="H247" s="33"/>
       <c r="I247" s="5"/>
       <c r="J247" s="5"/>
       <c r="K247" s="5"/>
@@ -7844,14 +7827,14 @@
       <c r="Z247" s="5"/>
     </row>
     <row r="248" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="21"/>
-      <c r="B248" s="22"/>
-      <c r="C248" s="23"/>
-      <c r="D248" s="24"/>
-      <c r="E248" s="24"/>
-      <c r="F248" s="24"/>
-      <c r="G248" s="24"/>
-      <c r="H248" s="25"/>
+      <c r="A248" s="29"/>
+      <c r="B248" s="30"/>
+      <c r="C248" s="31"/>
+      <c r="D248" s="32"/>
+      <c r="E248" s="32"/>
+      <c r="F248" s="32"/>
+      <c r="G248" s="32"/>
+      <c r="H248" s="33"/>
       <c r="I248" s="5"/>
       <c r="J248" s="5"/>
       <c r="K248" s="5"/>
@@ -7872,14 +7855,14 @@
       <c r="Z248" s="5"/>
     </row>
     <row r="249" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="21"/>
-      <c r="B249" s="22"/>
-      <c r="C249" s="23"/>
-      <c r="D249" s="24"/>
-      <c r="E249" s="24"/>
-      <c r="F249" s="24"/>
-      <c r="G249" s="24"/>
-      <c r="H249" s="25"/>
+      <c r="A249" s="29"/>
+      <c r="B249" s="30"/>
+      <c r="C249" s="31"/>
+      <c r="D249" s="32"/>
+      <c r="E249" s="32"/>
+      <c r="F249" s="32"/>
+      <c r="G249" s="32"/>
+      <c r="H249" s="33"/>
       <c r="I249" s="5"/>
       <c r="J249" s="5"/>
       <c r="K249" s="5"/>
@@ -7900,14 +7883,14 @@
       <c r="Z249" s="5"/>
     </row>
     <row r="250" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="21"/>
-      <c r="B250" s="22"/>
-      <c r="C250" s="23"/>
-      <c r="D250" s="24"/>
-      <c r="E250" s="24"/>
-      <c r="F250" s="24"/>
-      <c r="G250" s="24"/>
-      <c r="H250" s="25"/>
+      <c r="A250" s="29"/>
+      <c r="B250" s="30"/>
+      <c r="C250" s="31"/>
+      <c r="D250" s="32"/>
+      <c r="E250" s="32"/>
+      <c r="F250" s="32"/>
+      <c r="G250" s="32"/>
+      <c r="H250" s="33"/>
       <c r="I250" s="5"/>
       <c r="J250" s="5"/>
       <c r="K250" s="5"/>
@@ -7928,14 +7911,14 @@
       <c r="Z250" s="5"/>
     </row>
     <row r="251" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="21"/>
-      <c r="B251" s="22"/>
-      <c r="C251" s="23"/>
-      <c r="D251" s="24"/>
-      <c r="E251" s="24"/>
-      <c r="F251" s="24"/>
-      <c r="G251" s="24"/>
-      <c r="H251" s="25"/>
+      <c r="A251" s="29"/>
+      <c r="B251" s="30"/>
+      <c r="C251" s="31"/>
+      <c r="D251" s="32"/>
+      <c r="E251" s="32"/>
+      <c r="F251" s="32"/>
+      <c r="G251" s="32"/>
+      <c r="H251" s="33"/>
       <c r="I251" s="5"/>
       <c r="J251" s="5"/>
       <c r="K251" s="5"/>
@@ -8023,9 +8006,9 @@
       <c r="B255" s="15"/>
       <c r="C255" s="15"/>
       <c r="D255" s="15"/>
-      <c r="E255" s="18"/>
-      <c r="F255" s="18"/>
-      <c r="G255" s="18"/>
+      <c r="E255" s="34"/>
+      <c r="F255" s="34"/>
+      <c r="G255" s="34"/>
       <c r="H255" s="16"/>
       <c r="I255" s="5"/>
       <c r="J255" s="5"/>
@@ -8044,9 +8027,9 @@
       <c r="B256" s="15"/>
       <c r="C256" s="15"/>
       <c r="D256" s="15"/>
-      <c r="E256" s="18"/>
-      <c r="F256" s="18"/>
-      <c r="G256" s="18"/>
+      <c r="E256" s="34"/>
+      <c r="F256" s="34"/>
+      <c r="G256" s="34"/>
       <c r="H256" s="16"/>
       <c r="I256" s="5"/>
       <c r="J256" s="5"/>
@@ -8065,9 +8048,9 @@
       <c r="B257" s="15"/>
       <c r="C257" s="15"/>
       <c r="D257" s="15"/>
-      <c r="E257" s="18"/>
-      <c r="F257" s="18"/>
-      <c r="G257" s="18"/>
+      <c r="E257" s="34"/>
+      <c r="F257" s="34"/>
+      <c r="G257" s="34"/>
       <c r="H257" s="16"/>
       <c r="I257" s="5"/>
       <c r="J257" s="5"/>
@@ -8086,9 +8069,9 @@
       <c r="B258" s="15"/>
       <c r="C258" s="15"/>
       <c r="D258" s="15"/>
-      <c r="E258" s="18"/>
-      <c r="F258" s="18"/>
-      <c r="G258" s="18"/>
+      <c r="E258" s="34"/>
+      <c r="F258" s="34"/>
+      <c r="G258" s="34"/>
       <c r="H258" s="16"/>
       <c r="I258" s="5"/>
       <c r="J258" s="5"/>
@@ -8107,9 +8090,9 @@
       <c r="B259" s="15"/>
       <c r="C259" s="15"/>
       <c r="D259" s="15"/>
-      <c r="E259" s="18"/>
-      <c r="F259" s="18"/>
-      <c r="G259" s="18"/>
+      <c r="E259" s="34"/>
+      <c r="F259" s="34"/>
+      <c r="G259" s="34"/>
       <c r="H259" s="16"/>
       <c r="I259" s="5"/>
       <c r="J259" s="5"/>
@@ -8128,11 +8111,11 @@
       <c r="B260" s="15"/>
       <c r="C260" s="15"/>
       <c r="D260" s="15"/>
-      <c r="E260" s="19" t="s">
-        <v>23</v>
+      <c r="E260" s="35" t="s">
+        <v>22</v>
       </c>
-      <c r="F260" s="19"/>
-      <c r="G260" s="19"/>
+      <c r="F260" s="35"/>
+      <c r="G260" s="35"/>
       <c r="H260" s="16"/>
       <c r="I260" s="5"/>
       <c r="J260" s="5"/>
@@ -8151,10 +8134,10 @@
       <c r="B261" s="15"/>
       <c r="C261" s="15"/>
       <c r="D261" s="15"/>
-      <c r="E261" s="20" t="s">
-        <v>21</v>
+      <c r="E261" s="36" t="s">
+        <v>20</v>
       </c>
-      <c r="F261" s="20"/>
+      <c r="F261" s="36"/>
       <c r="G261" s="17"/>
       <c r="H261" s="16"/>
       <c r="I261" s="5"/>
@@ -8174,10 +8157,10 @@
       <c r="B262" s="15"/>
       <c r="C262" s="15"/>
       <c r="D262" s="15"/>
-      <c r="E262" s="20" t="s">
-        <v>22</v>
+      <c r="E262" s="36" t="s">
+        <v>21</v>
       </c>
-      <c r="F262" s="20"/>
+      <c r="F262" s="36"/>
       <c r="G262" s="17"/>
       <c r="H262" s="16"/>
       <c r="I262" s="5"/>
@@ -27310,25 +27293,390 @@
     </row>
   </sheetData>
   <mergeCells count="419">
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:F2"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="E255:G259"/>
+    <mergeCell ref="E260:G260"/>
+    <mergeCell ref="E261:F261"/>
+    <mergeCell ref="E262:F262"/>
+    <mergeCell ref="A246:A251"/>
+    <mergeCell ref="B246:B251"/>
+    <mergeCell ref="C246:C251"/>
+    <mergeCell ref="D246:G246"/>
+    <mergeCell ref="H246:H251"/>
+    <mergeCell ref="D247:G247"/>
+    <mergeCell ref="D248:G248"/>
+    <mergeCell ref="D249:G249"/>
+    <mergeCell ref="D250:G250"/>
+    <mergeCell ref="D251:G251"/>
+    <mergeCell ref="A240:A245"/>
+    <mergeCell ref="B240:B245"/>
+    <mergeCell ref="C240:C245"/>
+    <mergeCell ref="D240:G240"/>
+    <mergeCell ref="H240:H245"/>
+    <mergeCell ref="D241:G241"/>
+    <mergeCell ref="D242:G242"/>
+    <mergeCell ref="D243:G243"/>
+    <mergeCell ref="D244:G244"/>
+    <mergeCell ref="D245:G245"/>
+    <mergeCell ref="A234:A239"/>
+    <mergeCell ref="B234:B239"/>
+    <mergeCell ref="C234:C239"/>
+    <mergeCell ref="D234:G234"/>
+    <mergeCell ref="H234:H239"/>
+    <mergeCell ref="D235:G235"/>
+    <mergeCell ref="D236:G236"/>
+    <mergeCell ref="D237:G237"/>
+    <mergeCell ref="D238:G238"/>
+    <mergeCell ref="D239:G239"/>
+    <mergeCell ref="A228:A233"/>
+    <mergeCell ref="B228:B233"/>
+    <mergeCell ref="C228:C233"/>
+    <mergeCell ref="D228:G228"/>
+    <mergeCell ref="H228:H233"/>
+    <mergeCell ref="D229:G229"/>
+    <mergeCell ref="D230:G230"/>
+    <mergeCell ref="D231:G231"/>
+    <mergeCell ref="D232:G232"/>
+    <mergeCell ref="D233:G233"/>
+    <mergeCell ref="A222:A227"/>
+    <mergeCell ref="B222:B227"/>
+    <mergeCell ref="C222:C227"/>
+    <mergeCell ref="D222:G222"/>
+    <mergeCell ref="H222:H227"/>
+    <mergeCell ref="D223:G223"/>
+    <mergeCell ref="D224:G224"/>
+    <mergeCell ref="D225:G225"/>
+    <mergeCell ref="D226:G226"/>
+    <mergeCell ref="D227:G227"/>
+    <mergeCell ref="A216:A221"/>
+    <mergeCell ref="B216:B221"/>
+    <mergeCell ref="C216:C221"/>
+    <mergeCell ref="D216:G216"/>
+    <mergeCell ref="H216:H221"/>
+    <mergeCell ref="D217:G217"/>
+    <mergeCell ref="D218:G218"/>
+    <mergeCell ref="D219:G219"/>
+    <mergeCell ref="D220:G220"/>
+    <mergeCell ref="D221:G221"/>
+    <mergeCell ref="A210:A215"/>
+    <mergeCell ref="B210:B215"/>
+    <mergeCell ref="C210:C215"/>
+    <mergeCell ref="D210:G210"/>
+    <mergeCell ref="H210:H215"/>
+    <mergeCell ref="D211:G211"/>
+    <mergeCell ref="D212:G212"/>
+    <mergeCell ref="D213:G213"/>
+    <mergeCell ref="D214:G214"/>
+    <mergeCell ref="D215:G215"/>
+    <mergeCell ref="A204:A209"/>
+    <mergeCell ref="B204:B209"/>
+    <mergeCell ref="C204:C209"/>
+    <mergeCell ref="D204:G204"/>
+    <mergeCell ref="H204:H209"/>
+    <mergeCell ref="D205:G205"/>
+    <mergeCell ref="D206:G206"/>
+    <mergeCell ref="D207:G207"/>
+    <mergeCell ref="D208:G208"/>
+    <mergeCell ref="D209:G209"/>
+    <mergeCell ref="A198:A203"/>
+    <mergeCell ref="B198:B203"/>
+    <mergeCell ref="C198:C203"/>
+    <mergeCell ref="D198:G198"/>
+    <mergeCell ref="H198:H203"/>
+    <mergeCell ref="D199:G199"/>
+    <mergeCell ref="D200:G200"/>
+    <mergeCell ref="D201:G201"/>
+    <mergeCell ref="D202:G202"/>
+    <mergeCell ref="D203:G203"/>
+    <mergeCell ref="A192:A197"/>
+    <mergeCell ref="B192:B197"/>
+    <mergeCell ref="C192:C197"/>
+    <mergeCell ref="D192:G192"/>
+    <mergeCell ref="H192:H197"/>
+    <mergeCell ref="D193:G193"/>
+    <mergeCell ref="D194:G194"/>
+    <mergeCell ref="D195:G195"/>
+    <mergeCell ref="D196:G196"/>
+    <mergeCell ref="D197:G197"/>
+    <mergeCell ref="A186:A191"/>
+    <mergeCell ref="B186:B191"/>
+    <mergeCell ref="C186:C191"/>
+    <mergeCell ref="D186:G186"/>
+    <mergeCell ref="H186:H191"/>
+    <mergeCell ref="D187:G187"/>
+    <mergeCell ref="D188:G188"/>
+    <mergeCell ref="D189:G189"/>
+    <mergeCell ref="D190:G190"/>
+    <mergeCell ref="D191:G191"/>
+    <mergeCell ref="A180:A185"/>
+    <mergeCell ref="B180:B185"/>
+    <mergeCell ref="C180:C185"/>
+    <mergeCell ref="D180:G180"/>
+    <mergeCell ref="H180:H185"/>
+    <mergeCell ref="D181:G181"/>
+    <mergeCell ref="D182:G182"/>
+    <mergeCell ref="D183:G183"/>
+    <mergeCell ref="D184:G184"/>
+    <mergeCell ref="D185:G185"/>
+    <mergeCell ref="A174:A179"/>
+    <mergeCell ref="B174:B179"/>
+    <mergeCell ref="C174:C179"/>
+    <mergeCell ref="D174:G174"/>
+    <mergeCell ref="H174:H179"/>
+    <mergeCell ref="D175:G175"/>
+    <mergeCell ref="D176:G176"/>
+    <mergeCell ref="D177:G177"/>
+    <mergeCell ref="D178:G178"/>
+    <mergeCell ref="D179:G179"/>
+    <mergeCell ref="A168:A173"/>
+    <mergeCell ref="B168:B173"/>
+    <mergeCell ref="C168:C173"/>
+    <mergeCell ref="D168:G168"/>
+    <mergeCell ref="H168:H173"/>
+    <mergeCell ref="D169:G169"/>
+    <mergeCell ref="D170:G170"/>
+    <mergeCell ref="D171:G171"/>
+    <mergeCell ref="D172:G172"/>
+    <mergeCell ref="D173:G173"/>
+    <mergeCell ref="A162:A167"/>
+    <mergeCell ref="B162:B167"/>
+    <mergeCell ref="C162:C167"/>
+    <mergeCell ref="D162:G162"/>
+    <mergeCell ref="H162:H167"/>
+    <mergeCell ref="D163:G163"/>
+    <mergeCell ref="D164:G164"/>
+    <mergeCell ref="D165:G165"/>
+    <mergeCell ref="D166:G166"/>
+    <mergeCell ref="D167:G167"/>
+    <mergeCell ref="A156:A161"/>
+    <mergeCell ref="B156:B161"/>
+    <mergeCell ref="C156:C161"/>
+    <mergeCell ref="D156:G156"/>
+    <mergeCell ref="H156:H161"/>
+    <mergeCell ref="D157:G157"/>
+    <mergeCell ref="D158:G158"/>
+    <mergeCell ref="D159:G159"/>
+    <mergeCell ref="D160:G160"/>
+    <mergeCell ref="D161:G161"/>
+    <mergeCell ref="A150:A155"/>
+    <mergeCell ref="B150:B155"/>
+    <mergeCell ref="C150:C155"/>
+    <mergeCell ref="D150:G150"/>
+    <mergeCell ref="H150:H155"/>
+    <mergeCell ref="D151:G151"/>
+    <mergeCell ref="D152:G152"/>
+    <mergeCell ref="D153:G153"/>
+    <mergeCell ref="D154:G154"/>
+    <mergeCell ref="D155:G155"/>
+    <mergeCell ref="A144:A149"/>
+    <mergeCell ref="B144:B149"/>
+    <mergeCell ref="C144:C149"/>
+    <mergeCell ref="D144:G144"/>
+    <mergeCell ref="H144:H149"/>
+    <mergeCell ref="D145:G145"/>
+    <mergeCell ref="D146:G146"/>
+    <mergeCell ref="D147:G147"/>
+    <mergeCell ref="D148:G148"/>
+    <mergeCell ref="D149:G149"/>
+    <mergeCell ref="A138:A143"/>
+    <mergeCell ref="B138:B143"/>
+    <mergeCell ref="C138:C143"/>
+    <mergeCell ref="D138:G138"/>
+    <mergeCell ref="H138:H143"/>
+    <mergeCell ref="D139:G139"/>
+    <mergeCell ref="D140:G140"/>
+    <mergeCell ref="D141:G141"/>
+    <mergeCell ref="D142:G142"/>
+    <mergeCell ref="D143:G143"/>
+    <mergeCell ref="A132:A137"/>
+    <mergeCell ref="B132:B137"/>
+    <mergeCell ref="C132:C137"/>
+    <mergeCell ref="D132:G132"/>
+    <mergeCell ref="H132:H137"/>
+    <mergeCell ref="D133:G133"/>
+    <mergeCell ref="D134:G134"/>
+    <mergeCell ref="D135:G135"/>
+    <mergeCell ref="D136:G136"/>
+    <mergeCell ref="D137:G137"/>
+    <mergeCell ref="A126:A131"/>
+    <mergeCell ref="B126:B131"/>
+    <mergeCell ref="C126:C131"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="H126:H131"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="D128:G128"/>
+    <mergeCell ref="D129:G129"/>
+    <mergeCell ref="D130:G130"/>
+    <mergeCell ref="D131:G131"/>
+    <mergeCell ref="A120:A125"/>
+    <mergeCell ref="B120:B125"/>
+    <mergeCell ref="C120:C125"/>
+    <mergeCell ref="D120:G120"/>
+    <mergeCell ref="H120:H125"/>
+    <mergeCell ref="D121:G121"/>
+    <mergeCell ref="D122:G122"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="D124:G124"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="B114:B119"/>
+    <mergeCell ref="C114:C119"/>
+    <mergeCell ref="D114:G114"/>
+    <mergeCell ref="H114:H119"/>
+    <mergeCell ref="D115:G115"/>
+    <mergeCell ref="D116:G116"/>
+    <mergeCell ref="D117:G117"/>
+    <mergeCell ref="D118:G118"/>
+    <mergeCell ref="D119:G119"/>
+    <mergeCell ref="A108:A113"/>
+    <mergeCell ref="B108:B113"/>
+    <mergeCell ref="C108:C113"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="H108:H113"/>
+    <mergeCell ref="D109:G109"/>
+    <mergeCell ref="D110:G110"/>
+    <mergeCell ref="D111:G111"/>
+    <mergeCell ref="D112:G112"/>
+    <mergeCell ref="D113:G113"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="C102:C107"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="H102:H107"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D104:G104"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="A96:A101"/>
+    <mergeCell ref="B96:B101"/>
+    <mergeCell ref="C96:C101"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="H96:H101"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="B90:B95"/>
+    <mergeCell ref="C90:C95"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="H90:H95"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="A84:A89"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="H84:H89"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="H78:H83"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="A72:A77"/>
+    <mergeCell ref="B72:B77"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:H77"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="C66:C71"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="H66:H71"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="C60:C65"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="H60:H65"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H54:H59"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="H48:H53"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="C42:C47"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H42:H47"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="C36:C41"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:H41"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:H35"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:H29"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
     <mergeCell ref="H12:H17"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
@@ -27345,390 +27693,25 @@
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D23:G23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:H29"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:H35"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="C36:C41"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:H41"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="C42:C47"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="H42:H47"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="H48:H53"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H54:H59"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="C60:C65"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="H60:H65"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="B66:B71"/>
-    <mergeCell ref="C66:C71"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="H66:H71"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="A72:A77"/>
-    <mergeCell ref="B72:B77"/>
-    <mergeCell ref="C72:C77"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:H77"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="B78:B83"/>
-    <mergeCell ref="C78:C83"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="H78:H83"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="A84:A89"/>
-    <mergeCell ref="B84:B89"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="H84:H89"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="B90:B95"/>
-    <mergeCell ref="C90:C95"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="H90:H95"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="D92:G92"/>
-    <mergeCell ref="D93:G93"/>
-    <mergeCell ref="D94:G94"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="A96:A101"/>
-    <mergeCell ref="B96:B101"/>
-    <mergeCell ref="C96:C101"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="H96:H101"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D100:G100"/>
-    <mergeCell ref="D101:G101"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="C102:C107"/>
-    <mergeCell ref="D102:G102"/>
-    <mergeCell ref="H102:H107"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D104:G104"/>
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="A108:A113"/>
-    <mergeCell ref="B108:B113"/>
-    <mergeCell ref="C108:C113"/>
-    <mergeCell ref="D108:G108"/>
-    <mergeCell ref="H108:H113"/>
-    <mergeCell ref="D109:G109"/>
-    <mergeCell ref="D110:G110"/>
-    <mergeCell ref="D111:G111"/>
-    <mergeCell ref="D112:G112"/>
-    <mergeCell ref="D113:G113"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="B114:B119"/>
-    <mergeCell ref="C114:C119"/>
-    <mergeCell ref="D114:G114"/>
-    <mergeCell ref="H114:H119"/>
-    <mergeCell ref="D115:G115"/>
-    <mergeCell ref="D116:G116"/>
-    <mergeCell ref="D117:G117"/>
-    <mergeCell ref="D118:G118"/>
-    <mergeCell ref="D119:G119"/>
-    <mergeCell ref="A120:A125"/>
-    <mergeCell ref="B120:B125"/>
-    <mergeCell ref="C120:C125"/>
-    <mergeCell ref="D120:G120"/>
-    <mergeCell ref="H120:H125"/>
-    <mergeCell ref="D121:G121"/>
-    <mergeCell ref="D122:G122"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="D124:G124"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="A126:A131"/>
-    <mergeCell ref="B126:B131"/>
-    <mergeCell ref="C126:C131"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="H126:H131"/>
-    <mergeCell ref="D127:G127"/>
-    <mergeCell ref="D128:G128"/>
-    <mergeCell ref="D129:G129"/>
-    <mergeCell ref="D130:G130"/>
-    <mergeCell ref="D131:G131"/>
-    <mergeCell ref="A132:A137"/>
-    <mergeCell ref="B132:B137"/>
-    <mergeCell ref="C132:C137"/>
-    <mergeCell ref="D132:G132"/>
-    <mergeCell ref="H132:H137"/>
-    <mergeCell ref="D133:G133"/>
-    <mergeCell ref="D134:G134"/>
-    <mergeCell ref="D135:G135"/>
-    <mergeCell ref="D136:G136"/>
-    <mergeCell ref="D137:G137"/>
-    <mergeCell ref="A138:A143"/>
-    <mergeCell ref="B138:B143"/>
-    <mergeCell ref="C138:C143"/>
-    <mergeCell ref="D138:G138"/>
-    <mergeCell ref="H138:H143"/>
-    <mergeCell ref="D139:G139"/>
-    <mergeCell ref="D140:G140"/>
-    <mergeCell ref="D141:G141"/>
-    <mergeCell ref="D142:G142"/>
-    <mergeCell ref="D143:G143"/>
-    <mergeCell ref="A144:A149"/>
-    <mergeCell ref="B144:B149"/>
-    <mergeCell ref="C144:C149"/>
-    <mergeCell ref="D144:G144"/>
-    <mergeCell ref="H144:H149"/>
-    <mergeCell ref="D145:G145"/>
-    <mergeCell ref="D146:G146"/>
-    <mergeCell ref="D147:G147"/>
-    <mergeCell ref="D148:G148"/>
-    <mergeCell ref="D149:G149"/>
-    <mergeCell ref="A150:A155"/>
-    <mergeCell ref="B150:B155"/>
-    <mergeCell ref="C150:C155"/>
-    <mergeCell ref="D150:G150"/>
-    <mergeCell ref="H150:H155"/>
-    <mergeCell ref="D151:G151"/>
-    <mergeCell ref="D152:G152"/>
-    <mergeCell ref="D153:G153"/>
-    <mergeCell ref="D154:G154"/>
-    <mergeCell ref="D155:G155"/>
-    <mergeCell ref="A156:A161"/>
-    <mergeCell ref="B156:B161"/>
-    <mergeCell ref="C156:C161"/>
-    <mergeCell ref="D156:G156"/>
-    <mergeCell ref="H156:H161"/>
-    <mergeCell ref="D157:G157"/>
-    <mergeCell ref="D158:G158"/>
-    <mergeCell ref="D159:G159"/>
-    <mergeCell ref="D160:G160"/>
-    <mergeCell ref="D161:G161"/>
-    <mergeCell ref="A162:A167"/>
-    <mergeCell ref="B162:B167"/>
-    <mergeCell ref="C162:C167"/>
-    <mergeCell ref="D162:G162"/>
-    <mergeCell ref="H162:H167"/>
-    <mergeCell ref="D163:G163"/>
-    <mergeCell ref="D164:G164"/>
-    <mergeCell ref="D165:G165"/>
-    <mergeCell ref="D166:G166"/>
-    <mergeCell ref="D167:G167"/>
-    <mergeCell ref="A168:A173"/>
-    <mergeCell ref="B168:B173"/>
-    <mergeCell ref="C168:C173"/>
-    <mergeCell ref="D168:G168"/>
-    <mergeCell ref="H168:H173"/>
-    <mergeCell ref="D169:G169"/>
-    <mergeCell ref="D170:G170"/>
-    <mergeCell ref="D171:G171"/>
-    <mergeCell ref="D172:G172"/>
-    <mergeCell ref="D173:G173"/>
-    <mergeCell ref="A174:A179"/>
-    <mergeCell ref="B174:B179"/>
-    <mergeCell ref="C174:C179"/>
-    <mergeCell ref="D174:G174"/>
-    <mergeCell ref="H174:H179"/>
-    <mergeCell ref="D175:G175"/>
-    <mergeCell ref="D176:G176"/>
-    <mergeCell ref="D177:G177"/>
-    <mergeCell ref="D178:G178"/>
-    <mergeCell ref="D179:G179"/>
-    <mergeCell ref="A180:A185"/>
-    <mergeCell ref="B180:B185"/>
-    <mergeCell ref="C180:C185"/>
-    <mergeCell ref="D180:G180"/>
-    <mergeCell ref="H180:H185"/>
-    <mergeCell ref="D181:G181"/>
-    <mergeCell ref="D182:G182"/>
-    <mergeCell ref="D183:G183"/>
-    <mergeCell ref="D184:G184"/>
-    <mergeCell ref="D185:G185"/>
-    <mergeCell ref="A186:A191"/>
-    <mergeCell ref="B186:B191"/>
-    <mergeCell ref="C186:C191"/>
-    <mergeCell ref="D186:G186"/>
-    <mergeCell ref="H186:H191"/>
-    <mergeCell ref="D187:G187"/>
-    <mergeCell ref="D188:G188"/>
-    <mergeCell ref="D189:G189"/>
-    <mergeCell ref="D190:G190"/>
-    <mergeCell ref="D191:G191"/>
-    <mergeCell ref="A192:A197"/>
-    <mergeCell ref="B192:B197"/>
-    <mergeCell ref="C192:C197"/>
-    <mergeCell ref="D192:G192"/>
-    <mergeCell ref="H192:H197"/>
-    <mergeCell ref="D193:G193"/>
-    <mergeCell ref="D194:G194"/>
-    <mergeCell ref="D195:G195"/>
-    <mergeCell ref="D196:G196"/>
-    <mergeCell ref="D197:G197"/>
-    <mergeCell ref="A198:A203"/>
-    <mergeCell ref="B198:B203"/>
-    <mergeCell ref="C198:C203"/>
-    <mergeCell ref="D198:G198"/>
-    <mergeCell ref="H198:H203"/>
-    <mergeCell ref="D199:G199"/>
-    <mergeCell ref="D200:G200"/>
-    <mergeCell ref="D201:G201"/>
-    <mergeCell ref="D202:G202"/>
-    <mergeCell ref="D203:G203"/>
-    <mergeCell ref="A204:A209"/>
-    <mergeCell ref="B204:B209"/>
-    <mergeCell ref="C204:C209"/>
-    <mergeCell ref="D204:G204"/>
-    <mergeCell ref="H204:H209"/>
-    <mergeCell ref="D205:G205"/>
-    <mergeCell ref="D206:G206"/>
-    <mergeCell ref="D207:G207"/>
-    <mergeCell ref="D208:G208"/>
-    <mergeCell ref="D209:G209"/>
-    <mergeCell ref="A210:A215"/>
-    <mergeCell ref="B210:B215"/>
-    <mergeCell ref="C210:C215"/>
-    <mergeCell ref="D210:G210"/>
-    <mergeCell ref="H210:H215"/>
-    <mergeCell ref="D211:G211"/>
-    <mergeCell ref="D212:G212"/>
-    <mergeCell ref="D213:G213"/>
-    <mergeCell ref="D214:G214"/>
-    <mergeCell ref="D215:G215"/>
-    <mergeCell ref="A216:A221"/>
-    <mergeCell ref="B216:B221"/>
-    <mergeCell ref="C216:C221"/>
-    <mergeCell ref="D216:G216"/>
-    <mergeCell ref="H216:H221"/>
-    <mergeCell ref="D217:G217"/>
-    <mergeCell ref="D218:G218"/>
-    <mergeCell ref="D219:G219"/>
-    <mergeCell ref="D220:G220"/>
-    <mergeCell ref="D221:G221"/>
-    <mergeCell ref="A222:A227"/>
-    <mergeCell ref="B222:B227"/>
-    <mergeCell ref="C222:C227"/>
-    <mergeCell ref="D222:G222"/>
-    <mergeCell ref="H222:H227"/>
-    <mergeCell ref="D223:G223"/>
-    <mergeCell ref="D224:G224"/>
-    <mergeCell ref="D225:G225"/>
-    <mergeCell ref="D226:G226"/>
-    <mergeCell ref="D227:G227"/>
-    <mergeCell ref="A228:A233"/>
-    <mergeCell ref="B228:B233"/>
-    <mergeCell ref="C228:C233"/>
-    <mergeCell ref="D228:G228"/>
-    <mergeCell ref="H228:H233"/>
-    <mergeCell ref="D229:G229"/>
-    <mergeCell ref="D230:G230"/>
-    <mergeCell ref="D231:G231"/>
-    <mergeCell ref="D232:G232"/>
-    <mergeCell ref="D233:G233"/>
-    <mergeCell ref="A234:A239"/>
-    <mergeCell ref="B234:B239"/>
-    <mergeCell ref="C234:C239"/>
-    <mergeCell ref="D234:G234"/>
-    <mergeCell ref="H234:H239"/>
-    <mergeCell ref="D235:G235"/>
-    <mergeCell ref="D236:G236"/>
-    <mergeCell ref="D237:G237"/>
-    <mergeCell ref="D238:G238"/>
-    <mergeCell ref="D239:G239"/>
-    <mergeCell ref="A240:A245"/>
-    <mergeCell ref="B240:B245"/>
-    <mergeCell ref="C240:C245"/>
-    <mergeCell ref="D240:G240"/>
-    <mergeCell ref="H240:H245"/>
-    <mergeCell ref="D241:G241"/>
-    <mergeCell ref="D242:G242"/>
-    <mergeCell ref="D243:G243"/>
-    <mergeCell ref="D244:G244"/>
-    <mergeCell ref="D245:G245"/>
-    <mergeCell ref="E255:G259"/>
-    <mergeCell ref="E260:G260"/>
-    <mergeCell ref="E261:F261"/>
-    <mergeCell ref="E262:F262"/>
-    <mergeCell ref="A246:A251"/>
-    <mergeCell ref="B246:B251"/>
-    <mergeCell ref="C246:C251"/>
-    <mergeCell ref="D246:G246"/>
-    <mergeCell ref="H246:H251"/>
-    <mergeCell ref="D247:G247"/>
-    <mergeCell ref="D248:G248"/>
-    <mergeCell ref="D249:G249"/>
-    <mergeCell ref="D250:G250"/>
-    <mergeCell ref="D251:G251"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>

--- a/public/reportTemplates/plantilla_ped_excel.xlsx
+++ b/public/reportTemplates/plantilla_ped_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Laravel\PRUEBAS\panda-cinda-back\public\reportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C57BEB2-CF9D-4599-BB41-FD1FA4762288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F50AA1-4C4E-46D2-8DC5-6D47C9CCCA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>EVOLUCIÓN DIARIA</t>
   </si>
@@ -57,13 +57,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t xml:space="preserve">FECHA DE NACIMIENTO: 03 - 09 2011 </t>
-  </si>
-  <si>
     <t xml:space="preserve">AMPLIFICACIÓN: </t>
-  </si>
-  <si>
-    <t>Implante Coclear bilateral Neurelec</t>
   </si>
   <si>
     <t>FECHA INICIAL DE AMPLIFICACIÓN:</t>
@@ -95,6 +89,9 @@
   <si>
     <t>FIRMA DEL PROFESIONAL</t>
   </si>
+  <si>
+    <t>FECHA DE NACIMIENTO:</t>
+  </si>
 </sst>
 </file>
 
@@ -104,7 +101,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="d\-m\-yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -166,6 +163,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -310,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -345,38 +349,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -393,14 +375,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -411,11 +387,44 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,7 +791,7 @@
   <dimension ref="A1:Z985"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:G10"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,14 +806,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
       <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
@@ -829,12 +838,12 @@
       <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="6" t="s">
         <v>2</v>
       </c>
@@ -859,12 +868,12 @@
       <c r="Z2" s="5"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
@@ -889,12 +898,12 @@
       <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
@@ -926,8 +935,8 @@
       <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="8" t="s">
         <v>7</v>
       </c>
@@ -953,17 +962,17 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="9" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -984,23 +993,21 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -1020,14 +1027,14 @@
     </row>
     <row r="8" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -1049,18 +1056,18 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
-        <v>14</v>
+      <c r="A9" s="29" t="s">
+        <v>12</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -1079,15 +1086,15 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
-        <v>15</v>
+      <c r="A10" s="35" t="s">
+        <v>13</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="4"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -1110,20 +1117,20 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="D11" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -1145,16 +1152,16 @@
       <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29">
+      <c r="A12" s="23">
         <v>1</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -1175,14 +1182,14 @@
       <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -1203,14 +1210,14 @@
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1231,14 +1238,14 @@
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1259,14 +1266,14 @@
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -1287,14 +1294,14 @@
       <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1315,16 +1322,16 @@
       <c r="Z17" s="5"/>
     </row>
     <row r="18" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29">
+      <c r="A18" s="23">
         <v>2</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1345,14 +1352,14 @@
       <c r="Z18" s="5"/>
     </row>
     <row r="19" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1373,14 +1380,14 @@
       <c r="Z19" s="5"/>
     </row>
     <row r="20" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -1401,14 +1408,14 @@
       <c r="Z20" s="5"/>
     </row>
     <row r="21" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="33"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -1429,14 +1436,14 @@
       <c r="Z21" s="5"/>
     </row>
     <row r="22" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="33"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -1457,14 +1464,14 @@
       <c r="Z22" s="5"/>
     </row>
     <row r="23" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -1485,16 +1492,16 @@
       <c r="Z23" s="5"/>
     </row>
     <row r="24" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29">
+      <c r="A24" s="23">
         <v>3</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="33"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -1515,14 +1522,14 @@
       <c r="Z24" s="5"/>
     </row>
     <row r="25" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="33"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -1543,14 +1550,14 @@
       <c r="Z25" s="5"/>
     </row>
     <row r="26" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -1571,14 +1578,14 @@
       <c r="Z26" s="5"/>
     </row>
     <row r="27" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -1599,14 +1606,14 @@
       <c r="Z27" s="5"/>
     </row>
     <row r="28" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1627,14 +1634,14 @@
       <c r="Z28" s="5"/>
     </row>
     <row r="29" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -1655,16 +1662,16 @@
       <c r="Z29" s="5"/>
     </row>
     <row r="30" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29">
+      <c r="A30" s="23">
         <v>4</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -1685,14 +1692,14 @@
       <c r="Z30" s="5"/>
     </row>
     <row r="31" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -1713,14 +1720,14 @@
       <c r="Z31" s="5"/>
     </row>
     <row r="32" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -1741,14 +1748,14 @@
       <c r="Z32" s="5"/>
     </row>
     <row r="33" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -1769,14 +1776,14 @@
       <c r="Z33" s="5"/>
     </row>
     <row r="34" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="33"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -1797,14 +1804,14 @@
       <c r="Z34" s="5"/>
     </row>
     <row r="35" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="33"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -1825,16 +1832,16 @@
       <c r="Z35" s="5"/>
     </row>
     <row r="36" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29">
+      <c r="A36" s="23">
         <v>5</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -1855,14 +1862,14 @@
       <c r="Z36" s="5"/>
     </row>
     <row r="37" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="33"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -1883,14 +1890,14 @@
       <c r="Z37" s="5"/>
     </row>
     <row r="38" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="33"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -1911,14 +1918,14 @@
       <c r="Z38" s="5"/>
     </row>
     <row r="39" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="33"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -1939,14 +1946,14 @@
       <c r="Z39" s="5"/>
     </row>
     <row r="40" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="33"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -1967,14 +1974,14 @@
       <c r="Z40" s="5"/>
     </row>
     <row r="41" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="33"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="27"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -1995,16 +2002,16 @@
       <c r="Z41" s="5"/>
     </row>
     <row r="42" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="29">
+      <c r="A42" s="23">
         <v>6</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="33"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="27"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -2025,14 +2032,14 @@
       <c r="Z42" s="5"/>
     </row>
     <row r="43" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="33"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="27"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -2053,14 +2060,14 @@
       <c r="Z43" s="5"/>
     </row>
     <row r="44" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="29"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="33"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -2081,14 +2088,14 @@
       <c r="Z44" s="5"/>
     </row>
     <row r="45" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="29"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="33"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
@@ -2109,14 +2116,14 @@
       <c r="Z45" s="5"/>
     </row>
     <row r="46" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="29"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="33"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
@@ -2134,14 +2141,14 @@
       <c r="Z46" s="5"/>
     </row>
     <row r="47" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="29"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="33"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
@@ -2159,16 +2166,16 @@
       <c r="Z47" s="5"/>
     </row>
     <row r="48" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29">
+      <c r="A48" s="23">
         <v>7</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="33"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -2189,14 +2196,14 @@
       <c r="Z48" s="5"/>
     </row>
     <row r="49" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="33"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="27"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -2217,14 +2224,14 @@
       <c r="Z49" s="5"/>
     </row>
     <row r="50" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="29"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="33"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -2245,14 +2252,14 @@
       <c r="Z50" s="5"/>
     </row>
     <row r="51" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="29"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="33"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="27"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -2273,14 +2280,14 @@
       <c r="Z51" s="5"/>
     </row>
     <row r="52" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="29"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="33"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="27"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -2301,14 +2308,14 @@
       <c r="Z52" s="5"/>
     </row>
     <row r="53" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="29"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="33"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="27"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
@@ -2329,16 +2336,16 @@
       <c r="Z53" s="5"/>
     </row>
     <row r="54" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="29">
+      <c r="A54" s="23">
         <v>8</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="33"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="27"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -2359,14 +2366,14 @@
       <c r="Z54" s="5"/>
     </row>
     <row r="55" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="29"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="33"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="27"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
@@ -2387,14 +2394,14 @@
       <c r="Z55" s="5"/>
     </row>
     <row r="56" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="29"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="33"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="27"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
@@ -2415,14 +2422,14 @@
       <c r="Z56" s="5"/>
     </row>
     <row r="57" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="29"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="33"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="27"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
@@ -2443,14 +2450,14 @@
       <c r="Z57" s="5"/>
     </row>
     <row r="58" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="29"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="33"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="27"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
@@ -2471,14 +2478,14 @@
       <c r="Z58" s="5"/>
     </row>
     <row r="59" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="29"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="33"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="27"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
@@ -2499,16 +2506,16 @@
       <c r="Z59" s="5"/>
     </row>
     <row r="60" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="29">
+      <c r="A60" s="23">
         <v>9</v>
       </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="33"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="27"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
@@ -2529,14 +2536,14 @@
       <c r="Z60" s="5"/>
     </row>
     <row r="61" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="29"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="33"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="27"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
@@ -2557,14 +2564,14 @@
       <c r="Z61" s="5"/>
     </row>
     <row r="62" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="29"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="33"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="27"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
@@ -2585,14 +2592,14 @@
       <c r="Z62" s="5"/>
     </row>
     <row r="63" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="29"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="33"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="27"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
@@ -2613,14 +2620,14 @@
       <c r="Z63" s="5"/>
     </row>
     <row r="64" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="29"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="33"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="27"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
@@ -2641,14 +2648,14 @@
       <c r="Z64" s="5"/>
     </row>
     <row r="65" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="29"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="33"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="27"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
@@ -2669,16 +2676,16 @@
       <c r="Z65" s="5"/>
     </row>
     <row r="66" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="29">
+      <c r="A66" s="23">
         <v>10</v>
       </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="33"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="27"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
@@ -2699,14 +2706,14 @@
       <c r="Z66" s="5"/>
     </row>
     <row r="67" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="29"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="33"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="27"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
@@ -2727,14 +2734,14 @@
       <c r="Z67" s="5"/>
     </row>
     <row r="68" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="29"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="33"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="27"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
@@ -2755,14 +2762,14 @@
       <c r="Z68" s="5"/>
     </row>
     <row r="69" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="29"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="33"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="27"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
@@ -2783,14 +2790,14 @@
       <c r="Z69" s="5"/>
     </row>
     <row r="70" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="29"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="33"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="27"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
@@ -2811,14 +2818,14 @@
       <c r="Z70" s="5"/>
     </row>
     <row r="71" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="29"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="33"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="27"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
@@ -2839,16 +2846,16 @@
       <c r="Z71" s="5"/>
     </row>
     <row r="72" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="29">
+      <c r="A72" s="23">
         <v>11</v>
       </c>
-      <c r="B72" s="30"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="33"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="27"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
@@ -2869,14 +2876,14 @@
       <c r="Z72" s="5"/>
     </row>
     <row r="73" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="29"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="33"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="27"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
@@ -2897,14 +2904,14 @@
       <c r="Z73" s="5"/>
     </row>
     <row r="74" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="29"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="33"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="27"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
@@ -2925,14 +2932,14 @@
       <c r="Z74" s="5"/>
     </row>
     <row r="75" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="29"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="33"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="27"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
@@ -2953,14 +2960,14 @@
       <c r="Z75" s="5"/>
     </row>
     <row r="76" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="29"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="32"/>
-      <c r="G76" s="32"/>
-      <c r="H76" s="33"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="27"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
@@ -2981,14 +2988,14 @@
       <c r="Z76" s="5"/>
     </row>
     <row r="77" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="29"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="33"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="27"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
@@ -3009,16 +3016,16 @@
       <c r="Z77" s="5"/>
     </row>
     <row r="78" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="29">
+      <c r="A78" s="23">
         <v>12</v>
       </c>
-      <c r="B78" s="30"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="33"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="27"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
@@ -3039,14 +3046,14 @@
       <c r="Z78" s="5"/>
     </row>
     <row r="79" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="29"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="33"/>
+      <c r="A79" s="23"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="27"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
@@ -3067,14 +3074,14 @@
       <c r="Z79" s="5"/>
     </row>
     <row r="80" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="29"/>
-      <c r="B80" s="30"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="33"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="27"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
@@ -3095,14 +3102,14 @@
       <c r="Z80" s="5"/>
     </row>
     <row r="81" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="29"/>
-      <c r="B81" s="30"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="32"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="33"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="27"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
@@ -3123,14 +3130,14 @@
       <c r="Z81" s="5"/>
     </row>
     <row r="82" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="29"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="33"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="27"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
@@ -3151,14 +3158,14 @@
       <c r="Z82" s="5"/>
     </row>
     <row r="83" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="29"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="33"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="27"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
@@ -3179,16 +3186,16 @@
       <c r="Z83" s="5"/>
     </row>
     <row r="84" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="29">
+      <c r="A84" s="23">
         <v>13</v>
       </c>
-      <c r="B84" s="30"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="33"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="27"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
@@ -3209,14 +3216,14 @@
       <c r="Z84" s="5"/>
     </row>
     <row r="85" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="29"/>
-      <c r="B85" s="30"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="33"/>
+      <c r="A85" s="23"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="27"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
@@ -3237,14 +3244,14 @@
       <c r="Z85" s="5"/>
     </row>
     <row r="86" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="29"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="33"/>
+      <c r="A86" s="23"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="27"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
@@ -3265,14 +3272,14 @@
       <c r="Z86" s="5"/>
     </row>
     <row r="87" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="29"/>
-      <c r="B87" s="30"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="33"/>
+      <c r="A87" s="23"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="27"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
@@ -3293,14 +3300,14 @@
       <c r="Z87" s="5"/>
     </row>
     <row r="88" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="29"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="33"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="27"/>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
@@ -3321,14 +3328,14 @@
       <c r="Z88" s="5"/>
     </row>
     <row r="89" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="29"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="33"/>
+      <c r="A89" s="23"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="27"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
@@ -3349,16 +3356,16 @@
       <c r="Z89" s="5"/>
     </row>
     <row r="90" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="29">
+      <c r="A90" s="23">
         <v>14</v>
       </c>
-      <c r="B90" s="30"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="32"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="33"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="27"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
@@ -3379,14 +3386,14 @@
       <c r="Z90" s="5"/>
     </row>
     <row r="91" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="29"/>
-      <c r="B91" s="30"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="33"/>
+      <c r="A91" s="23"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="27"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
@@ -3407,14 +3414,14 @@
       <c r="Z91" s="5"/>
     </row>
     <row r="92" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="29"/>
-      <c r="B92" s="30"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="32"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="33"/>
+      <c r="A92" s="23"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="27"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
@@ -3435,14 +3442,14 @@
       <c r="Z92" s="5"/>
     </row>
     <row r="93" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="29"/>
-      <c r="B93" s="30"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="32"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="33"/>
+      <c r="A93" s="23"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="27"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
@@ -3463,14 +3470,14 @@
       <c r="Z93" s="5"/>
     </row>
     <row r="94" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="29"/>
-      <c r="B94" s="30"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="33"/>
+      <c r="A94" s="23"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="27"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
@@ -3491,14 +3498,14 @@
       <c r="Z94" s="5"/>
     </row>
     <row r="95" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="29"/>
-      <c r="B95" s="30"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="32"/>
-      <c r="G95" s="32"/>
-      <c r="H95" s="33"/>
+      <c r="A95" s="23"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="27"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
@@ -3519,16 +3526,16 @@
       <c r="Z95" s="5"/>
     </row>
     <row r="96" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="29">
+      <c r="A96" s="23">
         <v>15</v>
       </c>
-      <c r="B96" s="30"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="32"/>
-      <c r="G96" s="32"/>
-      <c r="H96" s="33"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="27"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
@@ -3549,14 +3556,14 @@
       <c r="Z96" s="5"/>
     </row>
     <row r="97" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="29"/>
-      <c r="B97" s="30"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="32"/>
-      <c r="F97" s="32"/>
-      <c r="G97" s="32"/>
-      <c r="H97" s="33"/>
+      <c r="A97" s="23"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="27"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
@@ -3577,14 +3584,14 @@
       <c r="Z97" s="5"/>
     </row>
     <row r="98" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="29"/>
-      <c r="B98" s="30"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="32"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="33"/>
+      <c r="A98" s="23"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="27"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -3605,14 +3612,14 @@
       <c r="Z98" s="5"/>
     </row>
     <row r="99" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="29"/>
-      <c r="B99" s="30"/>
-      <c r="C99" s="31"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="32"/>
-      <c r="F99" s="32"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="33"/>
+      <c r="A99" s="23"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="27"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -3633,14 +3640,14 @@
       <c r="Z99" s="5"/>
     </row>
     <row r="100" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="29"/>
-      <c r="B100" s="30"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="32"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="33"/>
+      <c r="A100" s="23"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="27"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
@@ -3661,14 +3668,14 @@
       <c r="Z100" s="5"/>
     </row>
     <row r="101" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="29"/>
-      <c r="B101" s="30"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="32"/>
-      <c r="F101" s="32"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="33"/>
+      <c r="A101" s="23"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="27"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
@@ -3689,16 +3696,16 @@
       <c r="Z101" s="5"/>
     </row>
     <row r="102" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="29">
+      <c r="A102" s="23">
         <v>16</v>
       </c>
-      <c r="B102" s="30"/>
-      <c r="C102" s="31"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="33"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="27"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
@@ -3719,14 +3726,14 @@
       <c r="Z102" s="5"/>
     </row>
     <row r="103" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="29"/>
-      <c r="B103" s="30"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="32"/>
-      <c r="G103" s="32"/>
-      <c r="H103" s="33"/>
+      <c r="A103" s="23"/>
+      <c r="B103" s="24"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="27"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
@@ -3747,14 +3754,14 @@
       <c r="Z103" s="5"/>
     </row>
     <row r="104" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="29"/>
-      <c r="B104" s="30"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="32"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="33"/>
+      <c r="A104" s="23"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="27"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
@@ -3775,14 +3782,14 @@
       <c r="Z104" s="5"/>
     </row>
     <row r="105" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="29"/>
-      <c r="B105" s="30"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="32"/>
-      <c r="G105" s="32"/>
-      <c r="H105" s="33"/>
+      <c r="A105" s="23"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="26"/>
+      <c r="G105" s="26"/>
+      <c r="H105" s="27"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
@@ -3803,14 +3810,14 @@
       <c r="Z105" s="5"/>
     </row>
     <row r="106" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="29"/>
-      <c r="B106" s="30"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="32"/>
-      <c r="E106" s="32"/>
-      <c r="F106" s="32"/>
-      <c r="G106" s="32"/>
-      <c r="H106" s="33"/>
+      <c r="A106" s="23"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="27"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
@@ -3831,14 +3838,14 @@
       <c r="Z106" s="5"/>
     </row>
     <row r="107" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="29"/>
-      <c r="B107" s="30"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="32"/>
-      <c r="E107" s="32"/>
-      <c r="F107" s="32"/>
-      <c r="G107" s="32"/>
-      <c r="H107" s="33"/>
+      <c r="A107" s="23"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="27"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
@@ -3859,16 +3866,16 @@
       <c r="Z107" s="5"/>
     </row>
     <row r="108" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="29">
+      <c r="A108" s="23">
         <v>17</v>
       </c>
-      <c r="B108" s="30"/>
-      <c r="C108" s="31"/>
-      <c r="D108" s="32"/>
-      <c r="E108" s="32"/>
-      <c r="F108" s="32"/>
-      <c r="G108" s="32"/>
-      <c r="H108" s="33"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="26"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="27"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
@@ -3889,14 +3896,14 @@
       <c r="Z108" s="5"/>
     </row>
     <row r="109" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="29"/>
-      <c r="B109" s="30"/>
-      <c r="C109" s="31"/>
-      <c r="D109" s="32"/>
-      <c r="E109" s="32"/>
-      <c r="F109" s="32"/>
-      <c r="G109" s="32"/>
-      <c r="H109" s="33"/>
+      <c r="A109" s="23"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="26"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="27"/>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
@@ -3917,14 +3924,14 @@
       <c r="Z109" s="5"/>
     </row>
     <row r="110" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="29"/>
-      <c r="B110" s="30"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="32"/>
-      <c r="E110" s="32"/>
-      <c r="F110" s="32"/>
-      <c r="G110" s="32"/>
-      <c r="H110" s="33"/>
+      <c r="A110" s="23"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="27"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
@@ -3945,14 +3952,14 @@
       <c r="Z110" s="5"/>
     </row>
     <row r="111" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="29"/>
-      <c r="B111" s="30"/>
-      <c r="C111" s="31"/>
-      <c r="D111" s="32"/>
-      <c r="E111" s="32"/>
-      <c r="F111" s="32"/>
-      <c r="G111" s="32"/>
-      <c r="H111" s="33"/>
+      <c r="A111" s="23"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="27"/>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
@@ -3973,14 +3980,14 @@
       <c r="Z111" s="5"/>
     </row>
     <row r="112" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="29"/>
-      <c r="B112" s="30"/>
-      <c r="C112" s="31"/>
-      <c r="D112" s="32"/>
-      <c r="E112" s="32"/>
-      <c r="F112" s="32"/>
-      <c r="G112" s="32"/>
-      <c r="H112" s="33"/>
+      <c r="A112" s="23"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="26"/>
+      <c r="H112" s="27"/>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
@@ -4001,14 +4008,14 @@
       <c r="Z112" s="5"/>
     </row>
     <row r="113" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="29"/>
-      <c r="B113" s="30"/>
-      <c r="C113" s="31"/>
-      <c r="D113" s="32"/>
-      <c r="E113" s="32"/>
-      <c r="F113" s="32"/>
-      <c r="G113" s="32"/>
-      <c r="H113" s="33"/>
+      <c r="A113" s="23"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="26"/>
+      <c r="G113" s="26"/>
+      <c r="H113" s="27"/>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
@@ -4029,16 +4036,16 @@
       <c r="Z113" s="5"/>
     </row>
     <row r="114" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="29">
+      <c r="A114" s="23">
         <v>18</v>
       </c>
-      <c r="B114" s="30"/>
-      <c r="C114" s="31"/>
-      <c r="D114" s="32"/>
-      <c r="E114" s="32"/>
-      <c r="F114" s="32"/>
-      <c r="G114" s="32"/>
-      <c r="H114" s="33"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="27"/>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
@@ -4059,14 +4066,14 @@
       <c r="Z114" s="5"/>
     </row>
     <row r="115" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="29"/>
-      <c r="B115" s="30"/>
-      <c r="C115" s="31"/>
-      <c r="D115" s="32"/>
-      <c r="E115" s="32"/>
-      <c r="F115" s="32"/>
-      <c r="G115" s="32"/>
-      <c r="H115" s="33"/>
+      <c r="A115" s="23"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="26"/>
+      <c r="G115" s="26"/>
+      <c r="H115" s="27"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
@@ -4087,14 +4094,14 @@
       <c r="Z115" s="5"/>
     </row>
     <row r="116" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="29"/>
-      <c r="B116" s="30"/>
-      <c r="C116" s="31"/>
-      <c r="D116" s="32"/>
-      <c r="E116" s="32"/>
-      <c r="F116" s="32"/>
-      <c r="G116" s="32"/>
-      <c r="H116" s="33"/>
+      <c r="A116" s="23"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="26"/>
+      <c r="G116" s="26"/>
+      <c r="H116" s="27"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
@@ -4115,14 +4122,14 @@
       <c r="Z116" s="5"/>
     </row>
     <row r="117" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="29"/>
-      <c r="B117" s="30"/>
-      <c r="C117" s="31"/>
-      <c r="D117" s="32"/>
-      <c r="E117" s="32"/>
-      <c r="F117" s="32"/>
-      <c r="G117" s="32"/>
-      <c r="H117" s="33"/>
+      <c r="A117" s="23"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="27"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
@@ -4143,14 +4150,14 @@
       <c r="Z117" s="5"/>
     </row>
     <row r="118" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="29"/>
-      <c r="B118" s="30"/>
-      <c r="C118" s="31"/>
-      <c r="D118" s="32"/>
-      <c r="E118" s="32"/>
-      <c r="F118" s="32"/>
-      <c r="G118" s="32"/>
-      <c r="H118" s="33"/>
+      <c r="A118" s="23"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="26"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="26"/>
+      <c r="G118" s="26"/>
+      <c r="H118" s="27"/>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
@@ -4171,14 +4178,14 @@
       <c r="Z118" s="5"/>
     </row>
     <row r="119" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="29"/>
-      <c r="B119" s="30"/>
-      <c r="C119" s="31"/>
-      <c r="D119" s="32"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="32"/>
-      <c r="G119" s="32"/>
-      <c r="H119" s="33"/>
+      <c r="A119" s="23"/>
+      <c r="B119" s="24"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="26"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="26"/>
+      <c r="G119" s="26"/>
+      <c r="H119" s="27"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
@@ -4199,16 +4206,16 @@
       <c r="Z119" s="5"/>
     </row>
     <row r="120" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="29">
+      <c r="A120" s="23">
         <v>19</v>
       </c>
-      <c r="B120" s="30"/>
-      <c r="C120" s="31"/>
-      <c r="D120" s="32"/>
-      <c r="E120" s="32"/>
-      <c r="F120" s="32"/>
-      <c r="G120" s="32"/>
-      <c r="H120" s="33"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="26"/>
+      <c r="G120" s="26"/>
+      <c r="H120" s="27"/>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
@@ -4229,14 +4236,14 @@
       <c r="Z120" s="5"/>
     </row>
     <row r="121" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="29"/>
-      <c r="B121" s="30"/>
-      <c r="C121" s="31"/>
-      <c r="D121" s="32"/>
-      <c r="E121" s="32"/>
-      <c r="F121" s="32"/>
-      <c r="G121" s="32"/>
-      <c r="H121" s="33"/>
+      <c r="A121" s="23"/>
+      <c r="B121" s="24"/>
+      <c r="C121" s="25"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="26"/>
+      <c r="G121" s="26"/>
+      <c r="H121" s="27"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
@@ -4257,14 +4264,14 @@
       <c r="Z121" s="5"/>
     </row>
     <row r="122" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="29"/>
-      <c r="B122" s="30"/>
-      <c r="C122" s="31"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="32"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="33"/>
+      <c r="A122" s="23"/>
+      <c r="B122" s="24"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="26"/>
+      <c r="G122" s="26"/>
+      <c r="H122" s="27"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
@@ -4285,14 +4292,14 @@
       <c r="Z122" s="5"/>
     </row>
     <row r="123" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="29"/>
-      <c r="B123" s="30"/>
-      <c r="C123" s="31"/>
-      <c r="D123" s="32"/>
-      <c r="E123" s="32"/>
-      <c r="F123" s="32"/>
-      <c r="G123" s="32"/>
-      <c r="H123" s="33"/>
+      <c r="A123" s="23"/>
+      <c r="B123" s="24"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="26"/>
+      <c r="G123" s="26"/>
+      <c r="H123" s="27"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
@@ -4313,14 +4320,14 @@
       <c r="Z123" s="5"/>
     </row>
     <row r="124" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="29"/>
-      <c r="B124" s="30"/>
-      <c r="C124" s="31"/>
-      <c r="D124" s="32"/>
-      <c r="E124" s="32"/>
-      <c r="F124" s="32"/>
-      <c r="G124" s="32"/>
-      <c r="H124" s="33"/>
+      <c r="A124" s="23"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="25"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="26"/>
+      <c r="G124" s="26"/>
+      <c r="H124" s="27"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
@@ -4341,14 +4348,14 @@
       <c r="Z124" s="5"/>
     </row>
     <row r="125" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="29"/>
-      <c r="B125" s="30"/>
-      <c r="C125" s="31"/>
-      <c r="D125" s="32"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="32"/>
-      <c r="G125" s="32"/>
-      <c r="H125" s="33"/>
+      <c r="A125" s="23"/>
+      <c r="B125" s="24"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="26"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="26"/>
+      <c r="G125" s="26"/>
+      <c r="H125" s="27"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
@@ -4369,16 +4376,16 @@
       <c r="Z125" s="5"/>
     </row>
     <row r="126" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="29">
+      <c r="A126" s="23">
         <v>20</v>
       </c>
-      <c r="B126" s="30"/>
-      <c r="C126" s="31"/>
-      <c r="D126" s="32"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="32"/>
-      <c r="G126" s="32"/>
-      <c r="H126" s="33"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="26"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="26"/>
+      <c r="G126" s="26"/>
+      <c r="H126" s="27"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
@@ -4399,14 +4406,14 @@
       <c r="Z126" s="5"/>
     </row>
     <row r="127" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="29"/>
-      <c r="B127" s="30"/>
-      <c r="C127" s="31"/>
-      <c r="D127" s="32"/>
-      <c r="E127" s="32"/>
-      <c r="F127" s="32"/>
-      <c r="G127" s="32"/>
-      <c r="H127" s="33"/>
+      <c r="A127" s="23"/>
+      <c r="B127" s="24"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="26"/>
+      <c r="E127" s="26"/>
+      <c r="F127" s="26"/>
+      <c r="G127" s="26"/>
+      <c r="H127" s="27"/>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
@@ -4427,14 +4434,14 @@
       <c r="Z127" s="5"/>
     </row>
     <row r="128" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="29"/>
-      <c r="B128" s="30"/>
-      <c r="C128" s="31"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="32"/>
-      <c r="G128" s="32"/>
-      <c r="H128" s="33"/>
+      <c r="A128" s="23"/>
+      <c r="B128" s="24"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="26"/>
+      <c r="E128" s="26"/>
+      <c r="F128" s="26"/>
+      <c r="G128" s="26"/>
+      <c r="H128" s="27"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
@@ -4455,14 +4462,14 @@
       <c r="Z128" s="5"/>
     </row>
     <row r="129" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="29"/>
-      <c r="B129" s="30"/>
-      <c r="C129" s="31"/>
-      <c r="D129" s="32"/>
-      <c r="E129" s="32"/>
-      <c r="F129" s="32"/>
-      <c r="G129" s="32"/>
-      <c r="H129" s="33"/>
+      <c r="A129" s="23"/>
+      <c r="B129" s="24"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="27"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
@@ -4483,14 +4490,14 @@
       <c r="Z129" s="5"/>
     </row>
     <row r="130" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="29"/>
-      <c r="B130" s="30"/>
-      <c r="C130" s="31"/>
-      <c r="D130" s="32"/>
-      <c r="E130" s="32"/>
-      <c r="F130" s="32"/>
-      <c r="G130" s="32"/>
-      <c r="H130" s="33"/>
+      <c r="A130" s="23"/>
+      <c r="B130" s="24"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="26"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="26"/>
+      <c r="G130" s="26"/>
+      <c r="H130" s="27"/>
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
@@ -4511,14 +4518,14 @@
       <c r="Z130" s="5"/>
     </row>
     <row r="131" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="29"/>
-      <c r="B131" s="30"/>
-      <c r="C131" s="31"/>
-      <c r="D131" s="32"/>
-      <c r="E131" s="32"/>
-      <c r="F131" s="32"/>
-      <c r="G131" s="32"/>
-      <c r="H131" s="33"/>
+      <c r="A131" s="23"/>
+      <c r="B131" s="24"/>
+      <c r="C131" s="25"/>
+      <c r="D131" s="26"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="26"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="27"/>
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
@@ -4539,16 +4546,16 @@
       <c r="Z131" s="5"/>
     </row>
     <row r="132" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="29">
+      <c r="A132" s="23">
         <v>21</v>
       </c>
-      <c r="B132" s="30"/>
-      <c r="C132" s="31"/>
-      <c r="D132" s="32"/>
-      <c r="E132" s="32"/>
-      <c r="F132" s="32"/>
-      <c r="G132" s="32"/>
-      <c r="H132" s="33"/>
+      <c r="B132" s="24"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="26"/>
+      <c r="E132" s="26"/>
+      <c r="F132" s="26"/>
+      <c r="G132" s="26"/>
+      <c r="H132" s="27"/>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
@@ -4569,14 +4576,14 @@
       <c r="Z132" s="5"/>
     </row>
     <row r="133" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="29"/>
-      <c r="B133" s="30"/>
-      <c r="C133" s="31"/>
-      <c r="D133" s="32"/>
-      <c r="E133" s="32"/>
-      <c r="F133" s="32"/>
-      <c r="G133" s="32"/>
-      <c r="H133" s="33"/>
+      <c r="A133" s="23"/>
+      <c r="B133" s="24"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="26"/>
+      <c r="E133" s="26"/>
+      <c r="F133" s="26"/>
+      <c r="G133" s="26"/>
+      <c r="H133" s="27"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
@@ -4597,14 +4604,14 @@
       <c r="Z133" s="5"/>
     </row>
     <row r="134" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="29"/>
-      <c r="B134" s="30"/>
-      <c r="C134" s="31"/>
-      <c r="D134" s="32"/>
-      <c r="E134" s="32"/>
-      <c r="F134" s="32"/>
-      <c r="G134" s="32"/>
-      <c r="H134" s="33"/>
+      <c r="A134" s="23"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="25"/>
+      <c r="D134" s="26"/>
+      <c r="E134" s="26"/>
+      <c r="F134" s="26"/>
+      <c r="G134" s="26"/>
+      <c r="H134" s="27"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
@@ -4625,14 +4632,14 @@
       <c r="Z134" s="5"/>
     </row>
     <row r="135" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="29"/>
-      <c r="B135" s="30"/>
-      <c r="C135" s="31"/>
-      <c r="D135" s="32"/>
-      <c r="E135" s="32"/>
-      <c r="F135" s="32"/>
-      <c r="G135" s="32"/>
-      <c r="H135" s="33"/>
+      <c r="A135" s="23"/>
+      <c r="B135" s="24"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="26"/>
+      <c r="E135" s="26"/>
+      <c r="F135" s="26"/>
+      <c r="G135" s="26"/>
+      <c r="H135" s="27"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
@@ -4653,14 +4660,14 @@
       <c r="Z135" s="5"/>
     </row>
     <row r="136" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="29"/>
-      <c r="B136" s="30"/>
-      <c r="C136" s="31"/>
-      <c r="D136" s="32"/>
-      <c r="E136" s="32"/>
-      <c r="F136" s="32"/>
-      <c r="G136" s="32"/>
-      <c r="H136" s="33"/>
+      <c r="A136" s="23"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="26"/>
+      <c r="E136" s="26"/>
+      <c r="F136" s="26"/>
+      <c r="G136" s="26"/>
+      <c r="H136" s="27"/>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
       <c r="K136" s="5"/>
@@ -4681,14 +4688,14 @@
       <c r="Z136" s="5"/>
     </row>
     <row r="137" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="29"/>
-      <c r="B137" s="30"/>
-      <c r="C137" s="31"/>
-      <c r="D137" s="32"/>
-      <c r="E137" s="32"/>
-      <c r="F137" s="32"/>
-      <c r="G137" s="32"/>
-      <c r="H137" s="33"/>
+      <c r="A137" s="23"/>
+      <c r="B137" s="24"/>
+      <c r="C137" s="25"/>
+      <c r="D137" s="26"/>
+      <c r="E137" s="26"/>
+      <c r="F137" s="26"/>
+      <c r="G137" s="26"/>
+      <c r="H137" s="27"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
@@ -4709,16 +4716,16 @@
       <c r="Z137" s="5"/>
     </row>
     <row r="138" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="29">
+      <c r="A138" s="23">
         <v>22</v>
       </c>
-      <c r="B138" s="30"/>
-      <c r="C138" s="31"/>
-      <c r="D138" s="32"/>
-      <c r="E138" s="32"/>
-      <c r="F138" s="32"/>
-      <c r="G138" s="32"/>
-      <c r="H138" s="33"/>
+      <c r="B138" s="24"/>
+      <c r="C138" s="25"/>
+      <c r="D138" s="26"/>
+      <c r="E138" s="26"/>
+      <c r="F138" s="26"/>
+      <c r="G138" s="26"/>
+      <c r="H138" s="27"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
@@ -4739,14 +4746,14 @@
       <c r="Z138" s="5"/>
     </row>
     <row r="139" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="29"/>
-      <c r="B139" s="30"/>
-      <c r="C139" s="31"/>
-      <c r="D139" s="32"/>
-      <c r="E139" s="32"/>
-      <c r="F139" s="32"/>
-      <c r="G139" s="32"/>
-      <c r="H139" s="33"/>
+      <c r="A139" s="23"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="25"/>
+      <c r="D139" s="26"/>
+      <c r="E139" s="26"/>
+      <c r="F139" s="26"/>
+      <c r="G139" s="26"/>
+      <c r="H139" s="27"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
@@ -4767,14 +4774,14 @@
       <c r="Z139" s="5"/>
     </row>
     <row r="140" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="29"/>
-      <c r="B140" s="30"/>
-      <c r="C140" s="31"/>
-      <c r="D140" s="32"/>
-      <c r="E140" s="32"/>
-      <c r="F140" s="32"/>
-      <c r="G140" s="32"/>
-      <c r="H140" s="33"/>
+      <c r="A140" s="23"/>
+      <c r="B140" s="24"/>
+      <c r="C140" s="25"/>
+      <c r="D140" s="26"/>
+      <c r="E140" s="26"/>
+      <c r="F140" s="26"/>
+      <c r="G140" s="26"/>
+      <c r="H140" s="27"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
@@ -4795,14 +4802,14 @@
       <c r="Z140" s="5"/>
     </row>
     <row r="141" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="29"/>
-      <c r="B141" s="30"/>
-      <c r="C141" s="31"/>
-      <c r="D141" s="32"/>
-      <c r="E141" s="32"/>
-      <c r="F141" s="32"/>
-      <c r="G141" s="32"/>
-      <c r="H141" s="33"/>
+      <c r="A141" s="23"/>
+      <c r="B141" s="24"/>
+      <c r="C141" s="25"/>
+      <c r="D141" s="26"/>
+      <c r="E141" s="26"/>
+      <c r="F141" s="26"/>
+      <c r="G141" s="26"/>
+      <c r="H141" s="27"/>
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
@@ -4823,14 +4830,14 @@
       <c r="Z141" s="5"/>
     </row>
     <row r="142" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="29"/>
-      <c r="B142" s="30"/>
-      <c r="C142" s="31"/>
-      <c r="D142" s="32"/>
-      <c r="E142" s="32"/>
-      <c r="F142" s="32"/>
-      <c r="G142" s="32"/>
-      <c r="H142" s="33"/>
+      <c r="A142" s="23"/>
+      <c r="B142" s="24"/>
+      <c r="C142" s="25"/>
+      <c r="D142" s="26"/>
+      <c r="E142" s="26"/>
+      <c r="F142" s="26"/>
+      <c r="G142" s="26"/>
+      <c r="H142" s="27"/>
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
       <c r="K142" s="5"/>
@@ -4851,14 +4858,14 @@
       <c r="Z142" s="5"/>
     </row>
     <row r="143" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="29"/>
-      <c r="B143" s="30"/>
-      <c r="C143" s="31"/>
-      <c r="D143" s="32"/>
-      <c r="E143" s="32"/>
-      <c r="F143" s="32"/>
-      <c r="G143" s="32"/>
-      <c r="H143" s="33"/>
+      <c r="A143" s="23"/>
+      <c r="B143" s="24"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="26"/>
+      <c r="E143" s="26"/>
+      <c r="F143" s="26"/>
+      <c r="G143" s="26"/>
+      <c r="H143" s="27"/>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
       <c r="K143" s="5"/>
@@ -4879,16 +4886,16 @@
       <c r="Z143" s="5"/>
     </row>
     <row r="144" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="29">
+      <c r="A144" s="23">
         <v>23</v>
       </c>
-      <c r="B144" s="30"/>
-      <c r="C144" s="31"/>
-      <c r="D144" s="32"/>
-      <c r="E144" s="32"/>
-      <c r="F144" s="32"/>
-      <c r="G144" s="32"/>
-      <c r="H144" s="33"/>
+      <c r="B144" s="24"/>
+      <c r="C144" s="25"/>
+      <c r="D144" s="26"/>
+      <c r="E144" s="26"/>
+      <c r="F144" s="26"/>
+      <c r="G144" s="26"/>
+      <c r="H144" s="27"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
@@ -4909,14 +4916,14 @@
       <c r="Z144" s="5"/>
     </row>
     <row r="145" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="29"/>
-      <c r="B145" s="30"/>
-      <c r="C145" s="31"/>
-      <c r="D145" s="32"/>
-      <c r="E145" s="32"/>
-      <c r="F145" s="32"/>
-      <c r="G145" s="32"/>
-      <c r="H145" s="33"/>
+      <c r="A145" s="23"/>
+      <c r="B145" s="24"/>
+      <c r="C145" s="25"/>
+      <c r="D145" s="26"/>
+      <c r="E145" s="26"/>
+      <c r="F145" s="26"/>
+      <c r="G145" s="26"/>
+      <c r="H145" s="27"/>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
@@ -4937,14 +4944,14 @@
       <c r="Z145" s="5"/>
     </row>
     <row r="146" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="29"/>
-      <c r="B146" s="30"/>
-      <c r="C146" s="31"/>
-      <c r="D146" s="32"/>
-      <c r="E146" s="32"/>
-      <c r="F146" s="32"/>
-      <c r="G146" s="32"/>
-      <c r="H146" s="33"/>
+      <c r="A146" s="23"/>
+      <c r="B146" s="24"/>
+      <c r="C146" s="25"/>
+      <c r="D146" s="26"/>
+      <c r="E146" s="26"/>
+      <c r="F146" s="26"/>
+      <c r="G146" s="26"/>
+      <c r="H146" s="27"/>
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
@@ -4965,14 +4972,14 @@
       <c r="Z146" s="5"/>
     </row>
     <row r="147" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="29"/>
-      <c r="B147" s="30"/>
-      <c r="C147" s="31"/>
-      <c r="D147" s="32"/>
-      <c r="E147" s="32"/>
-      <c r="F147" s="32"/>
-      <c r="G147" s="32"/>
-      <c r="H147" s="33"/>
+      <c r="A147" s="23"/>
+      <c r="B147" s="24"/>
+      <c r="C147" s="25"/>
+      <c r="D147" s="26"/>
+      <c r="E147" s="26"/>
+      <c r="F147" s="26"/>
+      <c r="G147" s="26"/>
+      <c r="H147" s="27"/>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
@@ -4993,14 +5000,14 @@
       <c r="Z147" s="5"/>
     </row>
     <row r="148" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="29"/>
-      <c r="B148" s="30"/>
-      <c r="C148" s="31"/>
-      <c r="D148" s="32"/>
-      <c r="E148" s="32"/>
-      <c r="F148" s="32"/>
-      <c r="G148" s="32"/>
-      <c r="H148" s="33"/>
+      <c r="A148" s="23"/>
+      <c r="B148" s="24"/>
+      <c r="C148" s="25"/>
+      <c r="D148" s="26"/>
+      <c r="E148" s="26"/>
+      <c r="F148" s="26"/>
+      <c r="G148" s="26"/>
+      <c r="H148" s="27"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
@@ -5021,14 +5028,14 @@
       <c r="Z148" s="5"/>
     </row>
     <row r="149" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="29"/>
-      <c r="B149" s="30"/>
-      <c r="C149" s="31"/>
-      <c r="D149" s="32"/>
-      <c r="E149" s="32"/>
-      <c r="F149" s="32"/>
-      <c r="G149" s="32"/>
-      <c r="H149" s="33"/>
+      <c r="A149" s="23"/>
+      <c r="B149" s="24"/>
+      <c r="C149" s="25"/>
+      <c r="D149" s="26"/>
+      <c r="E149" s="26"/>
+      <c r="F149" s="26"/>
+      <c r="G149" s="26"/>
+      <c r="H149" s="27"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
       <c r="K149" s="5"/>
@@ -5049,16 +5056,16 @@
       <c r="Z149" s="5"/>
     </row>
     <row r="150" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="29">
+      <c r="A150" s="23">
         <v>24</v>
       </c>
-      <c r="B150" s="30"/>
-      <c r="C150" s="31"/>
-      <c r="D150" s="32"/>
-      <c r="E150" s="32"/>
-      <c r="F150" s="32"/>
-      <c r="G150" s="32"/>
-      <c r="H150" s="33"/>
+      <c r="B150" s="24"/>
+      <c r="C150" s="25"/>
+      <c r="D150" s="26"/>
+      <c r="E150" s="26"/>
+      <c r="F150" s="26"/>
+      <c r="G150" s="26"/>
+      <c r="H150" s="27"/>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
@@ -5079,14 +5086,14 @@
       <c r="Z150" s="5"/>
     </row>
     <row r="151" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="29"/>
-      <c r="B151" s="30"/>
-      <c r="C151" s="31"/>
-      <c r="D151" s="32"/>
-      <c r="E151" s="32"/>
-      <c r="F151" s="32"/>
-      <c r="G151" s="32"/>
-      <c r="H151" s="33"/>
+      <c r="A151" s="23"/>
+      <c r="B151" s="24"/>
+      <c r="C151" s="25"/>
+      <c r="D151" s="26"/>
+      <c r="E151" s="26"/>
+      <c r="F151" s="26"/>
+      <c r="G151" s="26"/>
+      <c r="H151" s="27"/>
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
@@ -5107,14 +5114,14 @@
       <c r="Z151" s="5"/>
     </row>
     <row r="152" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="29"/>
-      <c r="B152" s="30"/>
-      <c r="C152" s="31"/>
-      <c r="D152" s="32"/>
-      <c r="E152" s="32"/>
-      <c r="F152" s="32"/>
-      <c r="G152" s="32"/>
-      <c r="H152" s="33"/>
+      <c r="A152" s="23"/>
+      <c r="B152" s="24"/>
+      <c r="C152" s="25"/>
+      <c r="D152" s="26"/>
+      <c r="E152" s="26"/>
+      <c r="F152" s="26"/>
+      <c r="G152" s="26"/>
+      <c r="H152" s="27"/>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
       <c r="K152" s="5"/>
@@ -5135,14 +5142,14 @@
       <c r="Z152" s="5"/>
     </row>
     <row r="153" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="29"/>
-      <c r="B153" s="30"/>
-      <c r="C153" s="31"/>
-      <c r="D153" s="32"/>
-      <c r="E153" s="32"/>
-      <c r="F153" s="32"/>
-      <c r="G153" s="32"/>
-      <c r="H153" s="33"/>
+      <c r="A153" s="23"/>
+      <c r="B153" s="24"/>
+      <c r="C153" s="25"/>
+      <c r="D153" s="26"/>
+      <c r="E153" s="26"/>
+      <c r="F153" s="26"/>
+      <c r="G153" s="26"/>
+      <c r="H153" s="27"/>
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
@@ -5163,14 +5170,14 @@
       <c r="Z153" s="5"/>
     </row>
     <row r="154" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="29"/>
-      <c r="B154" s="30"/>
-      <c r="C154" s="31"/>
-      <c r="D154" s="32"/>
-      <c r="E154" s="32"/>
-      <c r="F154" s="32"/>
-      <c r="G154" s="32"/>
-      <c r="H154" s="33"/>
+      <c r="A154" s="23"/>
+      <c r="B154" s="24"/>
+      <c r="C154" s="25"/>
+      <c r="D154" s="26"/>
+      <c r="E154" s="26"/>
+      <c r="F154" s="26"/>
+      <c r="G154" s="26"/>
+      <c r="H154" s="27"/>
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
       <c r="K154" s="5"/>
@@ -5191,14 +5198,14 @@
       <c r="Z154" s="5"/>
     </row>
     <row r="155" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="29"/>
-      <c r="B155" s="30"/>
-      <c r="C155" s="31"/>
-      <c r="D155" s="32"/>
-      <c r="E155" s="32"/>
-      <c r="F155" s="32"/>
-      <c r="G155" s="32"/>
-      <c r="H155" s="33"/>
+      <c r="A155" s="23"/>
+      <c r="B155" s="24"/>
+      <c r="C155" s="25"/>
+      <c r="D155" s="26"/>
+      <c r="E155" s="26"/>
+      <c r="F155" s="26"/>
+      <c r="G155" s="26"/>
+      <c r="H155" s="27"/>
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
@@ -5219,16 +5226,16 @@
       <c r="Z155" s="5"/>
     </row>
     <row r="156" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="29">
+      <c r="A156" s="23">
         <v>25</v>
       </c>
-      <c r="B156" s="30"/>
-      <c r="C156" s="31"/>
-      <c r="D156" s="32"/>
-      <c r="E156" s="32"/>
-      <c r="F156" s="32"/>
-      <c r="G156" s="32"/>
-      <c r="H156" s="33"/>
+      <c r="B156" s="24"/>
+      <c r="C156" s="25"/>
+      <c r="D156" s="26"/>
+      <c r="E156" s="26"/>
+      <c r="F156" s="26"/>
+      <c r="G156" s="26"/>
+      <c r="H156" s="27"/>
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
@@ -5249,14 +5256,14 @@
       <c r="Z156" s="5"/>
     </row>
     <row r="157" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="29"/>
-      <c r="B157" s="30"/>
-      <c r="C157" s="31"/>
-      <c r="D157" s="32"/>
-      <c r="E157" s="32"/>
-      <c r="F157" s="32"/>
-      <c r="G157" s="32"/>
-      <c r="H157" s="33"/>
+      <c r="A157" s="23"/>
+      <c r="B157" s="24"/>
+      <c r="C157" s="25"/>
+      <c r="D157" s="26"/>
+      <c r="E157" s="26"/>
+      <c r="F157" s="26"/>
+      <c r="G157" s="26"/>
+      <c r="H157" s="27"/>
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
@@ -5277,14 +5284,14 @@
       <c r="Z157" s="5"/>
     </row>
     <row r="158" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="29"/>
-      <c r="B158" s="30"/>
-      <c r="C158" s="31"/>
-      <c r="D158" s="32"/>
-      <c r="E158" s="32"/>
-      <c r="F158" s="32"/>
-      <c r="G158" s="32"/>
-      <c r="H158" s="33"/>
+      <c r="A158" s="23"/>
+      <c r="B158" s="24"/>
+      <c r="C158" s="25"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="26"/>
+      <c r="F158" s="26"/>
+      <c r="G158" s="26"/>
+      <c r="H158" s="27"/>
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
@@ -5305,14 +5312,14 @@
       <c r="Z158" s="5"/>
     </row>
     <row r="159" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="29"/>
-      <c r="B159" s="30"/>
-      <c r="C159" s="31"/>
-      <c r="D159" s="32"/>
-      <c r="E159" s="32"/>
-      <c r="F159" s="32"/>
-      <c r="G159" s="32"/>
-      <c r="H159" s="33"/>
+      <c r="A159" s="23"/>
+      <c r="B159" s="24"/>
+      <c r="C159" s="25"/>
+      <c r="D159" s="26"/>
+      <c r="E159" s="26"/>
+      <c r="F159" s="26"/>
+      <c r="G159" s="26"/>
+      <c r="H159" s="27"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
       <c r="K159" s="5"/>
@@ -5333,14 +5340,14 @@
       <c r="Z159" s="5"/>
     </row>
     <row r="160" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="29"/>
-      <c r="B160" s="30"/>
-      <c r="C160" s="31"/>
-      <c r="D160" s="32"/>
-      <c r="E160" s="32"/>
-      <c r="F160" s="32"/>
-      <c r="G160" s="32"/>
-      <c r="H160" s="33"/>
+      <c r="A160" s="23"/>
+      <c r="B160" s="24"/>
+      <c r="C160" s="25"/>
+      <c r="D160" s="26"/>
+      <c r="E160" s="26"/>
+      <c r="F160" s="26"/>
+      <c r="G160" s="26"/>
+      <c r="H160" s="27"/>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
       <c r="K160" s="5"/>
@@ -5361,14 +5368,14 @@
       <c r="Z160" s="5"/>
     </row>
     <row r="161" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="29"/>
-      <c r="B161" s="30"/>
-      <c r="C161" s="31"/>
-      <c r="D161" s="32"/>
-      <c r="E161" s="32"/>
-      <c r="F161" s="32"/>
-      <c r="G161" s="32"/>
-      <c r="H161" s="33"/>
+      <c r="A161" s="23"/>
+      <c r="B161" s="24"/>
+      <c r="C161" s="25"/>
+      <c r="D161" s="26"/>
+      <c r="E161" s="26"/>
+      <c r="F161" s="26"/>
+      <c r="G161" s="26"/>
+      <c r="H161" s="27"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
@@ -5389,16 +5396,16 @@
       <c r="Z161" s="5"/>
     </row>
     <row r="162" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="29">
+      <c r="A162" s="23">
         <v>26</v>
       </c>
-      <c r="B162" s="30"/>
-      <c r="C162" s="31"/>
-      <c r="D162" s="32"/>
-      <c r="E162" s="32"/>
-      <c r="F162" s="32"/>
-      <c r="G162" s="32"/>
-      <c r="H162" s="33"/>
+      <c r="B162" s="24"/>
+      <c r="C162" s="25"/>
+      <c r="D162" s="26"/>
+      <c r="E162" s="26"/>
+      <c r="F162" s="26"/>
+      <c r="G162" s="26"/>
+      <c r="H162" s="27"/>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
       <c r="K162" s="5"/>
@@ -5419,14 +5426,14 @@
       <c r="Z162" s="5"/>
     </row>
     <row r="163" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="29"/>
-      <c r="B163" s="30"/>
-      <c r="C163" s="31"/>
-      <c r="D163" s="32"/>
-      <c r="E163" s="32"/>
-      <c r="F163" s="32"/>
-      <c r="G163" s="32"/>
-      <c r="H163" s="33"/>
+      <c r="A163" s="23"/>
+      <c r="B163" s="24"/>
+      <c r="C163" s="25"/>
+      <c r="D163" s="26"/>
+      <c r="E163" s="26"/>
+      <c r="F163" s="26"/>
+      <c r="G163" s="26"/>
+      <c r="H163" s="27"/>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
       <c r="K163" s="5"/>
@@ -5447,14 +5454,14 @@
       <c r="Z163" s="5"/>
     </row>
     <row r="164" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="29"/>
-      <c r="B164" s="30"/>
-      <c r="C164" s="31"/>
-      <c r="D164" s="32"/>
-      <c r="E164" s="32"/>
-      <c r="F164" s="32"/>
-      <c r="G164" s="32"/>
-      <c r="H164" s="33"/>
+      <c r="A164" s="23"/>
+      <c r="B164" s="24"/>
+      <c r="C164" s="25"/>
+      <c r="D164" s="26"/>
+      <c r="E164" s="26"/>
+      <c r="F164" s="26"/>
+      <c r="G164" s="26"/>
+      <c r="H164" s="27"/>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
@@ -5475,14 +5482,14 @@
       <c r="Z164" s="5"/>
     </row>
     <row r="165" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="29"/>
-      <c r="B165" s="30"/>
-      <c r="C165" s="31"/>
-      <c r="D165" s="32"/>
-      <c r="E165" s="32"/>
-      <c r="F165" s="32"/>
-      <c r="G165" s="32"/>
-      <c r="H165" s="33"/>
+      <c r="A165" s="23"/>
+      <c r="B165" s="24"/>
+      <c r="C165" s="25"/>
+      <c r="D165" s="26"/>
+      <c r="E165" s="26"/>
+      <c r="F165" s="26"/>
+      <c r="G165" s="26"/>
+      <c r="H165" s="27"/>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
@@ -5503,14 +5510,14 @@
       <c r="Z165" s="5"/>
     </row>
     <row r="166" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="29"/>
-      <c r="B166" s="30"/>
-      <c r="C166" s="31"/>
-      <c r="D166" s="32"/>
-      <c r="E166" s="32"/>
-      <c r="F166" s="32"/>
-      <c r="G166" s="32"/>
-      <c r="H166" s="33"/>
+      <c r="A166" s="23"/>
+      <c r="B166" s="24"/>
+      <c r="C166" s="25"/>
+      <c r="D166" s="26"/>
+      <c r="E166" s="26"/>
+      <c r="F166" s="26"/>
+      <c r="G166" s="26"/>
+      <c r="H166" s="27"/>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
       <c r="K166" s="5"/>
@@ -5531,14 +5538,14 @@
       <c r="Z166" s="5"/>
     </row>
     <row r="167" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="29"/>
-      <c r="B167" s="30"/>
-      <c r="C167" s="31"/>
-      <c r="D167" s="32"/>
-      <c r="E167" s="32"/>
-      <c r="F167" s="32"/>
-      <c r="G167" s="32"/>
-      <c r="H167" s="33"/>
+      <c r="A167" s="23"/>
+      <c r="B167" s="24"/>
+      <c r="C167" s="25"/>
+      <c r="D167" s="26"/>
+      <c r="E167" s="26"/>
+      <c r="F167" s="26"/>
+      <c r="G167" s="26"/>
+      <c r="H167" s="27"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
@@ -5559,16 +5566,16 @@
       <c r="Z167" s="5"/>
     </row>
     <row r="168" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="29">
+      <c r="A168" s="23">
         <v>27</v>
       </c>
-      <c r="B168" s="30"/>
-      <c r="C168" s="31"/>
-      <c r="D168" s="32"/>
-      <c r="E168" s="32"/>
-      <c r="F168" s="32"/>
-      <c r="G168" s="32"/>
-      <c r="H168" s="33"/>
+      <c r="B168" s="24"/>
+      <c r="C168" s="25"/>
+      <c r="D168" s="26"/>
+      <c r="E168" s="26"/>
+      <c r="F168" s="26"/>
+      <c r="G168" s="26"/>
+      <c r="H168" s="27"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
       <c r="K168" s="5"/>
@@ -5589,14 +5596,14 @@
       <c r="Z168" s="5"/>
     </row>
     <row r="169" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="29"/>
-      <c r="B169" s="30"/>
-      <c r="C169" s="31"/>
-      <c r="D169" s="32"/>
-      <c r="E169" s="32"/>
-      <c r="F169" s="32"/>
-      <c r="G169" s="32"/>
-      <c r="H169" s="33"/>
+      <c r="A169" s="23"/>
+      <c r="B169" s="24"/>
+      <c r="C169" s="25"/>
+      <c r="D169" s="26"/>
+      <c r="E169" s="26"/>
+      <c r="F169" s="26"/>
+      <c r="G169" s="26"/>
+      <c r="H169" s="27"/>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
       <c r="K169" s="5"/>
@@ -5617,14 +5624,14 @@
       <c r="Z169" s="5"/>
     </row>
     <row r="170" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="29"/>
-      <c r="B170" s="30"/>
-      <c r="C170" s="31"/>
-      <c r="D170" s="32"/>
-      <c r="E170" s="32"/>
-      <c r="F170" s="32"/>
-      <c r="G170" s="32"/>
-      <c r="H170" s="33"/>
+      <c r="A170" s="23"/>
+      <c r="B170" s="24"/>
+      <c r="C170" s="25"/>
+      <c r="D170" s="26"/>
+      <c r="E170" s="26"/>
+      <c r="F170" s="26"/>
+      <c r="G170" s="26"/>
+      <c r="H170" s="27"/>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
@@ -5645,14 +5652,14 @@
       <c r="Z170" s="5"/>
     </row>
     <row r="171" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="29"/>
-      <c r="B171" s="30"/>
-      <c r="C171" s="31"/>
-      <c r="D171" s="32"/>
-      <c r="E171" s="32"/>
-      <c r="F171" s="32"/>
-      <c r="G171" s="32"/>
-      <c r="H171" s="33"/>
+      <c r="A171" s="23"/>
+      <c r="B171" s="24"/>
+      <c r="C171" s="25"/>
+      <c r="D171" s="26"/>
+      <c r="E171" s="26"/>
+      <c r="F171" s="26"/>
+      <c r="G171" s="26"/>
+      <c r="H171" s="27"/>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
       <c r="K171" s="5"/>
@@ -5673,14 +5680,14 @@
       <c r="Z171" s="5"/>
     </row>
     <row r="172" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="29"/>
-      <c r="B172" s="30"/>
-      <c r="C172" s="31"/>
-      <c r="D172" s="32"/>
-      <c r="E172" s="32"/>
-      <c r="F172" s="32"/>
-      <c r="G172" s="32"/>
-      <c r="H172" s="33"/>
+      <c r="A172" s="23"/>
+      <c r="B172" s="24"/>
+      <c r="C172" s="25"/>
+      <c r="D172" s="26"/>
+      <c r="E172" s="26"/>
+      <c r="F172" s="26"/>
+      <c r="G172" s="26"/>
+      <c r="H172" s="27"/>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
@@ -5701,14 +5708,14 @@
       <c r="Z172" s="5"/>
     </row>
     <row r="173" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="29"/>
-      <c r="B173" s="30"/>
-      <c r="C173" s="31"/>
-      <c r="D173" s="32"/>
-      <c r="E173" s="32"/>
-      <c r="F173" s="32"/>
-      <c r="G173" s="32"/>
-      <c r="H173" s="33"/>
+      <c r="A173" s="23"/>
+      <c r="B173" s="24"/>
+      <c r="C173" s="25"/>
+      <c r="D173" s="26"/>
+      <c r="E173" s="26"/>
+      <c r="F173" s="26"/>
+      <c r="G173" s="26"/>
+      <c r="H173" s="27"/>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
@@ -5729,16 +5736,16 @@
       <c r="Z173" s="5"/>
     </row>
     <row r="174" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="29">
+      <c r="A174" s="23">
         <v>28</v>
       </c>
-      <c r="B174" s="30"/>
-      <c r="C174" s="31"/>
-      <c r="D174" s="32"/>
-      <c r="E174" s="32"/>
-      <c r="F174" s="32"/>
-      <c r="G174" s="32"/>
-      <c r="H174" s="33"/>
+      <c r="B174" s="24"/>
+      <c r="C174" s="25"/>
+      <c r="D174" s="26"/>
+      <c r="E174" s="26"/>
+      <c r="F174" s="26"/>
+      <c r="G174" s="26"/>
+      <c r="H174" s="27"/>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
@@ -5759,14 +5766,14 @@
       <c r="Z174" s="5"/>
     </row>
     <row r="175" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="29"/>
-      <c r="B175" s="30"/>
-      <c r="C175" s="31"/>
-      <c r="D175" s="32"/>
-      <c r="E175" s="32"/>
-      <c r="F175" s="32"/>
-      <c r="G175" s="32"/>
-      <c r="H175" s="33"/>
+      <c r="A175" s="23"/>
+      <c r="B175" s="24"/>
+      <c r="C175" s="25"/>
+      <c r="D175" s="26"/>
+      <c r="E175" s="26"/>
+      <c r="F175" s="26"/>
+      <c r="G175" s="26"/>
+      <c r="H175" s="27"/>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
@@ -5787,14 +5794,14 @@
       <c r="Z175" s="5"/>
     </row>
     <row r="176" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="29"/>
-      <c r="B176" s="30"/>
-      <c r="C176" s="31"/>
-      <c r="D176" s="32"/>
-      <c r="E176" s="32"/>
-      <c r="F176" s="32"/>
-      <c r="G176" s="32"/>
-      <c r="H176" s="33"/>
+      <c r="A176" s="23"/>
+      <c r="B176" s="24"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="26"/>
+      <c r="E176" s="26"/>
+      <c r="F176" s="26"/>
+      <c r="G176" s="26"/>
+      <c r="H176" s="27"/>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
@@ -5815,14 +5822,14 @@
       <c r="Z176" s="5"/>
     </row>
     <row r="177" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="29"/>
-      <c r="B177" s="30"/>
-      <c r="C177" s="31"/>
-      <c r="D177" s="32"/>
-      <c r="E177" s="32"/>
-      <c r="F177" s="32"/>
-      <c r="G177" s="32"/>
-      <c r="H177" s="33"/>
+      <c r="A177" s="23"/>
+      <c r="B177" s="24"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="26"/>
+      <c r="E177" s="26"/>
+      <c r="F177" s="26"/>
+      <c r="G177" s="26"/>
+      <c r="H177" s="27"/>
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
       <c r="K177" s="5"/>
@@ -5843,14 +5850,14 @@
       <c r="Z177" s="5"/>
     </row>
     <row r="178" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="29"/>
-      <c r="B178" s="30"/>
-      <c r="C178" s="31"/>
-      <c r="D178" s="32"/>
-      <c r="E178" s="32"/>
-      <c r="F178" s="32"/>
-      <c r="G178" s="32"/>
-      <c r="H178" s="33"/>
+      <c r="A178" s="23"/>
+      <c r="B178" s="24"/>
+      <c r="C178" s="25"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="26"/>
+      <c r="F178" s="26"/>
+      <c r="G178" s="26"/>
+      <c r="H178" s="27"/>
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
       <c r="K178" s="5"/>
@@ -5871,14 +5878,14 @@
       <c r="Z178" s="5"/>
     </row>
     <row r="179" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="29"/>
-      <c r="B179" s="30"/>
-      <c r="C179" s="31"/>
-      <c r="D179" s="32"/>
-      <c r="E179" s="32"/>
-      <c r="F179" s="32"/>
-      <c r="G179" s="32"/>
-      <c r="H179" s="33"/>
+      <c r="A179" s="23"/>
+      <c r="B179" s="24"/>
+      <c r="C179" s="25"/>
+      <c r="D179" s="26"/>
+      <c r="E179" s="26"/>
+      <c r="F179" s="26"/>
+      <c r="G179" s="26"/>
+      <c r="H179" s="27"/>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
@@ -5899,16 +5906,16 @@
       <c r="Z179" s="5"/>
     </row>
     <row r="180" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="29">
+      <c r="A180" s="23">
         <v>29</v>
       </c>
-      <c r="B180" s="30"/>
-      <c r="C180" s="31"/>
-      <c r="D180" s="32"/>
-      <c r="E180" s="32"/>
-      <c r="F180" s="32"/>
-      <c r="G180" s="32"/>
-      <c r="H180" s="33"/>
+      <c r="B180" s="24"/>
+      <c r="C180" s="25"/>
+      <c r="D180" s="26"/>
+      <c r="E180" s="26"/>
+      <c r="F180" s="26"/>
+      <c r="G180" s="26"/>
+      <c r="H180" s="27"/>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
       <c r="K180" s="5"/>
@@ -5929,14 +5936,14 @@
       <c r="Z180" s="5"/>
     </row>
     <row r="181" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="29"/>
-      <c r="B181" s="30"/>
-      <c r="C181" s="31"/>
-      <c r="D181" s="32"/>
-      <c r="E181" s="32"/>
-      <c r="F181" s="32"/>
-      <c r="G181" s="32"/>
-      <c r="H181" s="33"/>
+      <c r="A181" s="23"/>
+      <c r="B181" s="24"/>
+      <c r="C181" s="25"/>
+      <c r="D181" s="26"/>
+      <c r="E181" s="26"/>
+      <c r="F181" s="26"/>
+      <c r="G181" s="26"/>
+      <c r="H181" s="27"/>
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
       <c r="K181" s="5"/>
@@ -5957,14 +5964,14 @@
       <c r="Z181" s="5"/>
     </row>
     <row r="182" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="29"/>
-      <c r="B182" s="30"/>
-      <c r="C182" s="31"/>
-      <c r="D182" s="32"/>
-      <c r="E182" s="32"/>
-      <c r="F182" s="32"/>
-      <c r="G182" s="32"/>
-      <c r="H182" s="33"/>
+      <c r="A182" s="23"/>
+      <c r="B182" s="24"/>
+      <c r="C182" s="25"/>
+      <c r="D182" s="26"/>
+      <c r="E182" s="26"/>
+      <c r="F182" s="26"/>
+      <c r="G182" s="26"/>
+      <c r="H182" s="27"/>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
       <c r="K182" s="5"/>
@@ -5985,14 +5992,14 @@
       <c r="Z182" s="5"/>
     </row>
     <row r="183" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="29"/>
-      <c r="B183" s="30"/>
-      <c r="C183" s="31"/>
-      <c r="D183" s="32"/>
-      <c r="E183" s="32"/>
-      <c r="F183" s="32"/>
-      <c r="G183" s="32"/>
-      <c r="H183" s="33"/>
+      <c r="A183" s="23"/>
+      <c r="B183" s="24"/>
+      <c r="C183" s="25"/>
+      <c r="D183" s="26"/>
+      <c r="E183" s="26"/>
+      <c r="F183" s="26"/>
+      <c r="G183" s="26"/>
+      <c r="H183" s="27"/>
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
       <c r="K183" s="5"/>
@@ -6013,14 +6020,14 @@
       <c r="Z183" s="5"/>
     </row>
     <row r="184" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="29"/>
-      <c r="B184" s="30"/>
-      <c r="C184" s="31"/>
-      <c r="D184" s="32"/>
-      <c r="E184" s="32"/>
-      <c r="F184" s="32"/>
-      <c r="G184" s="32"/>
-      <c r="H184" s="33"/>
+      <c r="A184" s="23"/>
+      <c r="B184" s="24"/>
+      <c r="C184" s="25"/>
+      <c r="D184" s="26"/>
+      <c r="E184" s="26"/>
+      <c r="F184" s="26"/>
+      <c r="G184" s="26"/>
+      <c r="H184" s="27"/>
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
       <c r="K184" s="5"/>
@@ -6041,14 +6048,14 @@
       <c r="Z184" s="5"/>
     </row>
     <row r="185" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="29"/>
-      <c r="B185" s="30"/>
-      <c r="C185" s="31"/>
-      <c r="D185" s="32"/>
-      <c r="E185" s="32"/>
-      <c r="F185" s="32"/>
-      <c r="G185" s="32"/>
-      <c r="H185" s="33"/>
+      <c r="A185" s="23"/>
+      <c r="B185" s="24"/>
+      <c r="C185" s="25"/>
+      <c r="D185" s="26"/>
+      <c r="E185" s="26"/>
+      <c r="F185" s="26"/>
+      <c r="G185" s="26"/>
+      <c r="H185" s="27"/>
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
       <c r="K185" s="5"/>
@@ -6069,16 +6076,16 @@
       <c r="Z185" s="5"/>
     </row>
     <row r="186" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="29">
+      <c r="A186" s="23">
         <v>30</v>
       </c>
-      <c r="B186" s="30"/>
-      <c r="C186" s="31"/>
-      <c r="D186" s="32"/>
-      <c r="E186" s="32"/>
-      <c r="F186" s="32"/>
-      <c r="G186" s="32"/>
-      <c r="H186" s="33"/>
+      <c r="B186" s="24"/>
+      <c r="C186" s="25"/>
+      <c r="D186" s="26"/>
+      <c r="E186" s="26"/>
+      <c r="F186" s="26"/>
+      <c r="G186" s="26"/>
+      <c r="H186" s="27"/>
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
       <c r="K186" s="5"/>
@@ -6099,14 +6106,14 @@
       <c r="Z186" s="5"/>
     </row>
     <row r="187" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="29"/>
-      <c r="B187" s="30"/>
-      <c r="C187" s="31"/>
-      <c r="D187" s="32"/>
-      <c r="E187" s="32"/>
-      <c r="F187" s="32"/>
-      <c r="G187" s="32"/>
-      <c r="H187" s="33"/>
+      <c r="A187" s="23"/>
+      <c r="B187" s="24"/>
+      <c r="C187" s="25"/>
+      <c r="D187" s="26"/>
+      <c r="E187" s="26"/>
+      <c r="F187" s="26"/>
+      <c r="G187" s="26"/>
+      <c r="H187" s="27"/>
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
       <c r="K187" s="5"/>
@@ -6127,14 +6134,14 @@
       <c r="Z187" s="5"/>
     </row>
     <row r="188" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="29"/>
-      <c r="B188" s="30"/>
-      <c r="C188" s="31"/>
-      <c r="D188" s="32"/>
-      <c r="E188" s="32"/>
-      <c r="F188" s="32"/>
-      <c r="G188" s="32"/>
-      <c r="H188" s="33"/>
+      <c r="A188" s="23"/>
+      <c r="B188" s="24"/>
+      <c r="C188" s="25"/>
+      <c r="D188" s="26"/>
+      <c r="E188" s="26"/>
+      <c r="F188" s="26"/>
+      <c r="G188" s="26"/>
+      <c r="H188" s="27"/>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
       <c r="K188" s="5"/>
@@ -6155,14 +6162,14 @@
       <c r="Z188" s="5"/>
     </row>
     <row r="189" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="29"/>
-      <c r="B189" s="30"/>
-      <c r="C189" s="31"/>
-      <c r="D189" s="32"/>
-      <c r="E189" s="32"/>
-      <c r="F189" s="32"/>
-      <c r="G189" s="32"/>
-      <c r="H189" s="33"/>
+      <c r="A189" s="23"/>
+      <c r="B189" s="24"/>
+      <c r="C189" s="25"/>
+      <c r="D189" s="26"/>
+      <c r="E189" s="26"/>
+      <c r="F189" s="26"/>
+      <c r="G189" s="26"/>
+      <c r="H189" s="27"/>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
       <c r="K189" s="5"/>
@@ -6183,14 +6190,14 @@
       <c r="Z189" s="5"/>
     </row>
     <row r="190" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="29"/>
-      <c r="B190" s="30"/>
-      <c r="C190" s="31"/>
-      <c r="D190" s="32"/>
-      <c r="E190" s="32"/>
-      <c r="F190" s="32"/>
-      <c r="G190" s="32"/>
-      <c r="H190" s="33"/>
+      <c r="A190" s="23"/>
+      <c r="B190" s="24"/>
+      <c r="C190" s="25"/>
+      <c r="D190" s="26"/>
+      <c r="E190" s="26"/>
+      <c r="F190" s="26"/>
+      <c r="G190" s="26"/>
+      <c r="H190" s="27"/>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
       <c r="K190" s="5"/>
@@ -6211,14 +6218,14 @@
       <c r="Z190" s="5"/>
     </row>
     <row r="191" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="29"/>
-      <c r="B191" s="30"/>
-      <c r="C191" s="31"/>
-      <c r="D191" s="32"/>
-      <c r="E191" s="32"/>
-      <c r="F191" s="32"/>
-      <c r="G191" s="32"/>
-      <c r="H191" s="33"/>
+      <c r="A191" s="23"/>
+      <c r="B191" s="24"/>
+      <c r="C191" s="25"/>
+      <c r="D191" s="26"/>
+      <c r="E191" s="26"/>
+      <c r="F191" s="26"/>
+      <c r="G191" s="26"/>
+      <c r="H191" s="27"/>
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
       <c r="K191" s="5"/>
@@ -6239,16 +6246,16 @@
       <c r="Z191" s="5"/>
     </row>
     <row r="192" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="29">
+      <c r="A192" s="23">
         <v>31</v>
       </c>
-      <c r="B192" s="30"/>
-      <c r="C192" s="31"/>
-      <c r="D192" s="32"/>
-      <c r="E192" s="32"/>
-      <c r="F192" s="32"/>
-      <c r="G192" s="32"/>
-      <c r="H192" s="33"/>
+      <c r="B192" s="24"/>
+      <c r="C192" s="25"/>
+      <c r="D192" s="26"/>
+      <c r="E192" s="26"/>
+      <c r="F192" s="26"/>
+      <c r="G192" s="26"/>
+      <c r="H192" s="27"/>
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
       <c r="K192" s="5"/>
@@ -6269,14 +6276,14 @@
       <c r="Z192" s="5"/>
     </row>
     <row r="193" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="29"/>
-      <c r="B193" s="30"/>
-      <c r="C193" s="31"/>
-      <c r="D193" s="32"/>
-      <c r="E193" s="32"/>
-      <c r="F193" s="32"/>
-      <c r="G193" s="32"/>
-      <c r="H193" s="33"/>
+      <c r="A193" s="23"/>
+      <c r="B193" s="24"/>
+      <c r="C193" s="25"/>
+      <c r="D193" s="26"/>
+      <c r="E193" s="26"/>
+      <c r="F193" s="26"/>
+      <c r="G193" s="26"/>
+      <c r="H193" s="27"/>
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
       <c r="K193" s="5"/>
@@ -6297,14 +6304,14 @@
       <c r="Z193" s="5"/>
     </row>
     <row r="194" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="29"/>
-      <c r="B194" s="30"/>
-      <c r="C194" s="31"/>
-      <c r="D194" s="32"/>
-      <c r="E194" s="32"/>
-      <c r="F194" s="32"/>
-      <c r="G194" s="32"/>
-      <c r="H194" s="33"/>
+      <c r="A194" s="23"/>
+      <c r="B194" s="24"/>
+      <c r="C194" s="25"/>
+      <c r="D194" s="26"/>
+      <c r="E194" s="26"/>
+      <c r="F194" s="26"/>
+      <c r="G194" s="26"/>
+      <c r="H194" s="27"/>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
@@ -6325,14 +6332,14 @@
       <c r="Z194" s="5"/>
     </row>
     <row r="195" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="29"/>
-      <c r="B195" s="30"/>
-      <c r="C195" s="31"/>
-      <c r="D195" s="32"/>
-      <c r="E195" s="32"/>
-      <c r="F195" s="32"/>
-      <c r="G195" s="32"/>
-      <c r="H195" s="33"/>
+      <c r="A195" s="23"/>
+      <c r="B195" s="24"/>
+      <c r="C195" s="25"/>
+      <c r="D195" s="26"/>
+      <c r="E195" s="26"/>
+      <c r="F195" s="26"/>
+      <c r="G195" s="26"/>
+      <c r="H195" s="27"/>
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
       <c r="K195" s="5"/>
@@ -6353,14 +6360,14 @@
       <c r="Z195" s="5"/>
     </row>
     <row r="196" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="29"/>
-      <c r="B196" s="30"/>
-      <c r="C196" s="31"/>
-      <c r="D196" s="32"/>
-      <c r="E196" s="32"/>
-      <c r="F196" s="32"/>
-      <c r="G196" s="32"/>
-      <c r="H196" s="33"/>
+      <c r="A196" s="23"/>
+      <c r="B196" s="24"/>
+      <c r="C196" s="25"/>
+      <c r="D196" s="26"/>
+      <c r="E196" s="26"/>
+      <c r="F196" s="26"/>
+      <c r="G196" s="26"/>
+      <c r="H196" s="27"/>
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
       <c r="K196" s="5"/>
@@ -6381,14 +6388,14 @@
       <c r="Z196" s="5"/>
     </row>
     <row r="197" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="29"/>
-      <c r="B197" s="30"/>
-      <c r="C197" s="31"/>
-      <c r="D197" s="32"/>
-      <c r="E197" s="32"/>
-      <c r="F197" s="32"/>
-      <c r="G197" s="32"/>
-      <c r="H197" s="33"/>
+      <c r="A197" s="23"/>
+      <c r="B197" s="24"/>
+      <c r="C197" s="25"/>
+      <c r="D197" s="26"/>
+      <c r="E197" s="26"/>
+      <c r="F197" s="26"/>
+      <c r="G197" s="26"/>
+      <c r="H197" s="27"/>
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
       <c r="K197" s="5"/>
@@ -6409,16 +6416,16 @@
       <c r="Z197" s="5"/>
     </row>
     <row r="198" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="29">
+      <c r="A198" s="23">
         <v>32</v>
       </c>
-      <c r="B198" s="30"/>
-      <c r="C198" s="31"/>
-      <c r="D198" s="32"/>
-      <c r="E198" s="32"/>
-      <c r="F198" s="32"/>
-      <c r="G198" s="32"/>
-      <c r="H198" s="33"/>
+      <c r="B198" s="24"/>
+      <c r="C198" s="25"/>
+      <c r="D198" s="26"/>
+      <c r="E198" s="26"/>
+      <c r="F198" s="26"/>
+      <c r="G198" s="26"/>
+      <c r="H198" s="27"/>
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
@@ -6439,14 +6446,14 @@
       <c r="Z198" s="5"/>
     </row>
     <row r="199" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="29"/>
-      <c r="B199" s="30"/>
-      <c r="C199" s="31"/>
-      <c r="D199" s="32"/>
-      <c r="E199" s="32"/>
-      <c r="F199" s="32"/>
-      <c r="G199" s="32"/>
-      <c r="H199" s="33"/>
+      <c r="A199" s="23"/>
+      <c r="B199" s="24"/>
+      <c r="C199" s="25"/>
+      <c r="D199" s="26"/>
+      <c r="E199" s="26"/>
+      <c r="F199" s="26"/>
+      <c r="G199" s="26"/>
+      <c r="H199" s="27"/>
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
       <c r="K199" s="5"/>
@@ -6467,14 +6474,14 @@
       <c r="Z199" s="5"/>
     </row>
     <row r="200" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="29"/>
-      <c r="B200" s="30"/>
-      <c r="C200" s="31"/>
-      <c r="D200" s="32"/>
-      <c r="E200" s="32"/>
-      <c r="F200" s="32"/>
-      <c r="G200" s="32"/>
-      <c r="H200" s="33"/>
+      <c r="A200" s="23"/>
+      <c r="B200" s="24"/>
+      <c r="C200" s="25"/>
+      <c r="D200" s="26"/>
+      <c r="E200" s="26"/>
+      <c r="F200" s="26"/>
+      <c r="G200" s="26"/>
+      <c r="H200" s="27"/>
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
@@ -6495,14 +6502,14 @@
       <c r="Z200" s="5"/>
     </row>
     <row r="201" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="29"/>
-      <c r="B201" s="30"/>
-      <c r="C201" s="31"/>
-      <c r="D201" s="32"/>
-      <c r="E201" s="32"/>
-      <c r="F201" s="32"/>
-      <c r="G201" s="32"/>
-      <c r="H201" s="33"/>
+      <c r="A201" s="23"/>
+      <c r="B201" s="24"/>
+      <c r="C201" s="25"/>
+      <c r="D201" s="26"/>
+      <c r="E201" s="26"/>
+      <c r="F201" s="26"/>
+      <c r="G201" s="26"/>
+      <c r="H201" s="27"/>
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
@@ -6523,14 +6530,14 @@
       <c r="Z201" s="5"/>
     </row>
     <row r="202" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="29"/>
-      <c r="B202" s="30"/>
-      <c r="C202" s="31"/>
-      <c r="D202" s="32"/>
-      <c r="E202" s="32"/>
-      <c r="F202" s="32"/>
-      <c r="G202" s="32"/>
-      <c r="H202" s="33"/>
+      <c r="A202" s="23"/>
+      <c r="B202" s="24"/>
+      <c r="C202" s="25"/>
+      <c r="D202" s="26"/>
+      <c r="E202" s="26"/>
+      <c r="F202" s="26"/>
+      <c r="G202" s="26"/>
+      <c r="H202" s="27"/>
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
@@ -6551,14 +6558,14 @@
       <c r="Z202" s="5"/>
     </row>
     <row r="203" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="29"/>
-      <c r="B203" s="30"/>
-      <c r="C203" s="31"/>
-      <c r="D203" s="32"/>
-      <c r="E203" s="32"/>
-      <c r="F203" s="32"/>
-      <c r="G203" s="32"/>
-      <c r="H203" s="33"/>
+      <c r="A203" s="23"/>
+      <c r="B203" s="24"/>
+      <c r="C203" s="25"/>
+      <c r="D203" s="26"/>
+      <c r="E203" s="26"/>
+      <c r="F203" s="26"/>
+      <c r="G203" s="26"/>
+      <c r="H203" s="27"/>
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
@@ -6579,16 +6586,16 @@
       <c r="Z203" s="5"/>
     </row>
     <row r="204" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="29">
+      <c r="A204" s="23">
         <v>33</v>
       </c>
-      <c r="B204" s="30"/>
-      <c r="C204" s="31"/>
-      <c r="D204" s="32"/>
-      <c r="E204" s="32"/>
-      <c r="F204" s="32"/>
-      <c r="G204" s="32"/>
-      <c r="H204" s="33"/>
+      <c r="B204" s="24"/>
+      <c r="C204" s="25"/>
+      <c r="D204" s="26"/>
+      <c r="E204" s="26"/>
+      <c r="F204" s="26"/>
+      <c r="G204" s="26"/>
+      <c r="H204" s="27"/>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
@@ -6609,14 +6616,14 @@
       <c r="Z204" s="5"/>
     </row>
     <row r="205" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="29"/>
-      <c r="B205" s="30"/>
-      <c r="C205" s="31"/>
-      <c r="D205" s="32"/>
-      <c r="E205" s="32"/>
-      <c r="F205" s="32"/>
-      <c r="G205" s="32"/>
-      <c r="H205" s="33"/>
+      <c r="A205" s="23"/>
+      <c r="B205" s="24"/>
+      <c r="C205" s="25"/>
+      <c r="D205" s="26"/>
+      <c r="E205" s="26"/>
+      <c r="F205" s="26"/>
+      <c r="G205" s="26"/>
+      <c r="H205" s="27"/>
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
@@ -6637,14 +6644,14 @@
       <c r="Z205" s="5"/>
     </row>
     <row r="206" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="29"/>
-      <c r="B206" s="30"/>
-      <c r="C206" s="31"/>
-      <c r="D206" s="32"/>
-      <c r="E206" s="32"/>
-      <c r="F206" s="32"/>
-      <c r="G206" s="32"/>
-      <c r="H206" s="33"/>
+      <c r="A206" s="23"/>
+      <c r="B206" s="24"/>
+      <c r="C206" s="25"/>
+      <c r="D206" s="26"/>
+      <c r="E206" s="26"/>
+      <c r="F206" s="26"/>
+      <c r="G206" s="26"/>
+      <c r="H206" s="27"/>
       <c r="I206" s="5"/>
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
@@ -6665,14 +6672,14 @@
       <c r="Z206" s="5"/>
     </row>
     <row r="207" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="29"/>
-      <c r="B207" s="30"/>
-      <c r="C207" s="31"/>
-      <c r="D207" s="32"/>
-      <c r="E207" s="32"/>
-      <c r="F207" s="32"/>
-      <c r="G207" s="32"/>
-      <c r="H207" s="33"/>
+      <c r="A207" s="23"/>
+      <c r="B207" s="24"/>
+      <c r="C207" s="25"/>
+      <c r="D207" s="26"/>
+      <c r="E207" s="26"/>
+      <c r="F207" s="26"/>
+      <c r="G207" s="26"/>
+      <c r="H207" s="27"/>
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
       <c r="K207" s="5"/>
@@ -6693,14 +6700,14 @@
       <c r="Z207" s="5"/>
     </row>
     <row r="208" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="29"/>
-      <c r="B208" s="30"/>
-      <c r="C208" s="31"/>
-      <c r="D208" s="32"/>
-      <c r="E208" s="32"/>
-      <c r="F208" s="32"/>
-      <c r="G208" s="32"/>
-      <c r="H208" s="33"/>
+      <c r="A208" s="23"/>
+      <c r="B208" s="24"/>
+      <c r="C208" s="25"/>
+      <c r="D208" s="26"/>
+      <c r="E208" s="26"/>
+      <c r="F208" s="26"/>
+      <c r="G208" s="26"/>
+      <c r="H208" s="27"/>
       <c r="I208" s="5"/>
       <c r="J208" s="5"/>
       <c r="K208" s="5"/>
@@ -6721,14 +6728,14 @@
       <c r="Z208" s="5"/>
     </row>
     <row r="209" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="29"/>
-      <c r="B209" s="30"/>
-      <c r="C209" s="31"/>
-      <c r="D209" s="32"/>
-      <c r="E209" s="32"/>
-      <c r="F209" s="32"/>
-      <c r="G209" s="32"/>
-      <c r="H209" s="33"/>
+      <c r="A209" s="23"/>
+      <c r="B209" s="24"/>
+      <c r="C209" s="25"/>
+      <c r="D209" s="26"/>
+      <c r="E209" s="26"/>
+      <c r="F209" s="26"/>
+      <c r="G209" s="26"/>
+      <c r="H209" s="27"/>
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
       <c r="K209" s="5"/>
@@ -6749,16 +6756,16 @@
       <c r="Z209" s="5"/>
     </row>
     <row r="210" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="29">
+      <c r="A210" s="23">
         <v>34</v>
       </c>
-      <c r="B210" s="30"/>
-      <c r="C210" s="31"/>
-      <c r="D210" s="32"/>
-      <c r="E210" s="32"/>
-      <c r="F210" s="32"/>
-      <c r="G210" s="32"/>
-      <c r="H210" s="33"/>
+      <c r="B210" s="24"/>
+      <c r="C210" s="25"/>
+      <c r="D210" s="26"/>
+      <c r="E210" s="26"/>
+      <c r="F210" s="26"/>
+      <c r="G210" s="26"/>
+      <c r="H210" s="27"/>
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
       <c r="K210" s="5"/>
@@ -6779,14 +6786,14 @@
       <c r="Z210" s="5"/>
     </row>
     <row r="211" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="29"/>
-      <c r="B211" s="30"/>
-      <c r="C211" s="31"/>
-      <c r="D211" s="32"/>
-      <c r="E211" s="32"/>
-      <c r="F211" s="32"/>
-      <c r="G211" s="32"/>
-      <c r="H211" s="33"/>
+      <c r="A211" s="23"/>
+      <c r="B211" s="24"/>
+      <c r="C211" s="25"/>
+      <c r="D211" s="26"/>
+      <c r="E211" s="26"/>
+      <c r="F211" s="26"/>
+      <c r="G211" s="26"/>
+      <c r="H211" s="27"/>
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
       <c r="K211" s="5"/>
@@ -6807,14 +6814,14 @@
       <c r="Z211" s="5"/>
     </row>
     <row r="212" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="29"/>
-      <c r="B212" s="30"/>
-      <c r="C212" s="31"/>
-      <c r="D212" s="32"/>
-      <c r="E212" s="32"/>
-      <c r="F212" s="32"/>
-      <c r="G212" s="32"/>
-      <c r="H212" s="33"/>
+      <c r="A212" s="23"/>
+      <c r="B212" s="24"/>
+      <c r="C212" s="25"/>
+      <c r="D212" s="26"/>
+      <c r="E212" s="26"/>
+      <c r="F212" s="26"/>
+      <c r="G212" s="26"/>
+      <c r="H212" s="27"/>
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
       <c r="K212" s="5"/>
@@ -6835,14 +6842,14 @@
       <c r="Z212" s="5"/>
     </row>
     <row r="213" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="29"/>
-      <c r="B213" s="30"/>
-      <c r="C213" s="31"/>
-      <c r="D213" s="32"/>
-      <c r="E213" s="32"/>
-      <c r="F213" s="32"/>
-      <c r="G213" s="32"/>
-      <c r="H213" s="33"/>
+      <c r="A213" s="23"/>
+      <c r="B213" s="24"/>
+      <c r="C213" s="25"/>
+      <c r="D213" s="26"/>
+      <c r="E213" s="26"/>
+      <c r="F213" s="26"/>
+      <c r="G213" s="26"/>
+      <c r="H213" s="27"/>
       <c r="I213" s="5"/>
       <c r="J213" s="5"/>
       <c r="K213" s="5"/>
@@ -6863,14 +6870,14 @@
       <c r="Z213" s="5"/>
     </row>
     <row r="214" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="29"/>
-      <c r="B214" s="30"/>
-      <c r="C214" s="31"/>
-      <c r="D214" s="32"/>
-      <c r="E214" s="32"/>
-      <c r="F214" s="32"/>
-      <c r="G214" s="32"/>
-      <c r="H214" s="33"/>
+      <c r="A214" s="23"/>
+      <c r="B214" s="24"/>
+      <c r="C214" s="25"/>
+      <c r="D214" s="26"/>
+      <c r="E214" s="26"/>
+      <c r="F214" s="26"/>
+      <c r="G214" s="26"/>
+      <c r="H214" s="27"/>
       <c r="I214" s="5"/>
       <c r="J214" s="5"/>
       <c r="K214" s="5"/>
@@ -6891,14 +6898,14 @@
       <c r="Z214" s="5"/>
     </row>
     <row r="215" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="29"/>
-      <c r="B215" s="30"/>
-      <c r="C215" s="31"/>
-      <c r="D215" s="32"/>
-      <c r="E215" s="32"/>
-      <c r="F215" s="32"/>
-      <c r="G215" s="32"/>
-      <c r="H215" s="33"/>
+      <c r="A215" s="23"/>
+      <c r="B215" s="24"/>
+      <c r="C215" s="25"/>
+      <c r="D215" s="26"/>
+      <c r="E215" s="26"/>
+      <c r="F215" s="26"/>
+      <c r="G215" s="26"/>
+      <c r="H215" s="27"/>
       <c r="I215" s="5"/>
       <c r="J215" s="5"/>
       <c r="K215" s="5"/>
@@ -6919,16 +6926,16 @@
       <c r="Z215" s="5"/>
     </row>
     <row r="216" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="29">
+      <c r="A216" s="23">
         <v>35</v>
       </c>
-      <c r="B216" s="30"/>
-      <c r="C216" s="31"/>
-      <c r="D216" s="32"/>
-      <c r="E216" s="32"/>
-      <c r="F216" s="32"/>
-      <c r="G216" s="32"/>
-      <c r="H216" s="33"/>
+      <c r="B216" s="24"/>
+      <c r="C216" s="25"/>
+      <c r="D216" s="26"/>
+      <c r="E216" s="26"/>
+      <c r="F216" s="26"/>
+      <c r="G216" s="26"/>
+      <c r="H216" s="27"/>
       <c r="I216" s="5"/>
       <c r="J216" s="5"/>
       <c r="K216" s="5"/>
@@ -6949,14 +6956,14 @@
       <c r="Z216" s="5"/>
     </row>
     <row r="217" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="29"/>
-      <c r="B217" s="30"/>
-      <c r="C217" s="31"/>
-      <c r="D217" s="32"/>
-      <c r="E217" s="32"/>
-      <c r="F217" s="32"/>
-      <c r="G217" s="32"/>
-      <c r="H217" s="33"/>
+      <c r="A217" s="23"/>
+      <c r="B217" s="24"/>
+      <c r="C217" s="25"/>
+      <c r="D217" s="26"/>
+      <c r="E217" s="26"/>
+      <c r="F217" s="26"/>
+      <c r="G217" s="26"/>
+      <c r="H217" s="27"/>
       <c r="I217" s="5"/>
       <c r="J217" s="5"/>
       <c r="K217" s="5"/>
@@ -6977,14 +6984,14 @@
       <c r="Z217" s="5"/>
     </row>
     <row r="218" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="29"/>
-      <c r="B218" s="30"/>
-      <c r="C218" s="31"/>
-      <c r="D218" s="32"/>
-      <c r="E218" s="32"/>
-      <c r="F218" s="32"/>
-      <c r="G218" s="32"/>
-      <c r="H218" s="33"/>
+      <c r="A218" s="23"/>
+      <c r="B218" s="24"/>
+      <c r="C218" s="25"/>
+      <c r="D218" s="26"/>
+      <c r="E218" s="26"/>
+      <c r="F218" s="26"/>
+      <c r="G218" s="26"/>
+      <c r="H218" s="27"/>
       <c r="I218" s="5"/>
       <c r="J218" s="5"/>
       <c r="K218" s="5"/>
@@ -7005,14 +7012,14 @@
       <c r="Z218" s="5"/>
     </row>
     <row r="219" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="29"/>
-      <c r="B219" s="30"/>
-      <c r="C219" s="31"/>
-      <c r="D219" s="32"/>
-      <c r="E219" s="32"/>
-      <c r="F219" s="32"/>
-      <c r="G219" s="32"/>
-      <c r="H219" s="33"/>
+      <c r="A219" s="23"/>
+      <c r="B219" s="24"/>
+      <c r="C219" s="25"/>
+      <c r="D219" s="26"/>
+      <c r="E219" s="26"/>
+      <c r="F219" s="26"/>
+      <c r="G219" s="26"/>
+      <c r="H219" s="27"/>
       <c r="I219" s="5"/>
       <c r="J219" s="5"/>
       <c r="K219" s="5"/>
@@ -7033,14 +7040,14 @@
       <c r="Z219" s="5"/>
     </row>
     <row r="220" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="29"/>
-      <c r="B220" s="30"/>
-      <c r="C220" s="31"/>
-      <c r="D220" s="32"/>
-      <c r="E220" s="32"/>
-      <c r="F220" s="32"/>
-      <c r="G220" s="32"/>
-      <c r="H220" s="33"/>
+      <c r="A220" s="23"/>
+      <c r="B220" s="24"/>
+      <c r="C220" s="25"/>
+      <c r="D220" s="26"/>
+      <c r="E220" s="26"/>
+      <c r="F220" s="26"/>
+      <c r="G220" s="26"/>
+      <c r="H220" s="27"/>
       <c r="I220" s="5"/>
       <c r="J220" s="5"/>
       <c r="K220" s="5"/>
@@ -7061,14 +7068,14 @@
       <c r="Z220" s="5"/>
     </row>
     <row r="221" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="29"/>
-      <c r="B221" s="30"/>
-      <c r="C221" s="31"/>
-      <c r="D221" s="32"/>
-      <c r="E221" s="32"/>
-      <c r="F221" s="32"/>
-      <c r="G221" s="32"/>
-      <c r="H221" s="33"/>
+      <c r="A221" s="23"/>
+      <c r="B221" s="24"/>
+      <c r="C221" s="25"/>
+      <c r="D221" s="26"/>
+      <c r="E221" s="26"/>
+      <c r="F221" s="26"/>
+      <c r="G221" s="26"/>
+      <c r="H221" s="27"/>
       <c r="I221" s="5"/>
       <c r="J221" s="5"/>
       <c r="K221" s="5"/>
@@ -7089,16 +7096,16 @@
       <c r="Z221" s="5"/>
     </row>
     <row r="222" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="29">
+      <c r="A222" s="23">
         <v>36</v>
       </c>
-      <c r="B222" s="30"/>
-      <c r="C222" s="31"/>
-      <c r="D222" s="32"/>
-      <c r="E222" s="32"/>
-      <c r="F222" s="32"/>
-      <c r="G222" s="32"/>
-      <c r="H222" s="33"/>
+      <c r="B222" s="24"/>
+      <c r="C222" s="25"/>
+      <c r="D222" s="26"/>
+      <c r="E222" s="26"/>
+      <c r="F222" s="26"/>
+      <c r="G222" s="26"/>
+      <c r="H222" s="27"/>
       <c r="I222" s="5"/>
       <c r="J222" s="5"/>
       <c r="K222" s="5"/>
@@ -7119,14 +7126,14 @@
       <c r="Z222" s="5"/>
     </row>
     <row r="223" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="29"/>
-      <c r="B223" s="30"/>
-      <c r="C223" s="31"/>
-      <c r="D223" s="32"/>
-      <c r="E223" s="32"/>
-      <c r="F223" s="32"/>
-      <c r="G223" s="32"/>
-      <c r="H223" s="33"/>
+      <c r="A223" s="23"/>
+      <c r="B223" s="24"/>
+      <c r="C223" s="25"/>
+      <c r="D223" s="26"/>
+      <c r="E223" s="26"/>
+      <c r="F223" s="26"/>
+      <c r="G223" s="26"/>
+      <c r="H223" s="27"/>
       <c r="I223" s="5"/>
       <c r="J223" s="5"/>
       <c r="K223" s="5"/>
@@ -7147,14 +7154,14 @@
       <c r="Z223" s="5"/>
     </row>
     <row r="224" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="29"/>
-      <c r="B224" s="30"/>
-      <c r="C224" s="31"/>
-      <c r="D224" s="32"/>
-      <c r="E224" s="32"/>
-      <c r="F224" s="32"/>
-      <c r="G224" s="32"/>
-      <c r="H224" s="33"/>
+      <c r="A224" s="23"/>
+      <c r="B224" s="24"/>
+      <c r="C224" s="25"/>
+      <c r="D224" s="26"/>
+      <c r="E224" s="26"/>
+      <c r="F224" s="26"/>
+      <c r="G224" s="26"/>
+      <c r="H224" s="27"/>
       <c r="I224" s="5"/>
       <c r="J224" s="5"/>
       <c r="K224" s="5"/>
@@ -7175,14 +7182,14 @@
       <c r="Z224" s="5"/>
     </row>
     <row r="225" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="29"/>
-      <c r="B225" s="30"/>
-      <c r="C225" s="31"/>
-      <c r="D225" s="32"/>
-      <c r="E225" s="32"/>
-      <c r="F225" s="32"/>
-      <c r="G225" s="32"/>
-      <c r="H225" s="33"/>
+      <c r="A225" s="23"/>
+      <c r="B225" s="24"/>
+      <c r="C225" s="25"/>
+      <c r="D225" s="26"/>
+      <c r="E225" s="26"/>
+      <c r="F225" s="26"/>
+      <c r="G225" s="26"/>
+      <c r="H225" s="27"/>
       <c r="I225" s="5"/>
       <c r="J225" s="5"/>
       <c r="K225" s="5"/>
@@ -7203,14 +7210,14 @@
       <c r="Z225" s="5"/>
     </row>
     <row r="226" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="29"/>
-      <c r="B226" s="30"/>
-      <c r="C226" s="31"/>
-      <c r="D226" s="32"/>
-      <c r="E226" s="32"/>
-      <c r="F226" s="32"/>
-      <c r="G226" s="32"/>
-      <c r="H226" s="33"/>
+      <c r="A226" s="23"/>
+      <c r="B226" s="24"/>
+      <c r="C226" s="25"/>
+      <c r="D226" s="26"/>
+      <c r="E226" s="26"/>
+      <c r="F226" s="26"/>
+      <c r="G226" s="26"/>
+      <c r="H226" s="27"/>
       <c r="I226" s="5"/>
       <c r="J226" s="5"/>
       <c r="K226" s="5"/>
@@ -7231,14 +7238,14 @@
       <c r="Z226" s="5"/>
     </row>
     <row r="227" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="29"/>
-      <c r="B227" s="30"/>
-      <c r="C227" s="31"/>
-      <c r="D227" s="32"/>
-      <c r="E227" s="32"/>
-      <c r="F227" s="32"/>
-      <c r="G227" s="32"/>
-      <c r="H227" s="33"/>
+      <c r="A227" s="23"/>
+      <c r="B227" s="24"/>
+      <c r="C227" s="25"/>
+      <c r="D227" s="26"/>
+      <c r="E227" s="26"/>
+      <c r="F227" s="26"/>
+      <c r="G227" s="26"/>
+      <c r="H227" s="27"/>
       <c r="I227" s="5"/>
       <c r="J227" s="5"/>
       <c r="K227" s="5"/>
@@ -7259,16 +7266,16 @@
       <c r="Z227" s="5"/>
     </row>
     <row r="228" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="29">
+      <c r="A228" s="23">
         <v>37</v>
       </c>
-      <c r="B228" s="30"/>
-      <c r="C228" s="31"/>
-      <c r="D228" s="32"/>
-      <c r="E228" s="32"/>
-      <c r="F228" s="32"/>
-      <c r="G228" s="32"/>
-      <c r="H228" s="33"/>
+      <c r="B228" s="24"/>
+      <c r="C228" s="25"/>
+      <c r="D228" s="26"/>
+      <c r="E228" s="26"/>
+      <c r="F228" s="26"/>
+      <c r="G228" s="26"/>
+      <c r="H228" s="27"/>
       <c r="I228" s="5"/>
       <c r="J228" s="5"/>
       <c r="K228" s="5"/>
@@ -7289,14 +7296,14 @@
       <c r="Z228" s="5"/>
     </row>
     <row r="229" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="29"/>
-      <c r="B229" s="30"/>
-      <c r="C229" s="31"/>
-      <c r="D229" s="32"/>
-      <c r="E229" s="32"/>
-      <c r="F229" s="32"/>
-      <c r="G229" s="32"/>
-      <c r="H229" s="33"/>
+      <c r="A229" s="23"/>
+      <c r="B229" s="24"/>
+      <c r="C229" s="25"/>
+      <c r="D229" s="26"/>
+      <c r="E229" s="26"/>
+      <c r="F229" s="26"/>
+      <c r="G229" s="26"/>
+      <c r="H229" s="27"/>
       <c r="I229" s="5"/>
       <c r="J229" s="5"/>
       <c r="K229" s="5"/>
@@ -7317,14 +7324,14 @@
       <c r="Z229" s="5"/>
     </row>
     <row r="230" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="29"/>
-      <c r="B230" s="30"/>
-      <c r="C230" s="31"/>
-      <c r="D230" s="32"/>
-      <c r="E230" s="32"/>
-      <c r="F230" s="32"/>
-      <c r="G230" s="32"/>
-      <c r="H230" s="33"/>
+      <c r="A230" s="23"/>
+      <c r="B230" s="24"/>
+      <c r="C230" s="25"/>
+      <c r="D230" s="26"/>
+      <c r="E230" s="26"/>
+      <c r="F230" s="26"/>
+      <c r="G230" s="26"/>
+      <c r="H230" s="27"/>
       <c r="I230" s="5"/>
       <c r="J230" s="5"/>
       <c r="K230" s="5"/>
@@ -7345,14 +7352,14 @@
       <c r="Z230" s="5"/>
     </row>
     <row r="231" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="29"/>
-      <c r="B231" s="30"/>
-      <c r="C231" s="31"/>
-      <c r="D231" s="32"/>
-      <c r="E231" s="32"/>
-      <c r="F231" s="32"/>
-      <c r="G231" s="32"/>
-      <c r="H231" s="33"/>
+      <c r="A231" s="23"/>
+      <c r="B231" s="24"/>
+      <c r="C231" s="25"/>
+      <c r="D231" s="26"/>
+      <c r="E231" s="26"/>
+      <c r="F231" s="26"/>
+      <c r="G231" s="26"/>
+      <c r="H231" s="27"/>
       <c r="I231" s="5"/>
       <c r="J231" s="5"/>
       <c r="K231" s="5"/>
@@ -7373,14 +7380,14 @@
       <c r="Z231" s="5"/>
     </row>
     <row r="232" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="29"/>
-      <c r="B232" s="30"/>
-      <c r="C232" s="31"/>
-      <c r="D232" s="32"/>
-      <c r="E232" s="32"/>
-      <c r="F232" s="32"/>
-      <c r="G232" s="32"/>
-      <c r="H232" s="33"/>
+      <c r="A232" s="23"/>
+      <c r="B232" s="24"/>
+      <c r="C232" s="25"/>
+      <c r="D232" s="26"/>
+      <c r="E232" s="26"/>
+      <c r="F232" s="26"/>
+      <c r="G232" s="26"/>
+      <c r="H232" s="27"/>
       <c r="I232" s="5"/>
       <c r="J232" s="5"/>
       <c r="K232" s="5"/>
@@ -7401,14 +7408,14 @@
       <c r="Z232" s="5"/>
     </row>
     <row r="233" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="29"/>
-      <c r="B233" s="30"/>
-      <c r="C233" s="31"/>
-      <c r="D233" s="32"/>
-      <c r="E233" s="32"/>
-      <c r="F233" s="32"/>
-      <c r="G233" s="32"/>
-      <c r="H233" s="33"/>
+      <c r="A233" s="23"/>
+      <c r="B233" s="24"/>
+      <c r="C233" s="25"/>
+      <c r="D233" s="26"/>
+      <c r="E233" s="26"/>
+      <c r="F233" s="26"/>
+      <c r="G233" s="26"/>
+      <c r="H233" s="27"/>
       <c r="I233" s="5"/>
       <c r="J233" s="5"/>
       <c r="K233" s="5"/>
@@ -7429,16 +7436,16 @@
       <c r="Z233" s="5"/>
     </row>
     <row r="234" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="29">
+      <c r="A234" s="23">
         <v>38</v>
       </c>
-      <c r="B234" s="30"/>
-      <c r="C234" s="31"/>
-      <c r="D234" s="32"/>
-      <c r="E234" s="32"/>
-      <c r="F234" s="32"/>
-      <c r="G234" s="32"/>
-      <c r="H234" s="33"/>
+      <c r="B234" s="24"/>
+      <c r="C234" s="25"/>
+      <c r="D234" s="26"/>
+      <c r="E234" s="26"/>
+      <c r="F234" s="26"/>
+      <c r="G234" s="26"/>
+      <c r="H234" s="27"/>
       <c r="I234" s="5"/>
       <c r="J234" s="5"/>
       <c r="K234" s="5"/>
@@ -7459,14 +7466,14 @@
       <c r="Z234" s="5"/>
     </row>
     <row r="235" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="29"/>
-      <c r="B235" s="30"/>
-      <c r="C235" s="31"/>
-      <c r="D235" s="32"/>
-      <c r="E235" s="32"/>
-      <c r="F235" s="32"/>
-      <c r="G235" s="32"/>
-      <c r="H235" s="33"/>
+      <c r="A235" s="23"/>
+      <c r="B235" s="24"/>
+      <c r="C235" s="25"/>
+      <c r="D235" s="26"/>
+      <c r="E235" s="26"/>
+      <c r="F235" s="26"/>
+      <c r="G235" s="26"/>
+      <c r="H235" s="27"/>
       <c r="I235" s="5"/>
       <c r="J235" s="5"/>
       <c r="K235" s="5"/>
@@ -7487,14 +7494,14 @@
       <c r="Z235" s="5"/>
     </row>
     <row r="236" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="29"/>
-      <c r="B236" s="30"/>
-      <c r="C236" s="31"/>
-      <c r="D236" s="32"/>
-      <c r="E236" s="32"/>
-      <c r="F236" s="32"/>
-      <c r="G236" s="32"/>
-      <c r="H236" s="33"/>
+      <c r="A236" s="23"/>
+      <c r="B236" s="24"/>
+      <c r="C236" s="25"/>
+      <c r="D236" s="26"/>
+      <c r="E236" s="26"/>
+      <c r="F236" s="26"/>
+      <c r="G236" s="26"/>
+      <c r="H236" s="27"/>
       <c r="I236" s="5"/>
       <c r="J236" s="5"/>
       <c r="K236" s="5"/>
@@ -7515,14 +7522,14 @@
       <c r="Z236" s="5"/>
     </row>
     <row r="237" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="29"/>
-      <c r="B237" s="30"/>
-      <c r="C237" s="31"/>
-      <c r="D237" s="32"/>
-      <c r="E237" s="32"/>
-      <c r="F237" s="32"/>
-      <c r="G237" s="32"/>
-      <c r="H237" s="33"/>
+      <c r="A237" s="23"/>
+      <c r="B237" s="24"/>
+      <c r="C237" s="25"/>
+      <c r="D237" s="26"/>
+      <c r="E237" s="26"/>
+      <c r="F237" s="26"/>
+      <c r="G237" s="26"/>
+      <c r="H237" s="27"/>
       <c r="I237" s="5"/>
       <c r="J237" s="5"/>
       <c r="K237" s="5"/>
@@ -7543,14 +7550,14 @@
       <c r="Z237" s="5"/>
     </row>
     <row r="238" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="29"/>
-      <c r="B238" s="30"/>
-      <c r="C238" s="31"/>
-      <c r="D238" s="32"/>
-      <c r="E238" s="32"/>
-      <c r="F238" s="32"/>
-      <c r="G238" s="32"/>
-      <c r="H238" s="33"/>
+      <c r="A238" s="23"/>
+      <c r="B238" s="24"/>
+      <c r="C238" s="25"/>
+      <c r="D238" s="26"/>
+      <c r="E238" s="26"/>
+      <c r="F238" s="26"/>
+      <c r="G238" s="26"/>
+      <c r="H238" s="27"/>
       <c r="I238" s="5"/>
       <c r="J238" s="5"/>
       <c r="K238" s="5"/>
@@ -7571,14 +7578,14 @@
       <c r="Z238" s="5"/>
     </row>
     <row r="239" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="29"/>
-      <c r="B239" s="30"/>
-      <c r="C239" s="31"/>
-      <c r="D239" s="32"/>
-      <c r="E239" s="32"/>
-      <c r="F239" s="32"/>
-      <c r="G239" s="32"/>
-      <c r="H239" s="33"/>
+      <c r="A239" s="23"/>
+      <c r="B239" s="24"/>
+      <c r="C239" s="25"/>
+      <c r="D239" s="26"/>
+      <c r="E239" s="26"/>
+      <c r="F239" s="26"/>
+      <c r="G239" s="26"/>
+      <c r="H239" s="27"/>
       <c r="I239" s="5"/>
       <c r="J239" s="5"/>
       <c r="K239" s="5"/>
@@ -7599,16 +7606,16 @@
       <c r="Z239" s="5"/>
     </row>
     <row r="240" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="29">
+      <c r="A240" s="23">
         <v>39</v>
       </c>
-      <c r="B240" s="30"/>
-      <c r="C240" s="31"/>
-      <c r="D240" s="32"/>
-      <c r="E240" s="32"/>
-      <c r="F240" s="32"/>
-      <c r="G240" s="32"/>
-      <c r="H240" s="33"/>
+      <c r="B240" s="24"/>
+      <c r="C240" s="25"/>
+      <c r="D240" s="26"/>
+      <c r="E240" s="26"/>
+      <c r="F240" s="26"/>
+      <c r="G240" s="26"/>
+      <c r="H240" s="27"/>
       <c r="I240" s="5"/>
       <c r="J240" s="5"/>
       <c r="K240" s="5"/>
@@ -7629,14 +7636,14 @@
       <c r="Z240" s="5"/>
     </row>
     <row r="241" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="29"/>
-      <c r="B241" s="30"/>
-      <c r="C241" s="31"/>
-      <c r="D241" s="32"/>
-      <c r="E241" s="32"/>
-      <c r="F241" s="32"/>
-      <c r="G241" s="32"/>
-      <c r="H241" s="33"/>
+      <c r="A241" s="23"/>
+      <c r="B241" s="24"/>
+      <c r="C241" s="25"/>
+      <c r="D241" s="26"/>
+      <c r="E241" s="26"/>
+      <c r="F241" s="26"/>
+      <c r="G241" s="26"/>
+      <c r="H241" s="27"/>
       <c r="I241" s="5"/>
       <c r="J241" s="5"/>
       <c r="K241" s="5"/>
@@ -7657,14 +7664,14 @@
       <c r="Z241" s="5"/>
     </row>
     <row r="242" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="29"/>
-      <c r="B242" s="30"/>
-      <c r="C242" s="31"/>
-      <c r="D242" s="32"/>
-      <c r="E242" s="32"/>
-      <c r="F242" s="32"/>
-      <c r="G242" s="32"/>
-      <c r="H242" s="33"/>
+      <c r="A242" s="23"/>
+      <c r="B242" s="24"/>
+      <c r="C242" s="25"/>
+      <c r="D242" s="26"/>
+      <c r="E242" s="26"/>
+      <c r="F242" s="26"/>
+      <c r="G242" s="26"/>
+      <c r="H242" s="27"/>
       <c r="I242" s="5"/>
       <c r="J242" s="5"/>
       <c r="K242" s="5"/>
@@ -7685,14 +7692,14 @@
       <c r="Z242" s="5"/>
     </row>
     <row r="243" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="29"/>
-      <c r="B243" s="30"/>
-      <c r="C243" s="31"/>
-      <c r="D243" s="32"/>
-      <c r="E243" s="32"/>
-      <c r="F243" s="32"/>
-      <c r="G243" s="32"/>
-      <c r="H243" s="33"/>
+      <c r="A243" s="23"/>
+      <c r="B243" s="24"/>
+      <c r="C243" s="25"/>
+      <c r="D243" s="26"/>
+      <c r="E243" s="26"/>
+      <c r="F243" s="26"/>
+      <c r="G243" s="26"/>
+      <c r="H243" s="27"/>
       <c r="I243" s="5"/>
       <c r="J243" s="5"/>
       <c r="K243" s="5"/>
@@ -7713,14 +7720,14 @@
       <c r="Z243" s="5"/>
     </row>
     <row r="244" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="29"/>
-      <c r="B244" s="30"/>
-      <c r="C244" s="31"/>
-      <c r="D244" s="32"/>
-      <c r="E244" s="32"/>
-      <c r="F244" s="32"/>
-      <c r="G244" s="32"/>
-      <c r="H244" s="33"/>
+      <c r="A244" s="23"/>
+      <c r="B244" s="24"/>
+      <c r="C244" s="25"/>
+      <c r="D244" s="26"/>
+      <c r="E244" s="26"/>
+      <c r="F244" s="26"/>
+      <c r="G244" s="26"/>
+      <c r="H244" s="27"/>
       <c r="I244" s="5"/>
       <c r="J244" s="5"/>
       <c r="K244" s="5"/>
@@ -7741,14 +7748,14 @@
       <c r="Z244" s="5"/>
     </row>
     <row r="245" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="29"/>
-      <c r="B245" s="30"/>
-      <c r="C245" s="31"/>
-      <c r="D245" s="32"/>
-      <c r="E245" s="32"/>
-      <c r="F245" s="32"/>
-      <c r="G245" s="32"/>
-      <c r="H245" s="33"/>
+      <c r="A245" s="23"/>
+      <c r="B245" s="24"/>
+      <c r="C245" s="25"/>
+      <c r="D245" s="26"/>
+      <c r="E245" s="26"/>
+      <c r="F245" s="26"/>
+      <c r="G245" s="26"/>
+      <c r="H245" s="27"/>
       <c r="I245" s="5"/>
       <c r="J245" s="5"/>
       <c r="K245" s="5"/>
@@ -7769,16 +7776,16 @@
       <c r="Z245" s="5"/>
     </row>
     <row r="246" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="29">
+      <c r="A246" s="23">
         <v>40</v>
       </c>
-      <c r="B246" s="30"/>
-      <c r="C246" s="31"/>
-      <c r="D246" s="32"/>
-      <c r="E246" s="32"/>
-      <c r="F246" s="32"/>
-      <c r="G246" s="32"/>
-      <c r="H246" s="33"/>
+      <c r="B246" s="24"/>
+      <c r="C246" s="25"/>
+      <c r="D246" s="26"/>
+      <c r="E246" s="26"/>
+      <c r="F246" s="26"/>
+      <c r="G246" s="26"/>
+      <c r="H246" s="27"/>
       <c r="I246" s="5"/>
       <c r="J246" s="5"/>
       <c r="K246" s="5"/>
@@ -7799,14 +7806,14 @@
       <c r="Z246" s="5"/>
     </row>
     <row r="247" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="29"/>
-      <c r="B247" s="30"/>
-      <c r="C247" s="31"/>
-      <c r="D247" s="32"/>
-      <c r="E247" s="32"/>
-      <c r="F247" s="32"/>
-      <c r="G247" s="32"/>
-      <c r="H247" s="33"/>
+      <c r="A247" s="23"/>
+      <c r="B247" s="24"/>
+      <c r="C247" s="25"/>
+      <c r="D247" s="26"/>
+      <c r="E247" s="26"/>
+      <c r="F247" s="26"/>
+      <c r="G247" s="26"/>
+      <c r="H247" s="27"/>
       <c r="I247" s="5"/>
       <c r="J247" s="5"/>
       <c r="K247" s="5"/>
@@ -7827,14 +7834,14 @@
       <c r="Z247" s="5"/>
     </row>
     <row r="248" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="29"/>
-      <c r="B248" s="30"/>
-      <c r="C248" s="31"/>
-      <c r="D248" s="32"/>
-      <c r="E248" s="32"/>
-      <c r="F248" s="32"/>
-      <c r="G248" s="32"/>
-      <c r="H248" s="33"/>
+      <c r="A248" s="23"/>
+      <c r="B248" s="24"/>
+      <c r="C248" s="25"/>
+      <c r="D248" s="26"/>
+      <c r="E248" s="26"/>
+      <c r="F248" s="26"/>
+      <c r="G248" s="26"/>
+      <c r="H248" s="27"/>
       <c r="I248" s="5"/>
       <c r="J248" s="5"/>
       <c r="K248" s="5"/>
@@ -7855,14 +7862,14 @@
       <c r="Z248" s="5"/>
     </row>
     <row r="249" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="29"/>
-      <c r="B249" s="30"/>
-      <c r="C249" s="31"/>
-      <c r="D249" s="32"/>
-      <c r="E249" s="32"/>
-      <c r="F249" s="32"/>
-      <c r="G249" s="32"/>
-      <c r="H249" s="33"/>
+      <c r="A249" s="23"/>
+      <c r="B249" s="24"/>
+      <c r="C249" s="25"/>
+      <c r="D249" s="26"/>
+      <c r="E249" s="26"/>
+      <c r="F249" s="26"/>
+      <c r="G249" s="26"/>
+      <c r="H249" s="27"/>
       <c r="I249" s="5"/>
       <c r="J249" s="5"/>
       <c r="K249" s="5"/>
@@ -7883,14 +7890,14 @@
       <c r="Z249" s="5"/>
     </row>
     <row r="250" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="29"/>
-      <c r="B250" s="30"/>
-      <c r="C250" s="31"/>
-      <c r="D250" s="32"/>
-      <c r="E250" s="32"/>
-      <c r="F250" s="32"/>
-      <c r="G250" s="32"/>
-      <c r="H250" s="33"/>
+      <c r="A250" s="23"/>
+      <c r="B250" s="24"/>
+      <c r="C250" s="25"/>
+      <c r="D250" s="26"/>
+      <c r="E250" s="26"/>
+      <c r="F250" s="26"/>
+      <c r="G250" s="26"/>
+      <c r="H250" s="27"/>
       <c r="I250" s="5"/>
       <c r="J250" s="5"/>
       <c r="K250" s="5"/>
@@ -7911,14 +7918,14 @@
       <c r="Z250" s="5"/>
     </row>
     <row r="251" spans="1:26" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="29"/>
-      <c r="B251" s="30"/>
-      <c r="C251" s="31"/>
-      <c r="D251" s="32"/>
-      <c r="E251" s="32"/>
-      <c r="F251" s="32"/>
-      <c r="G251" s="32"/>
-      <c r="H251" s="33"/>
+      <c r="A251" s="23"/>
+      <c r="B251" s="24"/>
+      <c r="C251" s="25"/>
+      <c r="D251" s="26"/>
+      <c r="E251" s="26"/>
+      <c r="F251" s="26"/>
+      <c r="G251" s="26"/>
+      <c r="H251" s="27"/>
       <c r="I251" s="5"/>
       <c r="J251" s="5"/>
       <c r="K251" s="5"/>
@@ -8006,9 +8013,9 @@
       <c r="B255" s="15"/>
       <c r="C255" s="15"/>
       <c r="D255" s="15"/>
-      <c r="E255" s="34"/>
-      <c r="F255" s="34"/>
-      <c r="G255" s="34"/>
+      <c r="E255" s="20"/>
+      <c r="F255" s="20"/>
+      <c r="G255" s="20"/>
       <c r="H255" s="16"/>
       <c r="I255" s="5"/>
       <c r="J255" s="5"/>
@@ -8027,9 +8034,9 @@
       <c r="B256" s="15"/>
       <c r="C256" s="15"/>
       <c r="D256" s="15"/>
-      <c r="E256" s="34"/>
-      <c r="F256" s="34"/>
-      <c r="G256" s="34"/>
+      <c r="E256" s="20"/>
+      <c r="F256" s="20"/>
+      <c r="G256" s="20"/>
       <c r="H256" s="16"/>
       <c r="I256" s="5"/>
       <c r="J256" s="5"/>
@@ -8048,9 +8055,9 @@
       <c r="B257" s="15"/>
       <c r="C257" s="15"/>
       <c r="D257" s="15"/>
-      <c r="E257" s="34"/>
-      <c r="F257" s="34"/>
-      <c r="G257" s="34"/>
+      <c r="E257" s="20"/>
+      <c r="F257" s="20"/>
+      <c r="G257" s="20"/>
       <c r="H257" s="16"/>
       <c r="I257" s="5"/>
       <c r="J257" s="5"/>
@@ -8069,9 +8076,9 @@
       <c r="B258" s="15"/>
       <c r="C258" s="15"/>
       <c r="D258" s="15"/>
-      <c r="E258" s="34"/>
-      <c r="F258" s="34"/>
-      <c r="G258" s="34"/>
+      <c r="E258" s="20"/>
+      <c r="F258" s="20"/>
+      <c r="G258" s="20"/>
       <c r="H258" s="16"/>
       <c r="I258" s="5"/>
       <c r="J258" s="5"/>
@@ -8090,9 +8097,9 @@
       <c r="B259" s="15"/>
       <c r="C259" s="15"/>
       <c r="D259" s="15"/>
-      <c r="E259" s="34"/>
-      <c r="F259" s="34"/>
-      <c r="G259" s="34"/>
+      <c r="E259" s="20"/>
+      <c r="F259" s="20"/>
+      <c r="G259" s="20"/>
       <c r="H259" s="16"/>
       <c r="I259" s="5"/>
       <c r="J259" s="5"/>
@@ -8111,11 +8118,11 @@
       <c r="B260" s="15"/>
       <c r="C260" s="15"/>
       <c r="D260" s="15"/>
-      <c r="E260" s="35" t="s">
-        <v>22</v>
+      <c r="E260" s="21" t="s">
+        <v>20</v>
       </c>
-      <c r="F260" s="35"/>
-      <c r="G260" s="35"/>
+      <c r="F260" s="21"/>
+      <c r="G260" s="21"/>
       <c r="H260" s="16"/>
       <c r="I260" s="5"/>
       <c r="J260" s="5"/>
@@ -8134,10 +8141,10 @@
       <c r="B261" s="15"/>
       <c r="C261" s="15"/>
       <c r="D261" s="15"/>
-      <c r="E261" s="36" t="s">
-        <v>20</v>
+      <c r="E261" s="22" t="s">
+        <v>18</v>
       </c>
-      <c r="F261" s="36"/>
+      <c r="F261" s="22"/>
       <c r="G261" s="17"/>
       <c r="H261" s="16"/>
       <c r="I261" s="5"/>
@@ -8157,10 +8164,10 @@
       <c r="B262" s="15"/>
       <c r="C262" s="15"/>
       <c r="D262" s="15"/>
-      <c r="E262" s="36" t="s">
-        <v>21</v>
+      <c r="E262" s="22" t="s">
+        <v>19</v>
       </c>
-      <c r="F262" s="36"/>
+      <c r="F262" s="22"/>
       <c r="G262" s="17"/>
       <c r="H262" s="16"/>
       <c r="I262" s="5"/>
@@ -27293,390 +27300,25 @@
     </row>
   </sheetData>
   <mergeCells count="419">
-    <mergeCell ref="E255:G259"/>
-    <mergeCell ref="E260:G260"/>
-    <mergeCell ref="E261:F261"/>
-    <mergeCell ref="E262:F262"/>
-    <mergeCell ref="A246:A251"/>
-    <mergeCell ref="B246:B251"/>
-    <mergeCell ref="C246:C251"/>
-    <mergeCell ref="D246:G246"/>
-    <mergeCell ref="H246:H251"/>
-    <mergeCell ref="D247:G247"/>
-    <mergeCell ref="D248:G248"/>
-    <mergeCell ref="D249:G249"/>
-    <mergeCell ref="D250:G250"/>
-    <mergeCell ref="D251:G251"/>
-    <mergeCell ref="A240:A245"/>
-    <mergeCell ref="B240:B245"/>
-    <mergeCell ref="C240:C245"/>
-    <mergeCell ref="D240:G240"/>
-    <mergeCell ref="H240:H245"/>
-    <mergeCell ref="D241:G241"/>
-    <mergeCell ref="D242:G242"/>
-    <mergeCell ref="D243:G243"/>
-    <mergeCell ref="D244:G244"/>
-    <mergeCell ref="D245:G245"/>
-    <mergeCell ref="A234:A239"/>
-    <mergeCell ref="B234:B239"/>
-    <mergeCell ref="C234:C239"/>
-    <mergeCell ref="D234:G234"/>
-    <mergeCell ref="H234:H239"/>
-    <mergeCell ref="D235:G235"/>
-    <mergeCell ref="D236:G236"/>
-    <mergeCell ref="D237:G237"/>
-    <mergeCell ref="D238:G238"/>
-    <mergeCell ref="D239:G239"/>
-    <mergeCell ref="A228:A233"/>
-    <mergeCell ref="B228:B233"/>
-    <mergeCell ref="C228:C233"/>
-    <mergeCell ref="D228:G228"/>
-    <mergeCell ref="H228:H233"/>
-    <mergeCell ref="D229:G229"/>
-    <mergeCell ref="D230:G230"/>
-    <mergeCell ref="D231:G231"/>
-    <mergeCell ref="D232:G232"/>
-    <mergeCell ref="D233:G233"/>
-    <mergeCell ref="A222:A227"/>
-    <mergeCell ref="B222:B227"/>
-    <mergeCell ref="C222:C227"/>
-    <mergeCell ref="D222:G222"/>
-    <mergeCell ref="H222:H227"/>
-    <mergeCell ref="D223:G223"/>
-    <mergeCell ref="D224:G224"/>
-    <mergeCell ref="D225:G225"/>
-    <mergeCell ref="D226:G226"/>
-    <mergeCell ref="D227:G227"/>
-    <mergeCell ref="A216:A221"/>
-    <mergeCell ref="B216:B221"/>
-    <mergeCell ref="C216:C221"/>
-    <mergeCell ref="D216:G216"/>
-    <mergeCell ref="H216:H221"/>
-    <mergeCell ref="D217:G217"/>
-    <mergeCell ref="D218:G218"/>
-    <mergeCell ref="D219:G219"/>
-    <mergeCell ref="D220:G220"/>
-    <mergeCell ref="D221:G221"/>
-    <mergeCell ref="A210:A215"/>
-    <mergeCell ref="B210:B215"/>
-    <mergeCell ref="C210:C215"/>
-    <mergeCell ref="D210:G210"/>
-    <mergeCell ref="H210:H215"/>
-    <mergeCell ref="D211:G211"/>
-    <mergeCell ref="D212:G212"/>
-    <mergeCell ref="D213:G213"/>
-    <mergeCell ref="D214:G214"/>
-    <mergeCell ref="D215:G215"/>
-    <mergeCell ref="A204:A209"/>
-    <mergeCell ref="B204:B209"/>
-    <mergeCell ref="C204:C209"/>
-    <mergeCell ref="D204:G204"/>
-    <mergeCell ref="H204:H209"/>
-    <mergeCell ref="D205:G205"/>
-    <mergeCell ref="D206:G206"/>
-    <mergeCell ref="D207:G207"/>
-    <mergeCell ref="D208:G208"/>
-    <mergeCell ref="D209:G209"/>
-    <mergeCell ref="A198:A203"/>
-    <mergeCell ref="B198:B203"/>
-    <mergeCell ref="C198:C203"/>
-    <mergeCell ref="D198:G198"/>
-    <mergeCell ref="H198:H203"/>
-    <mergeCell ref="D199:G199"/>
-    <mergeCell ref="D200:G200"/>
-    <mergeCell ref="D201:G201"/>
-    <mergeCell ref="D202:G202"/>
-    <mergeCell ref="D203:G203"/>
-    <mergeCell ref="A192:A197"/>
-    <mergeCell ref="B192:B197"/>
-    <mergeCell ref="C192:C197"/>
-    <mergeCell ref="D192:G192"/>
-    <mergeCell ref="H192:H197"/>
-    <mergeCell ref="D193:G193"/>
-    <mergeCell ref="D194:G194"/>
-    <mergeCell ref="D195:G195"/>
-    <mergeCell ref="D196:G196"/>
-    <mergeCell ref="D197:G197"/>
-    <mergeCell ref="A186:A191"/>
-    <mergeCell ref="B186:B191"/>
-    <mergeCell ref="C186:C191"/>
-    <mergeCell ref="D186:G186"/>
-    <mergeCell ref="H186:H191"/>
-    <mergeCell ref="D187:G187"/>
-    <mergeCell ref="D188:G188"/>
-    <mergeCell ref="D189:G189"/>
-    <mergeCell ref="D190:G190"/>
-    <mergeCell ref="D191:G191"/>
-    <mergeCell ref="A180:A185"/>
-    <mergeCell ref="B180:B185"/>
-    <mergeCell ref="C180:C185"/>
-    <mergeCell ref="D180:G180"/>
-    <mergeCell ref="H180:H185"/>
-    <mergeCell ref="D181:G181"/>
-    <mergeCell ref="D182:G182"/>
-    <mergeCell ref="D183:G183"/>
-    <mergeCell ref="D184:G184"/>
-    <mergeCell ref="D185:G185"/>
-    <mergeCell ref="A174:A179"/>
-    <mergeCell ref="B174:B179"/>
-    <mergeCell ref="C174:C179"/>
-    <mergeCell ref="D174:G174"/>
-    <mergeCell ref="H174:H179"/>
-    <mergeCell ref="D175:G175"/>
-    <mergeCell ref="D176:G176"/>
-    <mergeCell ref="D177:G177"/>
-    <mergeCell ref="D178:G178"/>
-    <mergeCell ref="D179:G179"/>
-    <mergeCell ref="A168:A173"/>
-    <mergeCell ref="B168:B173"/>
-    <mergeCell ref="C168:C173"/>
-    <mergeCell ref="D168:G168"/>
-    <mergeCell ref="H168:H173"/>
-    <mergeCell ref="D169:G169"/>
-    <mergeCell ref="D170:G170"/>
-    <mergeCell ref="D171:G171"/>
-    <mergeCell ref="D172:G172"/>
-    <mergeCell ref="D173:G173"/>
-    <mergeCell ref="A162:A167"/>
-    <mergeCell ref="B162:B167"/>
-    <mergeCell ref="C162:C167"/>
-    <mergeCell ref="D162:G162"/>
-    <mergeCell ref="H162:H167"/>
-    <mergeCell ref="D163:G163"/>
-    <mergeCell ref="D164:G164"/>
-    <mergeCell ref="D165:G165"/>
-    <mergeCell ref="D166:G166"/>
-    <mergeCell ref="D167:G167"/>
-    <mergeCell ref="A156:A161"/>
-    <mergeCell ref="B156:B161"/>
-    <mergeCell ref="C156:C161"/>
-    <mergeCell ref="D156:G156"/>
-    <mergeCell ref="H156:H161"/>
-    <mergeCell ref="D157:G157"/>
-    <mergeCell ref="D158:G158"/>
-    <mergeCell ref="D159:G159"/>
-    <mergeCell ref="D160:G160"/>
-    <mergeCell ref="D161:G161"/>
-    <mergeCell ref="A150:A155"/>
-    <mergeCell ref="B150:B155"/>
-    <mergeCell ref="C150:C155"/>
-    <mergeCell ref="D150:G150"/>
-    <mergeCell ref="H150:H155"/>
-    <mergeCell ref="D151:G151"/>
-    <mergeCell ref="D152:G152"/>
-    <mergeCell ref="D153:G153"/>
-    <mergeCell ref="D154:G154"/>
-    <mergeCell ref="D155:G155"/>
-    <mergeCell ref="A144:A149"/>
-    <mergeCell ref="B144:B149"/>
-    <mergeCell ref="C144:C149"/>
-    <mergeCell ref="D144:G144"/>
-    <mergeCell ref="H144:H149"/>
-    <mergeCell ref="D145:G145"/>
-    <mergeCell ref="D146:G146"/>
-    <mergeCell ref="D147:G147"/>
-    <mergeCell ref="D148:G148"/>
-    <mergeCell ref="D149:G149"/>
-    <mergeCell ref="A138:A143"/>
-    <mergeCell ref="B138:B143"/>
-    <mergeCell ref="C138:C143"/>
-    <mergeCell ref="D138:G138"/>
-    <mergeCell ref="H138:H143"/>
-    <mergeCell ref="D139:G139"/>
-    <mergeCell ref="D140:G140"/>
-    <mergeCell ref="D141:G141"/>
-    <mergeCell ref="D142:G142"/>
-    <mergeCell ref="D143:G143"/>
-    <mergeCell ref="A132:A137"/>
-    <mergeCell ref="B132:B137"/>
-    <mergeCell ref="C132:C137"/>
-    <mergeCell ref="D132:G132"/>
-    <mergeCell ref="H132:H137"/>
-    <mergeCell ref="D133:G133"/>
-    <mergeCell ref="D134:G134"/>
-    <mergeCell ref="D135:G135"/>
-    <mergeCell ref="D136:G136"/>
-    <mergeCell ref="D137:G137"/>
-    <mergeCell ref="A126:A131"/>
-    <mergeCell ref="B126:B131"/>
-    <mergeCell ref="C126:C131"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="H126:H131"/>
-    <mergeCell ref="D127:G127"/>
-    <mergeCell ref="D128:G128"/>
-    <mergeCell ref="D129:G129"/>
-    <mergeCell ref="D130:G130"/>
-    <mergeCell ref="D131:G131"/>
-    <mergeCell ref="A120:A125"/>
-    <mergeCell ref="B120:B125"/>
-    <mergeCell ref="C120:C125"/>
-    <mergeCell ref="D120:G120"/>
-    <mergeCell ref="H120:H125"/>
-    <mergeCell ref="D121:G121"/>
-    <mergeCell ref="D122:G122"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="D124:G124"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="B114:B119"/>
-    <mergeCell ref="C114:C119"/>
-    <mergeCell ref="D114:G114"/>
-    <mergeCell ref="H114:H119"/>
-    <mergeCell ref="D115:G115"/>
-    <mergeCell ref="D116:G116"/>
-    <mergeCell ref="D117:G117"/>
-    <mergeCell ref="D118:G118"/>
-    <mergeCell ref="D119:G119"/>
-    <mergeCell ref="A108:A113"/>
-    <mergeCell ref="B108:B113"/>
-    <mergeCell ref="C108:C113"/>
-    <mergeCell ref="D108:G108"/>
-    <mergeCell ref="H108:H113"/>
-    <mergeCell ref="D109:G109"/>
-    <mergeCell ref="D110:G110"/>
-    <mergeCell ref="D111:G111"/>
-    <mergeCell ref="D112:G112"/>
-    <mergeCell ref="D113:G113"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="C102:C107"/>
-    <mergeCell ref="D102:G102"/>
-    <mergeCell ref="H102:H107"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D104:G104"/>
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="A96:A101"/>
-    <mergeCell ref="B96:B101"/>
-    <mergeCell ref="C96:C101"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="H96:H101"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D100:G100"/>
-    <mergeCell ref="D101:G101"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="B90:B95"/>
-    <mergeCell ref="C90:C95"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="H90:H95"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="D92:G92"/>
-    <mergeCell ref="D93:G93"/>
-    <mergeCell ref="D94:G94"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="A84:A89"/>
-    <mergeCell ref="B84:B89"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="H84:H89"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="B78:B83"/>
-    <mergeCell ref="C78:C83"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="H78:H83"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="A72:A77"/>
-    <mergeCell ref="B72:B77"/>
-    <mergeCell ref="C72:C77"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:H77"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="B66:B71"/>
-    <mergeCell ref="C66:C71"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="H66:H71"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="C60:C65"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="H60:H65"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H54:H59"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="H48:H53"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="C42:C47"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="H42:H47"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="C36:C41"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:H41"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:H35"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:H29"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="D12:G12"/>
     <mergeCell ref="H12:H17"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
@@ -27693,28 +27335,393 @@
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D23:G23"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:F2"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:H29"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:H35"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="C36:C41"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:H41"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="C42:C47"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H42:H47"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="H48:H53"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H54:H59"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="C60:C65"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="H60:H65"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="C66:C71"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="H66:H71"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="A72:A77"/>
+    <mergeCell ref="B72:B77"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:H77"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="H78:H83"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="A84:A89"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="H84:H89"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="B90:B95"/>
+    <mergeCell ref="C90:C95"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="H90:H95"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="A96:A101"/>
+    <mergeCell ref="B96:B101"/>
+    <mergeCell ref="C96:C101"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="H96:H101"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="C102:C107"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="H102:H107"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D104:G104"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="A108:A113"/>
+    <mergeCell ref="B108:B113"/>
+    <mergeCell ref="C108:C113"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="H108:H113"/>
+    <mergeCell ref="D109:G109"/>
+    <mergeCell ref="D110:G110"/>
+    <mergeCell ref="D111:G111"/>
+    <mergeCell ref="D112:G112"/>
+    <mergeCell ref="D113:G113"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="B114:B119"/>
+    <mergeCell ref="C114:C119"/>
+    <mergeCell ref="D114:G114"/>
+    <mergeCell ref="H114:H119"/>
+    <mergeCell ref="D115:G115"/>
+    <mergeCell ref="D116:G116"/>
+    <mergeCell ref="D117:G117"/>
+    <mergeCell ref="D118:G118"/>
+    <mergeCell ref="D119:G119"/>
+    <mergeCell ref="A120:A125"/>
+    <mergeCell ref="B120:B125"/>
+    <mergeCell ref="C120:C125"/>
+    <mergeCell ref="D120:G120"/>
+    <mergeCell ref="H120:H125"/>
+    <mergeCell ref="D121:G121"/>
+    <mergeCell ref="D122:G122"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="D124:G124"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="A126:A131"/>
+    <mergeCell ref="B126:B131"/>
+    <mergeCell ref="C126:C131"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="H126:H131"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="D128:G128"/>
+    <mergeCell ref="D129:G129"/>
+    <mergeCell ref="D130:G130"/>
+    <mergeCell ref="D131:G131"/>
+    <mergeCell ref="A132:A137"/>
+    <mergeCell ref="B132:B137"/>
+    <mergeCell ref="C132:C137"/>
+    <mergeCell ref="D132:G132"/>
+    <mergeCell ref="H132:H137"/>
+    <mergeCell ref="D133:G133"/>
+    <mergeCell ref="D134:G134"/>
+    <mergeCell ref="D135:G135"/>
+    <mergeCell ref="D136:G136"/>
+    <mergeCell ref="D137:G137"/>
+    <mergeCell ref="A138:A143"/>
+    <mergeCell ref="B138:B143"/>
+    <mergeCell ref="C138:C143"/>
+    <mergeCell ref="D138:G138"/>
+    <mergeCell ref="H138:H143"/>
+    <mergeCell ref="D139:G139"/>
+    <mergeCell ref="D140:G140"/>
+    <mergeCell ref="D141:G141"/>
+    <mergeCell ref="D142:G142"/>
+    <mergeCell ref="D143:G143"/>
+    <mergeCell ref="A144:A149"/>
+    <mergeCell ref="B144:B149"/>
+    <mergeCell ref="C144:C149"/>
+    <mergeCell ref="D144:G144"/>
+    <mergeCell ref="H144:H149"/>
+    <mergeCell ref="D145:G145"/>
+    <mergeCell ref="D146:G146"/>
+    <mergeCell ref="D147:G147"/>
+    <mergeCell ref="D148:G148"/>
+    <mergeCell ref="D149:G149"/>
+    <mergeCell ref="A150:A155"/>
+    <mergeCell ref="B150:B155"/>
+    <mergeCell ref="C150:C155"/>
+    <mergeCell ref="D150:G150"/>
+    <mergeCell ref="H150:H155"/>
+    <mergeCell ref="D151:G151"/>
+    <mergeCell ref="D152:G152"/>
+    <mergeCell ref="D153:G153"/>
+    <mergeCell ref="D154:G154"/>
+    <mergeCell ref="D155:G155"/>
+    <mergeCell ref="A156:A161"/>
+    <mergeCell ref="B156:B161"/>
+    <mergeCell ref="C156:C161"/>
+    <mergeCell ref="D156:G156"/>
+    <mergeCell ref="H156:H161"/>
+    <mergeCell ref="D157:G157"/>
+    <mergeCell ref="D158:G158"/>
+    <mergeCell ref="D159:G159"/>
+    <mergeCell ref="D160:G160"/>
+    <mergeCell ref="D161:G161"/>
+    <mergeCell ref="A162:A167"/>
+    <mergeCell ref="B162:B167"/>
+    <mergeCell ref="C162:C167"/>
+    <mergeCell ref="D162:G162"/>
+    <mergeCell ref="H162:H167"/>
+    <mergeCell ref="D163:G163"/>
+    <mergeCell ref="D164:G164"/>
+    <mergeCell ref="D165:G165"/>
+    <mergeCell ref="D166:G166"/>
+    <mergeCell ref="D167:G167"/>
+    <mergeCell ref="A168:A173"/>
+    <mergeCell ref="B168:B173"/>
+    <mergeCell ref="C168:C173"/>
+    <mergeCell ref="D168:G168"/>
+    <mergeCell ref="H168:H173"/>
+    <mergeCell ref="D169:G169"/>
+    <mergeCell ref="D170:G170"/>
+    <mergeCell ref="D171:G171"/>
+    <mergeCell ref="D172:G172"/>
+    <mergeCell ref="D173:G173"/>
+    <mergeCell ref="A174:A179"/>
+    <mergeCell ref="B174:B179"/>
+    <mergeCell ref="C174:C179"/>
+    <mergeCell ref="D174:G174"/>
+    <mergeCell ref="H174:H179"/>
+    <mergeCell ref="D175:G175"/>
+    <mergeCell ref="D176:G176"/>
+    <mergeCell ref="D177:G177"/>
+    <mergeCell ref="D178:G178"/>
+    <mergeCell ref="D179:G179"/>
+    <mergeCell ref="A180:A185"/>
+    <mergeCell ref="B180:B185"/>
+    <mergeCell ref="C180:C185"/>
+    <mergeCell ref="D180:G180"/>
+    <mergeCell ref="H180:H185"/>
+    <mergeCell ref="D181:G181"/>
+    <mergeCell ref="D182:G182"/>
+    <mergeCell ref="D183:G183"/>
+    <mergeCell ref="D184:G184"/>
+    <mergeCell ref="D185:G185"/>
+    <mergeCell ref="A186:A191"/>
+    <mergeCell ref="B186:B191"/>
+    <mergeCell ref="C186:C191"/>
+    <mergeCell ref="D186:G186"/>
+    <mergeCell ref="H186:H191"/>
+    <mergeCell ref="D187:G187"/>
+    <mergeCell ref="D188:G188"/>
+    <mergeCell ref="D189:G189"/>
+    <mergeCell ref="D190:G190"/>
+    <mergeCell ref="D191:G191"/>
+    <mergeCell ref="A192:A197"/>
+    <mergeCell ref="B192:B197"/>
+    <mergeCell ref="C192:C197"/>
+    <mergeCell ref="D192:G192"/>
+    <mergeCell ref="H192:H197"/>
+    <mergeCell ref="D193:G193"/>
+    <mergeCell ref="D194:G194"/>
+    <mergeCell ref="D195:G195"/>
+    <mergeCell ref="D196:G196"/>
+    <mergeCell ref="D197:G197"/>
+    <mergeCell ref="A198:A203"/>
+    <mergeCell ref="B198:B203"/>
+    <mergeCell ref="C198:C203"/>
+    <mergeCell ref="D198:G198"/>
+    <mergeCell ref="H198:H203"/>
+    <mergeCell ref="D199:G199"/>
+    <mergeCell ref="D200:G200"/>
+    <mergeCell ref="D201:G201"/>
+    <mergeCell ref="D202:G202"/>
+    <mergeCell ref="D203:G203"/>
+    <mergeCell ref="A204:A209"/>
+    <mergeCell ref="B204:B209"/>
+    <mergeCell ref="C204:C209"/>
+    <mergeCell ref="D204:G204"/>
+    <mergeCell ref="H204:H209"/>
+    <mergeCell ref="D205:G205"/>
+    <mergeCell ref="D206:G206"/>
+    <mergeCell ref="D207:G207"/>
+    <mergeCell ref="D208:G208"/>
+    <mergeCell ref="D209:G209"/>
+    <mergeCell ref="A210:A215"/>
+    <mergeCell ref="B210:B215"/>
+    <mergeCell ref="C210:C215"/>
+    <mergeCell ref="D210:G210"/>
+    <mergeCell ref="H210:H215"/>
+    <mergeCell ref="D211:G211"/>
+    <mergeCell ref="D212:G212"/>
+    <mergeCell ref="D213:G213"/>
+    <mergeCell ref="D214:G214"/>
+    <mergeCell ref="D215:G215"/>
+    <mergeCell ref="A216:A221"/>
+    <mergeCell ref="B216:B221"/>
+    <mergeCell ref="C216:C221"/>
+    <mergeCell ref="D216:G216"/>
+    <mergeCell ref="H216:H221"/>
+    <mergeCell ref="D217:G217"/>
+    <mergeCell ref="D218:G218"/>
+    <mergeCell ref="D219:G219"/>
+    <mergeCell ref="D220:G220"/>
+    <mergeCell ref="D221:G221"/>
+    <mergeCell ref="A222:A227"/>
+    <mergeCell ref="B222:B227"/>
+    <mergeCell ref="C222:C227"/>
+    <mergeCell ref="D222:G222"/>
+    <mergeCell ref="H222:H227"/>
+    <mergeCell ref="D223:G223"/>
+    <mergeCell ref="D224:G224"/>
+    <mergeCell ref="D225:G225"/>
+    <mergeCell ref="D226:G226"/>
+    <mergeCell ref="D227:G227"/>
+    <mergeCell ref="A228:A233"/>
+    <mergeCell ref="B228:B233"/>
+    <mergeCell ref="C228:C233"/>
+    <mergeCell ref="D228:G228"/>
+    <mergeCell ref="H228:H233"/>
+    <mergeCell ref="D229:G229"/>
+    <mergeCell ref="D230:G230"/>
+    <mergeCell ref="D231:G231"/>
+    <mergeCell ref="D232:G232"/>
+    <mergeCell ref="D233:G233"/>
+    <mergeCell ref="A234:A239"/>
+    <mergeCell ref="B234:B239"/>
+    <mergeCell ref="C234:C239"/>
+    <mergeCell ref="D234:G234"/>
+    <mergeCell ref="H234:H239"/>
+    <mergeCell ref="D235:G235"/>
+    <mergeCell ref="D236:G236"/>
+    <mergeCell ref="D237:G237"/>
+    <mergeCell ref="D238:G238"/>
+    <mergeCell ref="D239:G239"/>
+    <mergeCell ref="A240:A245"/>
+    <mergeCell ref="B240:B245"/>
+    <mergeCell ref="C240:C245"/>
+    <mergeCell ref="D240:G240"/>
+    <mergeCell ref="H240:H245"/>
+    <mergeCell ref="D241:G241"/>
+    <mergeCell ref="D242:G242"/>
+    <mergeCell ref="D243:G243"/>
+    <mergeCell ref="D244:G244"/>
+    <mergeCell ref="D245:G245"/>
+    <mergeCell ref="E255:G259"/>
+    <mergeCell ref="E260:G260"/>
+    <mergeCell ref="E261:F261"/>
+    <mergeCell ref="E262:F262"/>
+    <mergeCell ref="A246:A251"/>
+    <mergeCell ref="B246:B251"/>
+    <mergeCell ref="C246:C251"/>
+    <mergeCell ref="D246:G246"/>
+    <mergeCell ref="H246:H251"/>
+    <mergeCell ref="D247:G247"/>
+    <mergeCell ref="D248:G248"/>
+    <mergeCell ref="D249:G249"/>
+    <mergeCell ref="D250:G250"/>
+    <mergeCell ref="D251:G251"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>